--- a/tables_extended.xlsx
+++ b/tables_extended.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Documents/projects/covid/science_revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A337746C-1E05-CB4E-B150-02E7B61F3C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F398109F-4652-394D-BDA5-89013498D469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B3E001DA-FE62-B74F-A74D-2CE97A02E934}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{B3E001DA-FE62-B74F-A74D-2CE97A02E934}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_cases" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="549">
   <si>
     <t>-</t>
   </si>
@@ -2893,48 +2893,24 @@
 97.4% [64.1%, 100.0%]</t>
   </si>
   <si>
-    <t>49.3
-4.9 [0.0, 24.2]
-44.5 [25.1, 49.3]
-90.1% [51.0%, 100.0%]</t>
-  </si>
-  <si>
     <t>111.4
 2.1 [0.0, 31.8]
 109.4 [79.6, 111.4]
 98.1% [71.5%, 100.0%]</t>
   </si>
   <si>
-    <t>107.8
-8.6 [0.0, 43.3]
-99.2 [64.6, 107.8]
-92.0% [59.9%, 100.0%]</t>
-  </si>
-  <si>
     <t>170.2
 3.4 [0.0, 65.6]
 166.8 [104.7, 170.2]
 98.0% [61.5%, 100.0%]</t>
   </si>
   <si>
-    <t>166.6
-16.3 [0.0, 90.4]
-150.3 [76.2, 166.6]
-90.2% [45.7%, 100.0%]</t>
-  </si>
-  <si>
     <t>220.7
 6.8 [0.0, 169.0]
 213.9 [51.7, 220.7]
 96.9% [23.4%, 100.0%]</t>
   </si>
   <si>
-    <t>217.1
-36.3 [0.0, 236.1]
-180.8 [-19.0, 217.1]
-83.3% [-8.8%, 100.0%]</t>
-  </si>
-  <si>
     <t>3.6
 0.7 [0.0, 9.0]
 2.9 [-5.3, 3.6]
@@ -3061,12 +3037,6 @@
 96.7% [83.1%, 100.0%]</t>
   </si>
   <si>
-    <t>11.8
-2.3 [0.0, 12.1]
-9.6 [-0.2, 11.8]
-80.9% [-1.9%, 100.0%]</t>
-  </si>
-  <si>
     <t>January 1</t>
   </si>
   <si>
@@ -3107,6 +3077,56 @@
   </si>
   <si>
     <t>Early intervention</t>
+  </si>
+  <si>
+    <t>13.0
+5.4 [0.0, 39.5]
+7.6 [-26.4, 13.0]
+58.7% [-202.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>24.9
+5.5 [0.0, 40.7]
+19.4 [-15.8, 24.9]
+78.0% [-63.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>62.4
+5.5 [0.0, 42.7]
+56.8 [19.7, 62.4]
+91.1% [31.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>120.8
+5.6 [0.0, 46.0]
+115.2 [74.9, 120.8]
+95.4% [61.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>179.7
+5.7 [0.0, 53.9]
+173.9 [125.7, 179.7]
+96.8% [70.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>230.1
+5.9 [0.0, 75.7]
+224.2 [154.5, 230.1]
+97.4% [67.1%, 100.0%]</t>
+  </si>
+  <si>
+    <r>
+      <t>Table 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Predicted total death counts and deaths averted under moderate CFR schedule (in thousands)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3205,7 +3225,9 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3554,7 +3576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3681,7 +3703,6 @@
     <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4014,90 +4035,6 @@
     <xf numFmtId="4" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4105,9 +4042,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4118,9 +4052,6 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4143,23 +4074,123 @@
     <xf numFmtId="16" fontId="7" fillId="3" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4476,10 +4507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379CC9F0-DA8B-1241-976B-68F3F8047D8C}">
-  <dimension ref="C3:AX68"/>
+  <dimension ref="C3:AX55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AQ42" sqref="AQ42:AW51"/>
+    <sheetView topLeftCell="AI36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AQ45" sqref="AQ45:AW54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4500,69 +4531,65 @@
     <col min="39" max="42" width="10.83203125" style="11"/>
     <col min="43" max="43" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="45" max="49" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="50" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:30" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="C3" s="185" t="s">
+      <c r="C3" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="X3" s="185" t="s">
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="X3" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="185"/>
-      <c r="AD3" s="185"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="215"/>
     </row>
     <row r="4" spans="3:30" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="C4" s="187" t="s">
+      <c r="C4" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="X4" s="187" t="s">
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="X4" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="188"/>
-      <c r="Z4" s="188"/>
-      <c r="AA4" s="188"/>
-      <c r="AB4" s="188"/>
-      <c r="AC4" s="188"/>
-      <c r="AD4" s="188"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
+      <c r="AD4" s="217"/>
     </row>
     <row r="5" spans="3:30" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="E5" s="186" t="s">
+      <c r="E5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="Z5" s="186" t="s">
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
+      <c r="Z5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="186"/>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="186"/>
-      <c r="AD5" s="186"/>
+      <c r="AA5" s="214"/>
+      <c r="AB5" s="214"/>
+      <c r="AC5" s="214"/>
+      <c r="AD5" s="214"/>
     </row>
     <row r="6" spans="3:30" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="C6" s="16" t="s">
@@ -5078,40 +5105,40 @@
       </c>
     </row>
     <row r="12" spans="3:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="186" t="s">
+      <c r="C12" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="X12" s="186" t="s">
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="214"/>
+      <c r="I12" s="214"/>
+      <c r="X12" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="186"/>
+      <c r="Y12" s="214"/>
+      <c r="Z12" s="214"/>
+      <c r="AA12" s="214"/>
+      <c r="AB12" s="214"/>
+      <c r="AC12" s="214"/>
+      <c r="AD12" s="214"/>
     </row>
     <row r="13" spans="3:30" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="E13" s="186" t="s">
+      <c r="E13" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="Z13" s="186" t="s">
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="Z13" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="AA13" s="186"/>
-      <c r="AB13" s="186"/>
-      <c r="AC13" s="186"/>
-      <c r="AD13" s="186"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="214"/>
+      <c r="AC13" s="214"/>
+      <c r="AD13" s="214"/>
     </row>
     <row r="14" spans="3:30" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
@@ -5700,585 +5727,480 @@
     <row r="21" spans="3:39" s="1" customFormat="1" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="AF24" s="166"/>
-      <c r="AG24" s="167"/>
-      <c r="AH24" s="167"/>
-      <c r="AI24" s="167"/>
-      <c r="AJ24" s="167"/>
-      <c r="AK24" s="167"/>
-      <c r="AL24" s="167"/>
-      <c r="AM24" s="168"/>
+      <c r="AF24" s="165"/>
+      <c r="AG24" s="166"/>
+      <c r="AH24" s="166"/>
+      <c r="AI24" s="166"/>
+      <c r="AJ24" s="166"/>
+      <c r="AK24" s="166"/>
+      <c r="AL24" s="166"/>
+      <c r="AM24" s="167"/>
     </row>
     <row r="25" spans="3:39" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF25" s="169"/>
-      <c r="AG25" s="194" t="s">
+      <c r="AF25" s="168"/>
+      <c r="AG25" s="213" t="s">
         <v>311</v>
       </c>
-      <c r="AH25" s="194"/>
-      <c r="AI25" s="194"/>
-      <c r="AJ25" s="194"/>
-      <c r="AK25" s="194"/>
-      <c r="AL25" s="194"/>
-      <c r="AM25" s="170"/>
+      <c r="AH25" s="213"/>
+      <c r="AI25" s="213"/>
+      <c r="AJ25" s="213"/>
+      <c r="AK25" s="213"/>
+      <c r="AL25" s="213"/>
+      <c r="AM25" s="169"/>
     </row>
     <row r="26" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="AF26" s="169"/>
-      <c r="AG26" s="163" t="s">
+      <c r="AF26" s="168"/>
+      <c r="AG26" s="162" t="s">
         <v>455</v>
       </c>
-      <c r="AH26" s="163"/>
-      <c r="AI26" s="191" t="s">
+      <c r="AH26" s="162"/>
+      <c r="AI26" s="210" t="s">
         <v>456</v>
       </c>
-      <c r="AJ26" s="192"/>
-      <c r="AK26" s="191" t="s">
+      <c r="AJ26" s="211"/>
+      <c r="AK26" s="210" t="s">
         <v>457</v>
       </c>
-      <c r="AL26" s="193"/>
-      <c r="AM26" s="170"/>
+      <c r="AL26" s="212"/>
+      <c r="AM26" s="169"/>
     </row>
     <row r="27" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="AF27" s="169"/>
-      <c r="AG27" s="156" t="s">
+      <c r="AF27" s="168"/>
+      <c r="AG27" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="AH27" s="156" t="s">
+      <c r="AH27" s="155" t="s">
         <v>454</v>
       </c>
-      <c r="AI27" s="160" t="s">
+      <c r="AI27" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="AJ27" s="161" t="s">
+      <c r="AJ27" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="AK27" s="160" t="s">
+      <c r="AK27" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="AL27" s="108" t="s">
+      <c r="AL27" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AM27" s="170"/>
+      <c r="AM27" s="169"/>
     </row>
     <row r="28" spans="3:39" ht="48" x14ac:dyDescent="0.2">
-      <c r="AF28" s="169"/>
-      <c r="AG28" s="157">
+      <c r="AF28" s="168"/>
+      <c r="AG28" s="156">
         <v>44285</v>
       </c>
-      <c r="AH28" s="146" t="s">
+      <c r="AH28" s="145" t="s">
         <v>453</v>
       </c>
-      <c r="AI28" s="150" t="s">
+      <c r="AI28" s="149" t="s">
         <v>458</v>
       </c>
-      <c r="AJ28" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="150" t="s">
+      <c r="AJ28" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="149" t="s">
         <v>442</v>
       </c>
-      <c r="AL28" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="170"/>
+      <c r="AL28" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="169"/>
     </row>
     <row r="29" spans="3:39" ht="48" x14ac:dyDescent="0.2">
-      <c r="AF29" s="169"/>
-      <c r="AG29" s="158">
+      <c r="AF29" s="168"/>
+      <c r="AG29" s="157">
         <v>44301</v>
       </c>
-      <c r="AH29" s="148" t="s">
+      <c r="AH29" s="147" t="s">
         <v>453</v>
       </c>
-      <c r="AI29" s="151" t="s">
+      <c r="AI29" s="150" t="s">
         <v>459</v>
       </c>
-      <c r="AJ29" s="165" t="s">
+      <c r="AJ29" s="164" t="s">
         <v>460</v>
       </c>
-      <c r="AK29" s="151" t="s">
+      <c r="AK29" s="150" t="s">
         <v>443</v>
       </c>
-      <c r="AL29" s="165" t="s">
+      <c r="AL29" s="164" t="s">
         <v>444</v>
       </c>
-      <c r="AM29" s="170"/>
+      <c r="AM29" s="169"/>
     </row>
     <row r="30" spans="3:39" ht="48" x14ac:dyDescent="0.2">
-      <c r="AF30" s="169"/>
-      <c r="AG30" s="157">
+      <c r="AF30" s="168"/>
+      <c r="AG30" s="156">
         <v>44316</v>
       </c>
-      <c r="AH30" s="146" t="s">
+      <c r="AH30" s="145" t="s">
         <v>453</v>
       </c>
-      <c r="AI30" s="152" t="s">
+      <c r="AI30" s="151" t="s">
         <v>461</v>
       </c>
-      <c r="AJ30" s="147" t="s">
+      <c r="AJ30" s="146" t="s">
         <v>462</v>
       </c>
-      <c r="AK30" s="152" t="s">
+      <c r="AK30" s="151" t="s">
         <v>445</v>
       </c>
-      <c r="AL30" s="147" t="s">
+      <c r="AL30" s="146" t="s">
         <v>446</v>
       </c>
-      <c r="AM30" s="170"/>
+      <c r="AM30" s="169"/>
     </row>
     <row r="31" spans="3:39" ht="48" x14ac:dyDescent="0.2">
-      <c r="AF31" s="169"/>
-      <c r="AG31" s="158">
+      <c r="AF31" s="168"/>
+      <c r="AG31" s="157">
         <v>44331</v>
       </c>
-      <c r="AH31" s="148" t="s">
+      <c r="AH31" s="147" t="s">
         <v>453</v>
       </c>
-      <c r="AI31" s="151" t="s">
+      <c r="AI31" s="150" t="s">
         <v>463</v>
       </c>
-      <c r="AJ31" s="149" t="s">
+      <c r="AJ31" s="148" t="s">
         <v>464</v>
       </c>
-      <c r="AK31" s="151" t="s">
+      <c r="AK31" s="150" t="s">
         <v>447</v>
       </c>
-      <c r="AL31" s="149" t="s">
+      <c r="AL31" s="148" t="s">
         <v>448</v>
       </c>
-      <c r="AM31" s="170"/>
+      <c r="AM31" s="169"/>
     </row>
     <row r="32" spans="3:39" ht="48" x14ac:dyDescent="0.2">
-      <c r="AF32" s="169"/>
-      <c r="AG32" s="157">
+      <c r="AF32" s="168"/>
+      <c r="AG32" s="156">
         <v>44346</v>
       </c>
-      <c r="AH32" s="146" t="s">
+      <c r="AH32" s="145" t="s">
         <v>453</v>
       </c>
-      <c r="AI32" s="152" t="s">
+      <c r="AI32" s="151" t="s">
         <v>465</v>
       </c>
-      <c r="AJ32" s="147" t="s">
+      <c r="AJ32" s="146" t="s">
         <v>466</v>
       </c>
-      <c r="AK32" s="152" t="s">
+      <c r="AK32" s="151" t="s">
         <v>449</v>
       </c>
-      <c r="AL32" s="147" t="s">
+      <c r="AL32" s="146" t="s">
         <v>450</v>
       </c>
-      <c r="AM32" s="170"/>
+      <c r="AM32" s="169"/>
     </row>
     <row r="33" spans="32:50" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AF33" s="169"/>
-      <c r="AG33" s="159">
+      <c r="AF33" s="168"/>
+      <c r="AG33" s="158">
         <v>44362</v>
       </c>
-      <c r="AH33" s="155" t="s">
+      <c r="AH33" s="154" t="s">
         <v>453</v>
       </c>
-      <c r="AI33" s="153" t="s">
+      <c r="AI33" s="152" t="s">
         <v>467</v>
       </c>
-      <c r="AJ33" s="162" t="s">
+      <c r="AJ33" s="161" t="s">
         <v>468</v>
       </c>
-      <c r="AK33" s="153" t="s">
+      <c r="AK33" s="152" t="s">
         <v>451</v>
       </c>
-      <c r="AL33" s="162" t="s">
+      <c r="AL33" s="161" t="s">
         <v>452</v>
       </c>
-      <c r="AM33" s="170"/>
+      <c r="AM33" s="169"/>
     </row>
     <row r="34" spans="32:50" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="AF34" s="171"/>
-      <c r="AG34" s="189" t="s">
+      <c r="AF34" s="170"/>
+      <c r="AG34" s="208" t="s">
         <v>197</v>
       </c>
-      <c r="AH34" s="189"/>
-      <c r="AI34" s="190"/>
-      <c r="AJ34" s="190"/>
-      <c r="AK34" s="190"/>
-      <c r="AL34" s="190"/>
-      <c r="AM34" s="172"/>
+      <c r="AH34" s="208"/>
+      <c r="AI34" s="209"/>
+      <c r="AJ34" s="209"/>
+      <c r="AK34" s="209"/>
+      <c r="AL34" s="209"/>
+      <c r="AM34" s="171"/>
     </row>
     <row r="35" spans="32:50" x14ac:dyDescent="0.2">
-      <c r="AF35" s="169"/>
-      <c r="AG35" s="154"/>
-      <c r="AH35" s="154"/>
-      <c r="AI35" s="154"/>
-      <c r="AJ35" s="154"/>
-      <c r="AK35" s="154"/>
-      <c r="AL35" s="154"/>
-      <c r="AM35" s="170"/>
+      <c r="AF35" s="168"/>
+      <c r="AG35" s="153"/>
+      <c r="AH35" s="153"/>
+      <c r="AI35" s="153"/>
+      <c r="AJ35" s="153"/>
+      <c r="AK35" s="153"/>
+      <c r="AL35" s="153"/>
+      <c r="AM35" s="169"/>
     </row>
     <row r="36" spans="32:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AF36" s="173"/>
-      <c r="AG36" s="174"/>
-      <c r="AH36" s="174"/>
-      <c r="AI36" s="174"/>
-      <c r="AJ36" s="174"/>
-      <c r="AK36" s="174"/>
-      <c r="AL36" s="174"/>
-      <c r="AM36" s="175"/>
-    </row>
-    <row r="40" spans="32:50" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="32:50" x14ac:dyDescent="0.2">
-      <c r="AP41" s="166"/>
-      <c r="AQ41" s="167"/>
-      <c r="AR41" s="167"/>
-      <c r="AS41" s="167"/>
-      <c r="AT41" s="167"/>
-      <c r="AU41" s="167"/>
-      <c r="AV41" s="167"/>
-      <c r="AW41" s="167"/>
-      <c r="AX41" s="168"/>
-    </row>
-    <row r="42" spans="32:50" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF42" s="104"/>
-      <c r="AG42" s="104"/>
-      <c r="AH42" s="104"/>
-      <c r="AI42" s="104"/>
-      <c r="AJ42" s="104"/>
-      <c r="AK42" s="104"/>
-      <c r="AL42" s="104"/>
-      <c r="AM42" s="46"/>
-      <c r="AP42" s="169"/>
-      <c r="AQ42" s="239" t="s">
+      <c r="AF36" s="172"/>
+      <c r="AG36" s="173"/>
+      <c r="AH36" s="173"/>
+      <c r="AI36" s="173"/>
+      <c r="AJ36" s="173"/>
+      <c r="AK36" s="173"/>
+      <c r="AL36" s="173"/>
+      <c r="AM36" s="174"/>
+    </row>
+    <row r="43" spans="32:50" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="32:50" x14ac:dyDescent="0.2">
+      <c r="AO44" s="144"/>
+      <c r="AP44" s="239"/>
+      <c r="AQ44" s="240"/>
+      <c r="AR44" s="240"/>
+      <c r="AS44" s="240"/>
+      <c r="AT44" s="240"/>
+      <c r="AU44" s="240"/>
+      <c r="AV44" s="240"/>
+      <c r="AW44" s="240"/>
+      <c r="AX44" s="241"/>
+    </row>
+    <row r="45" spans="32:50" x14ac:dyDescent="0.2">
+      <c r="AP45" s="242"/>
+      <c r="AQ45" s="206" t="s">
         <v>311</v>
       </c>
-      <c r="AR42" s="239"/>
-      <c r="AS42" s="239"/>
-      <c r="AT42" s="239"/>
-      <c r="AU42" s="239"/>
-      <c r="AV42" s="239"/>
-      <c r="AW42" s="239"/>
-      <c r="AX42" s="170"/>
-    </row>
-    <row r="43" spans="32:50" ht="16" x14ac:dyDescent="0.2">
-      <c r="AF43" s="104"/>
-      <c r="AG43"/>
-      <c r="AH43"/>
-      <c r="AI43"/>
-      <c r="AJ43"/>
-      <c r="AK43"/>
-      <c r="AL43"/>
-      <c r="AM43" s="46"/>
-      <c r="AP43" s="169"/>
-      <c r="AQ43" s="163" t="s">
+      <c r="AR45" s="206"/>
+      <c r="AS45" s="206"/>
+      <c r="AT45" s="206"/>
+      <c r="AU45" s="206"/>
+      <c r="AV45" s="206"/>
+      <c r="AW45" s="206"/>
+      <c r="AX45" s="171"/>
+    </row>
+    <row r="46" spans="32:50" x14ac:dyDescent="0.2">
+      <c r="AP46" s="242"/>
+      <c r="AQ46" s="162" t="s">
         <v>455</v>
       </c>
-      <c r="AR43" s="163"/>
-      <c r="AS43" s="235" t="s">
+      <c r="AR46" s="162"/>
+      <c r="AS46" s="203" t="s">
+        <v>541</v>
+      </c>
+      <c r="AT46" s="204" t="s">
+        <v>457</v>
+      </c>
+      <c r="AU46" s="205"/>
+      <c r="AV46" s="210" t="s">
         <v>456</v>
       </c>
-      <c r="AT43" s="236"/>
-      <c r="AU43" s="235" t="s">
-        <v>457</v>
-      </c>
-      <c r="AV43" s="237"/>
-      <c r="AW43" s="238" t="s">
-        <v>546</v>
-      </c>
-      <c r="AX43" s="170"/>
-    </row>
-    <row r="44" spans="32:50" ht="16" x14ac:dyDescent="0.2">
-      <c r="AF44" s="104"/>
-      <c r="AG44"/>
-      <c r="AH44"/>
-      <c r="AI44"/>
-      <c r="AJ44"/>
-      <c r="AK44"/>
-      <c r="AL44"/>
-      <c r="AM44" s="46"/>
-      <c r="AP44" s="169"/>
-      <c r="AQ44" s="156" t="s">
+      <c r="AW46" s="212"/>
+      <c r="AX46" s="171"/>
+    </row>
+    <row r="47" spans="32:50" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP47" s="242"/>
+      <c r="AQ47" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="AR44" s="156" t="s">
+      <c r="AR47" s="155" t="s">
         <v>454</v>
       </c>
-      <c r="AS44" s="160" t="s">
+      <c r="AS47" s="202" t="s">
+        <v>534</v>
+      </c>
+      <c r="AT47" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="AT44" s="161" t="s">
+      <c r="AU47" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AU44" s="160" t="s">
+      <c r="AV47" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="AV44" s="108" t="s">
+      <c r="AW47" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AW44" s="233" t="s">
+      <c r="AX47" s="171"/>
+    </row>
+    <row r="48" spans="32:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="AP48" s="242"/>
+      <c r="AQ48" s="156">
+        <v>44285</v>
+      </c>
+      <c r="AR48" s="145" t="s">
+        <v>453</v>
+      </c>
+      <c r="AS48" s="200" t="s">
+        <v>535</v>
+      </c>
+      <c r="AT48" s="149" t="s">
+        <v>442</v>
+      </c>
+      <c r="AU48" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV48" s="200" t="s">
+        <v>458</v>
+      </c>
+      <c r="AW48" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="171"/>
+    </row>
+    <row r="49" spans="39:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="AP49" s="242"/>
+      <c r="AQ49" s="157">
+        <v>44301</v>
+      </c>
+      <c r="AR49" s="147" t="s">
+        <v>453</v>
+      </c>
+      <c r="AS49" s="201" t="s">
+        <v>536</v>
+      </c>
+      <c r="AT49" s="238" t="s">
+        <v>443</v>
+      </c>
+      <c r="AU49" s="164" t="s">
+        <v>444</v>
+      </c>
+      <c r="AV49" s="238" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW49" s="164" t="s">
+        <v>460</v>
+      </c>
+      <c r="AX49" s="171"/>
+    </row>
+    <row r="50" spans="39:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="AP50" s="242"/>
+      <c r="AQ50" s="156">
+        <v>44316</v>
+      </c>
+      <c r="AR50" s="145" t="s">
+        <v>453</v>
+      </c>
+      <c r="AS50" s="151" t="s">
+        <v>537</v>
+      </c>
+      <c r="AT50" s="151" t="s">
+        <v>445</v>
+      </c>
+      <c r="AU50" s="146" t="s">
+        <v>446</v>
+      </c>
+      <c r="AV50" s="151" t="s">
+        <v>461</v>
+      </c>
+      <c r="AW50" s="146" t="s">
+        <v>462</v>
+      </c>
+      <c r="AX50" s="171"/>
+    </row>
+    <row r="51" spans="39:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="AP51" s="242"/>
+      <c r="AQ51" s="157">
+        <v>44331</v>
+      </c>
+      <c r="AR51" s="147" t="s">
+        <v>453</v>
+      </c>
+      <c r="AS51" s="238" t="s">
+        <v>538</v>
+      </c>
+      <c r="AT51" s="238" t="s">
+        <v>447</v>
+      </c>
+      <c r="AU51" s="148" t="s">
+        <v>448</v>
+      </c>
+      <c r="AV51" s="238" t="s">
+        <v>463</v>
+      </c>
+      <c r="AW51" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="AX51" s="171"/>
+    </row>
+    <row r="52" spans="39:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="AP52" s="242"/>
+      <c r="AQ52" s="156">
+        <v>44346</v>
+      </c>
+      <c r="AR52" s="145" t="s">
+        <v>453</v>
+      </c>
+      <c r="AS52" s="151" t="s">
         <v>539</v>
       </c>
-      <c r="AX44" s="170"/>
-    </row>
-    <row r="45" spans="32:50" ht="48" x14ac:dyDescent="0.2">
-      <c r="AF45" s="104"/>
-      <c r="AG45"/>
-      <c r="AH45"/>
-      <c r="AI45"/>
-      <c r="AJ45"/>
-      <c r="AK45"/>
-      <c r="AL45"/>
-      <c r="AM45" s="46"/>
-      <c r="AP45" s="169"/>
-      <c r="AQ45" s="157">
-        <v>44285</v>
-      </c>
-      <c r="AR45" s="146" t="s">
+      <c r="AT52" s="151" t="s">
+        <v>449</v>
+      </c>
+      <c r="AU52" s="146" t="s">
+        <v>450</v>
+      </c>
+      <c r="AV52" s="151" t="s">
+        <v>465</v>
+      </c>
+      <c r="AW52" s="146" t="s">
+        <v>466</v>
+      </c>
+      <c r="AX52" s="171"/>
+    </row>
+    <row r="53" spans="39:50" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP53" s="242"/>
+      <c r="AQ53" s="158">
+        <v>44362</v>
+      </c>
+      <c r="AR53" s="154" t="s">
         <v>453</v>
       </c>
-      <c r="AS45" s="150" t="s">
-        <v>458</v>
-      </c>
-      <c r="AT45" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU45" s="150" t="s">
-        <v>442</v>
-      </c>
-      <c r="AV45" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW45" s="231" t="s">
+      <c r="AS53" s="152" t="s">
         <v>540</v>
       </c>
-      <c r="AX45" s="170"/>
-    </row>
-    <row r="46" spans="32:50" ht="48" x14ac:dyDescent="0.2">
-      <c r="AF46" s="104"/>
-      <c r="AG46"/>
-      <c r="AH46"/>
-      <c r="AI46"/>
-      <c r="AJ46"/>
-      <c r="AK46"/>
-      <c r="AL46"/>
-      <c r="AM46" s="46"/>
-      <c r="AP46" s="169"/>
-      <c r="AQ46" s="158">
-        <v>44301</v>
-      </c>
-      <c r="AR46" s="148" t="s">
-        <v>453</v>
-      </c>
-      <c r="AS46" s="151" t="s">
-        <v>459</v>
-      </c>
-      <c r="AT46" s="165" t="s">
-        <v>460</v>
-      </c>
-      <c r="AU46" s="151" t="s">
-        <v>443</v>
-      </c>
-      <c r="AV46" s="165" t="s">
-        <v>444</v>
-      </c>
-      <c r="AW46" s="232" t="s">
-        <v>541</v>
-      </c>
-      <c r="AX46" s="170"/>
-    </row>
-    <row r="47" spans="32:50" ht="48" x14ac:dyDescent="0.2">
-      <c r="AF47" s="104"/>
-      <c r="AG47"/>
-      <c r="AH47"/>
-      <c r="AI47"/>
-      <c r="AJ47"/>
-      <c r="AK47"/>
-      <c r="AL47"/>
-      <c r="AM47" s="46"/>
-      <c r="AP47" s="169"/>
-      <c r="AQ47" s="157">
-        <v>44316</v>
-      </c>
-      <c r="AR47" s="146" t="s">
-        <v>453</v>
-      </c>
-      <c r="AS47" s="152" t="s">
-        <v>461</v>
-      </c>
-      <c r="AT47" s="147" t="s">
-        <v>462</v>
-      </c>
-      <c r="AU47" s="152" t="s">
-        <v>445</v>
-      </c>
-      <c r="AV47" s="147" t="s">
-        <v>446</v>
-      </c>
-      <c r="AW47" s="152" t="s">
-        <v>542</v>
-      </c>
-      <c r="AX47" s="170"/>
-    </row>
-    <row r="48" spans="32:50" ht="48" x14ac:dyDescent="0.2">
-      <c r="AF48" s="104"/>
-      <c r="AG48"/>
-      <c r="AH48"/>
-      <c r="AI48"/>
-      <c r="AJ48"/>
-      <c r="AK48"/>
-      <c r="AL48"/>
-      <c r="AM48" s="46"/>
-      <c r="AP48" s="169"/>
-      <c r="AQ48" s="158">
-        <v>44331</v>
-      </c>
-      <c r="AR48" s="148" t="s">
-        <v>453</v>
-      </c>
-      <c r="AS48" s="151" t="s">
-        <v>463</v>
-      </c>
-      <c r="AT48" s="149" t="s">
-        <v>464</v>
-      </c>
-      <c r="AU48" s="151" t="s">
-        <v>447</v>
-      </c>
-      <c r="AV48" s="149" t="s">
-        <v>448</v>
-      </c>
-      <c r="AW48" s="151" t="s">
-        <v>543</v>
-      </c>
-      <c r="AX48" s="170"/>
-    </row>
-    <row r="49" spans="32:50" ht="48" x14ac:dyDescent="0.2">
-      <c r="AF49" s="104"/>
-      <c r="AG49"/>
-      <c r="AH49"/>
-      <c r="AI49"/>
-      <c r="AJ49"/>
-      <c r="AK49"/>
-      <c r="AL49"/>
-      <c r="AM49" s="46"/>
-      <c r="AP49" s="169"/>
-      <c r="AQ49" s="157">
-        <v>44346</v>
-      </c>
-      <c r="AR49" s="146" t="s">
-        <v>453</v>
-      </c>
-      <c r="AS49" s="152" t="s">
-        <v>465</v>
-      </c>
-      <c r="AT49" s="147" t="s">
-        <v>466</v>
-      </c>
-      <c r="AU49" s="152" t="s">
-        <v>449</v>
-      </c>
-      <c r="AV49" s="147" t="s">
-        <v>450</v>
-      </c>
-      <c r="AW49" s="152" t="s">
-        <v>544</v>
-      </c>
-      <c r="AX49" s="170"/>
-    </row>
-    <row r="50" spans="32:50" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AF50" s="125"/>
-      <c r="AG50"/>
-      <c r="AH50"/>
-      <c r="AI50"/>
-      <c r="AJ50"/>
-      <c r="AK50"/>
-      <c r="AL50"/>
-      <c r="AM50" s="54"/>
-      <c r="AP50" s="169"/>
-      <c r="AQ50" s="159">
-        <v>44362</v>
-      </c>
-      <c r="AR50" s="155" t="s">
-        <v>453</v>
-      </c>
-      <c r="AS50" s="153" t="s">
+      <c r="AT53" s="152" t="s">
+        <v>451</v>
+      </c>
+      <c r="AU53" s="161" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV53" s="152" t="s">
         <v>467</v>
       </c>
-      <c r="AT50" s="162" t="s">
+      <c r="AW53" s="161" t="s">
         <v>468</v>
       </c>
-      <c r="AU50" s="153" t="s">
-        <v>451</v>
-      </c>
-      <c r="AV50" s="162" t="s">
-        <v>452</v>
-      </c>
-      <c r="AW50" s="153" t="s">
-        <v>545</v>
-      </c>
-      <c r="AX50" s="170"/>
-    </row>
-    <row r="51" spans="32:50" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="AF51" s="104"/>
-      <c r="AG51" s="104"/>
-      <c r="AH51" s="104"/>
-      <c r="AI51" s="104"/>
-      <c r="AJ51" s="104"/>
-      <c r="AK51" s="104"/>
-      <c r="AL51" s="104"/>
-      <c r="AM51" s="46"/>
-      <c r="AP51" s="171"/>
-      <c r="AQ51" s="234" t="s">
+      <c r="AX53" s="171"/>
+    </row>
+    <row r="54" spans="39:50" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AP54" s="242"/>
+      <c r="AQ54" s="207" t="s">
         <v>197</v>
       </c>
-      <c r="AR51" s="234"/>
-      <c r="AS51" s="234"/>
-      <c r="AT51" s="234"/>
-      <c r="AU51" s="234"/>
-      <c r="AV51" s="234"/>
-      <c r="AW51" s="234"/>
-      <c r="AX51" s="172"/>
-    </row>
-    <row r="52" spans="32:50" x14ac:dyDescent="0.2">
-      <c r="AF52" s="46"/>
-      <c r="AG52" s="46"/>
-      <c r="AH52" s="46"/>
-      <c r="AI52" s="46"/>
-      <c r="AJ52" s="46"/>
-      <c r="AK52" s="46"/>
-      <c r="AL52" s="46"/>
-      <c r="AM52" s="46"/>
-      <c r="AP52" s="169"/>
-      <c r="AQ52" s="154"/>
-      <c r="AR52" s="154"/>
-      <c r="AS52" s="154"/>
-      <c r="AT52" s="154"/>
-      <c r="AU52" s="154"/>
-      <c r="AV52" s="154"/>
-      <c r="AW52" s="154"/>
-      <c r="AX52" s="170"/>
-    </row>
-    <row r="53" spans="32:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AP53" s="173"/>
-      <c r="AQ53" s="174"/>
-      <c r="AR53" s="174"/>
-      <c r="AS53" s="174"/>
-      <c r="AT53" s="174"/>
-      <c r="AU53" s="174"/>
-      <c r="AV53" s="174"/>
-      <c r="AW53" s="174"/>
-      <c r="AX53" s="175"/>
-    </row>
-    <row r="57" spans="32:50" x14ac:dyDescent="0.2">
-      <c r="AO57" s="145"/>
-      <c r="AP57" s="145"/>
-    </row>
-    <row r="68" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM68" s="145"/>
+      <c r="AR54" s="207"/>
+      <c r="AS54" s="207"/>
+      <c r="AT54" s="207"/>
+      <c r="AU54" s="207"/>
+      <c r="AV54" s="207"/>
+      <c r="AW54" s="207"/>
+      <c r="AX54" s="171"/>
+    </row>
+    <row r="55" spans="39:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM55" s="144"/>
+      <c r="AP55" s="243"/>
+      <c r="AQ55" s="244"/>
+      <c r="AR55" s="244"/>
+      <c r="AS55" s="244"/>
+      <c r="AT55" s="244"/>
+      <c r="AU55" s="244"/>
+      <c r="AV55" s="244"/>
+      <c r="AW55" s="244"/>
+      <c r="AX55" s="245"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AS43:AT43"/>
-    <mergeCell ref="AU43:AV43"/>
-    <mergeCell ref="AQ42:AW42"/>
-    <mergeCell ref="AQ51:AW51"/>
-    <mergeCell ref="AG34:AL34"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="AV46:AW46"/>
+    <mergeCell ref="AQ54:AW54"/>
+    <mergeCell ref="AQ45:AW45"/>
     <mergeCell ref="AI26:AJ26"/>
     <mergeCell ref="AK26:AL26"/>
     <mergeCell ref="AG25:AL25"/>
@@ -6292,6 +6214,7 @@
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="Z5:AD5"/>
     <mergeCell ref="X12:AD12"/>
+    <mergeCell ref="AG34:AL34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6331,36 +6254,36 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="50"/>
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="219" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
       <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
-      <c r="D4" s="204" t="s">
+      <c r="D4" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="204" t="s">
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="218"/>
       <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -6371,7 +6294,7 @@
       <c r="C5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="51" t="s">
@@ -6380,10 +6303,10 @@
       <c r="F5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="51" t="s">
@@ -6402,31 +6325,31 @@
       <c r="B6" s="28">
         <v>44270</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="81">
         <v>11.4</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="58" t="s">
+      <c r="E6" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="55" t="s">
+      <c r="I6" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="54" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="50"/>
@@ -6436,31 +6359,31 @@
       <c r="B7" s="52">
         <v>44285</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="82">
         <v>12.15</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="59" t="s">
+      <c r="F7" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="56" t="s">
+      <c r="J7" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="55" t="s">
         <v>0</v>
       </c>
       <c r="L7" s="50"/>
@@ -6470,31 +6393,31 @@
       <c r="B8" s="28">
         <v>44301</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="81">
         <v>14.29</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="58" t="s">
+      <c r="G8" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="55" t="s">
+      <c r="J8" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="54" t="s">
         <v>0</v>
       </c>
       <c r="L8" s="50"/>
@@ -6504,83 +6427,83 @@
       <c r="B9" s="52">
         <v>44316</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="82">
         <v>19.16</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="55" t="s">
         <v>99</v>
       </c>
       <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:23" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
-      <c r="B10" s="77">
+      <c r="B10" s="76">
         <v>44331</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="83">
         <v>24.68</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="80" t="s">
+      <c r="I10" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="77" t="s">
         <v>100</v>
       </c>
       <c r="L10" s="50"/>
     </row>
     <row r="11" spans="1:23" ht="61" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="220" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="198"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
+      <c r="C11" s="220"/>
+      <c r="D11" s="220"/>
+      <c r="E11" s="220"/>
+      <c r="F11" s="220"/>
+      <c r="G11" s="220"/>
+      <c r="H11" s="220"/>
+      <c r="I11" s="220"/>
+      <c r="J11" s="220"/>
+      <c r="K11" s="220"/>
       <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -6612,34 +6535,34 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="M14" s="50"/>
-      <c r="N14" s="195" t="s">
+      <c r="N14" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="O14" s="195"/>
-      <c r="P14" s="195"/>
-      <c r="Q14" s="195"/>
-      <c r="R14" s="195"/>
-      <c r="S14" s="195"/>
-      <c r="T14" s="195"/>
-      <c r="U14" s="195"/>
-      <c r="V14" s="195"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="219"/>
+      <c r="Q14" s="219"/>
+      <c r="R14" s="219"/>
+      <c r="S14" s="219"/>
+      <c r="T14" s="219"/>
+      <c r="U14" s="219"/>
+      <c r="V14" s="219"/>
       <c r="W14" s="50"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="M15" s="50"/>
       <c r="N15" s="46"/>
-      <c r="O15" s="204" t="s">
+      <c r="O15" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="205"/>
-      <c r="S15" s="204" t="s">
+      <c r="P15" s="218"/>
+      <c r="Q15" s="218"/>
+      <c r="R15" s="234"/>
+      <c r="S15" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="T15" s="197"/>
-      <c r="U15" s="197"/>
-      <c r="V15" s="197"/>
+      <c r="T15" s="218"/>
+      <c r="U15" s="218"/>
+      <c r="V15" s="218"/>
       <c r="W15" s="50"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -6647,7 +6570,7 @@
       <c r="N16" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="57" t="s">
+      <c r="O16" s="56" t="s">
         <v>2</v>
       </c>
       <c r="P16" s="51" t="s">
@@ -6656,10 +6579,10 @@
       <c r="Q16" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="R16" s="65" t="s">
+      <c r="R16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="S16" s="57" t="s">
+      <c r="S16" s="56" t="s">
         <v>2</v>
       </c>
       <c r="T16" s="51" t="s">
@@ -6678,20 +6601,20 @@
       <c r="N17" s="28">
         <v>44270</v>
       </c>
-      <c r="O17" s="58"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="58" t="s">
+      <c r="O17" s="57"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="T17" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="U17" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="V17" s="55" t="s">
+      <c r="T17" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" s="54" t="s">
         <v>0</v>
       </c>
       <c r="W17" s="50"/>
@@ -6701,20 +6624,20 @@
       <c r="N18" s="52">
         <v>44285</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="59" t="s">
+      <c r="O18" s="58"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="T18" s="56" t="s">
+      <c r="T18" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="U18" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" s="56" t="s">
+      <c r="U18" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" s="55" t="s">
         <v>0</v>
       </c>
       <c r="W18" s="50"/>
@@ -6724,20 +6647,20 @@
       <c r="N19" s="28">
         <v>44301</v>
       </c>
-      <c r="O19" s="58"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="58" t="s">
+      <c r="O19" s="57"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="T19" s="55" t="s">
+      <c r="T19" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="U19" s="55" t="s">
+      <c r="U19" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="V19" s="55" t="s">
+      <c r="V19" s="54" t="s">
         <v>0</v>
       </c>
       <c r="W19" s="50"/>
@@ -6747,60 +6670,60 @@
       <c r="N20" s="52">
         <v>44316</v>
       </c>
-      <c r="O20" s="59"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="59" t="s">
+      <c r="O20" s="58"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="T20" s="56" t="s">
+      <c r="T20" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="U20" s="56" t="s">
+      <c r="U20" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="V20" s="56" t="s">
+      <c r="V20" s="55" t="s">
         <v>278</v>
       </c>
       <c r="W20" s="50"/>
     </row>
     <row r="21" spans="13:23" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M21" s="50"/>
-      <c r="N21" s="77">
+      <c r="N21" s="76">
         <v>44331</v>
       </c>
-      <c r="O21" s="79"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="79" t="s">
+      <c r="O21" s="78"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="T21" s="78" t="s">
+      <c r="T21" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="U21" s="78" t="s">
+      <c r="U21" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="V21" s="78" t="s">
+      <c r="V21" s="77" t="s">
         <v>282</v>
       </c>
       <c r="W21" s="50"/>
     </row>
     <row r="22" spans="13:23" ht="51" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="M22" s="50"/>
-      <c r="N22" s="198" t="s">
+      <c r="N22" s="220" t="s">
         <v>74</v>
       </c>
-      <c r="O22" s="198"/>
-      <c r="P22" s="198"/>
-      <c r="Q22" s="198"/>
-      <c r="R22" s="198"/>
-      <c r="S22" s="198"/>
-      <c r="T22" s="198"/>
-      <c r="U22" s="198"/>
-      <c r="V22" s="198"/>
+      <c r="O22" s="220"/>
+      <c r="P22" s="220"/>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="220"/>
+      <c r="S22" s="220"/>
+      <c r="T22" s="220"/>
+      <c r="U22" s="220"/>
+      <c r="V22" s="220"/>
       <c r="W22" s="50"/>
     </row>
     <row r="23" spans="13:23" x14ac:dyDescent="0.2">
@@ -6842,10 +6765,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="137">
+      <c r="B5" s="136">
         <v>44270</v>
       </c>
-      <c r="C5" s="137">
+      <c r="C5" s="136">
         <v>44285</v>
       </c>
     </row>
@@ -7071,7 +6994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE0B18C-2B6D-234C-8DD9-D474DD11A9E4}">
   <dimension ref="B3:AN55"/>
   <sheetViews>
-    <sheetView topLeftCell="H29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="T25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
@@ -7086,15 +7009,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -7109,15 +7032,15 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="185" t="s">
+      <c r="W3" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="185"/>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="185"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
       <c r="AE3" s="50"/>
       <c r="AF3" s="50"/>
       <c r="AG3" s="50"/>
@@ -7130,15 +7053,15 @@
       <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -7153,38 +7076,38 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="187" t="s">
+      <c r="W4" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="188"/>
-      <c r="Y4" s="188"/>
-      <c r="Z4" s="188"/>
-      <c r="AA4" s="188"/>
-      <c r="AB4" s="188"/>
-      <c r="AC4" s="188"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
       <c r="AE4" s="50"/>
-      <c r="AF4" s="195" t="s">
+      <c r="AF4" s="219" t="s">
         <v>72</v>
       </c>
-      <c r="AG4" s="195"/>
-      <c r="AH4" s="195"/>
-      <c r="AI4" s="195"/>
-      <c r="AJ4" s="195"/>
-      <c r="AK4" s="195"/>
-      <c r="AL4" s="195"/>
-      <c r="AM4" s="195"/>
+      <c r="AG4" s="219"/>
+      <c r="AH4" s="219"/>
+      <c r="AI4" s="219"/>
+      <c r="AJ4" s="219"/>
+      <c r="AK4" s="219"/>
+      <c r="AL4" s="219"/>
+      <c r="AM4" s="219"/>
       <c r="AN4" s="50"/>
     </row>
     <row r="5" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -7201,22 +7124,22 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="186" t="s">
+      <c r="Y5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="186"/>
-      <c r="AA5" s="186"/>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="186"/>
+      <c r="Z5" s="214"/>
+      <c r="AA5" s="214"/>
+      <c r="AB5" s="214"/>
+      <c r="AC5" s="214"/>
       <c r="AE5" s="50"/>
       <c r="AF5" s="46"/>
       <c r="AG5" s="46"/>
-      <c r="AH5" s="197"/>
-      <c r="AI5" s="197"/>
-      <c r="AJ5" s="197"/>
-      <c r="AK5" s="197"/>
-      <c r="AL5" s="197"/>
-      <c r="AM5" s="197"/>
+      <c r="AH5" s="218"/>
+      <c r="AI5" s="218"/>
+      <c r="AJ5" s="218"/>
+      <c r="AK5" s="218"/>
+      <c r="AL5" s="218"/>
+      <c r="AM5" s="218"/>
       <c r="AN5" s="50"/>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.2">
@@ -7382,22 +7305,22 @@
         <v>44270</v>
       </c>
       <c r="AG7" s="28"/>
-      <c r="AH7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="55" t="s">
+      <c r="AH7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="54" t="s">
         <v>0</v>
       </c>
       <c r="AN7" s="50"/>
@@ -7495,22 +7418,22 @@
         <v>44285</v>
       </c>
       <c r="AG8" s="52"/>
-      <c r="AH8" s="56" t="s">
+      <c r="AH8" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="AI8" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="56" t="s">
+      <c r="AI8" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="AK8" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="56" t="s">
+      <c r="AK8" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="AM8" s="56" t="s">
+      <c r="AM8" s="55" t="s">
         <v>0</v>
       </c>
       <c r="AN8" s="50"/>
@@ -7614,22 +7537,22 @@
         <v>44301</v>
       </c>
       <c r="AG9" s="28"/>
-      <c r="AH9" s="55" t="s">
+      <c r="AH9" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="AI9" s="55" t="s">
+      <c r="AI9" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="AJ9" s="55" t="s">
+      <c r="AJ9" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AK9" s="55" t="s">
+      <c r="AK9" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="AL9" s="55" t="s">
+      <c r="AL9" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AM9" s="55" t="s">
+      <c r="AM9" s="54" t="s">
         <v>148</v>
       </c>
       <c r="AN9" s="50"/>
@@ -7742,22 +7665,22 @@
         <v>44316</v>
       </c>
       <c r="AG10" s="52"/>
-      <c r="AH10" s="87" t="s">
+      <c r="AH10" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="AI10" s="87" t="s">
+      <c r="AI10" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="AJ10" s="87" t="s">
+      <c r="AJ10" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="AK10" s="87" t="s">
+      <c r="AK10" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="AL10" s="87" t="s">
+      <c r="AL10" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="AM10" s="87" t="s">
+      <c r="AM10" s="86" t="s">
         <v>150</v>
       </c>
       <c r="AN10" s="50"/>
@@ -7866,40 +7789,40 @@
 2.55%</v>
       </c>
       <c r="AE11" s="50"/>
-      <c r="AF11" s="77">
+      <c r="AF11" s="76">
         <v>44331</v>
       </c>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="88" t="s">
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="AI11" s="88" t="s">
+      <c r="AI11" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="AJ11" s="88" t="s">
+      <c r="AJ11" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="AK11" s="88" t="s">
+      <c r="AK11" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="AL11" s="88" t="s">
+      <c r="AL11" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="AM11" s="88" t="s">
+      <c r="AM11" s="87" t="s">
         <v>154</v>
       </c>
       <c r="AN11" s="50"/>
     </row>
     <row r="12" spans="2:40" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="214"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -7914,38 +7837,38 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="186" t="s">
+      <c r="W12" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
+      <c r="X12" s="214"/>
+      <c r="Y12" s="214"/>
+      <c r="Z12" s="214"/>
+      <c r="AA12" s="214"/>
+      <c r="AB12" s="214"/>
+      <c r="AC12" s="214"/>
       <c r="AE12" s="50"/>
-      <c r="AF12" s="198" t="s">
+      <c r="AF12" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="198"/>
-      <c r="AI12" s="198"/>
-      <c r="AJ12" s="198"/>
-      <c r="AK12" s="198"/>
-      <c r="AL12" s="198"/>
-      <c r="AM12" s="198"/>
+      <c r="AG12" s="220"/>
+      <c r="AH12" s="220"/>
+      <c r="AI12" s="220"/>
+      <c r="AJ12" s="220"/>
+      <c r="AK12" s="220"/>
+      <c r="AL12" s="220"/>
+      <c r="AM12" s="220"/>
       <c r="AN12" s="50"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="186" t="s">
+      <c r="D13" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -7962,13 +7885,13 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="186" t="s">
+      <c r="Y13" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="Z13" s="186"/>
-      <c r="AA13" s="186"/>
-      <c r="AB13" s="186"/>
-      <c r="AC13" s="186"/>
+      <c r="Z13" s="214"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="214"/>
+      <c r="AC13" s="214"/>
       <c r="AE13" s="50"/>
       <c r="AF13" s="50"/>
       <c r="AG13" s="50"/>
@@ -8583,44 +8506,44 @@
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="W21" s="186" t="s">
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="214"/>
+      <c r="W21" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="186"/>
-      <c r="Z21" s="186"/>
-      <c r="AA21" s="186"/>
-      <c r="AB21" s="186"/>
-      <c r="AC21" s="186"/>
+      <c r="X21" s="214"/>
+      <c r="Y21" s="214"/>
+      <c r="Z21" s="214"/>
+      <c r="AA21" s="214"/>
+      <c r="AB21" s="214"/>
+      <c r="AC21" s="214"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="186" t="s">
+      <c r="Y22" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="186"/>
-      <c r="AA22" s="186"/>
-      <c r="AB22" s="186"/>
-      <c r="AC22" s="186"/>
+      <c r="Z22" s="214"/>
+      <c r="AA22" s="214"/>
+      <c r="AB22" s="214"/>
+      <c r="AC22" s="214"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -9185,272 +9108,272 @@
     <row r="30" spans="2:29" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="31:40" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="31:40" x14ac:dyDescent="0.2">
-      <c r="AE35" s="221"/>
-      <c r="AF35" s="222"/>
-      <c r="AG35" s="222"/>
-      <c r="AH35" s="222"/>
-      <c r="AI35" s="222"/>
-      <c r="AJ35" s="222"/>
-      <c r="AK35" s="222"/>
-      <c r="AL35" s="222"/>
-      <c r="AM35" s="222"/>
-      <c r="AN35" s="223"/>
+      <c r="AE35" s="190"/>
+      <c r="AF35" s="191"/>
+      <c r="AG35" s="191"/>
+      <c r="AH35" s="191"/>
+      <c r="AI35" s="191"/>
+      <c r="AJ35" s="191"/>
+      <c r="AK35" s="191"/>
+      <c r="AL35" s="191"/>
+      <c r="AM35" s="191"/>
+      <c r="AN35" s="192"/>
     </row>
     <row r="36" spans="31:40" x14ac:dyDescent="0.2">
-      <c r="AE36" s="224"/>
-      <c r="AF36" s="195" t="s">
+      <c r="AE36" s="193"/>
+      <c r="AF36" s="219" t="s">
         <v>72</v>
       </c>
-      <c r="AG36" s="195"/>
-      <c r="AH36" s="195"/>
-      <c r="AI36" s="195"/>
-      <c r="AJ36" s="195"/>
-      <c r="AK36" s="195"/>
-      <c r="AL36" s="195"/>
-      <c r="AM36" s="195"/>
-      <c r="AN36" s="225"/>
+      <c r="AG36" s="219"/>
+      <c r="AH36" s="219"/>
+      <c r="AI36" s="219"/>
+      <c r="AJ36" s="219"/>
+      <c r="AK36" s="219"/>
+      <c r="AL36" s="219"/>
+      <c r="AM36" s="219"/>
+      <c r="AN36" s="194"/>
     </row>
     <row r="37" spans="31:40" x14ac:dyDescent="0.2">
-      <c r="AE37" s="224"/>
-      <c r="AF37" s="226" t="s">
+      <c r="AE37" s="193"/>
+      <c r="AF37" s="195" t="s">
         <v>455</v>
       </c>
-      <c r="AG37" s="226"/>
-      <c r="AH37" s="196" t="s">
+      <c r="AG37" s="195"/>
+      <c r="AH37" s="221" t="s">
         <v>469</v>
       </c>
-      <c r="AI37" s="197"/>
-      <c r="AJ37" s="196" t="s">
+      <c r="AI37" s="218"/>
+      <c r="AJ37" s="221" t="s">
         <v>470</v>
       </c>
-      <c r="AK37" s="197"/>
-      <c r="AL37" s="196" t="s">
+      <c r="AK37" s="218"/>
+      <c r="AL37" s="221" t="s">
         <v>471</v>
       </c>
-      <c r="AM37" s="197"/>
-      <c r="AN37" s="225"/>
+      <c r="AM37" s="218"/>
+      <c r="AN37" s="194"/>
     </row>
     <row r="38" spans="31:40" x14ac:dyDescent="0.2">
-      <c r="AE38" s="224"/>
+      <c r="AE38" s="193"/>
       <c r="AF38" s="48" t="s">
         <v>1</v>
       </c>
       <c r="AG38" s="48" t="s">
         <v>454</v>
       </c>
-      <c r="AH38" s="181" t="s">
+      <c r="AH38" s="180" t="s">
         <v>3</v>
       </c>
       <c r="AI38" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AJ38" s="181" t="s">
+      <c r="AJ38" s="180" t="s">
         <v>3</v>
       </c>
       <c r="AK38" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AL38" s="181" t="s">
+      <c r="AL38" s="180" t="s">
         <v>3</v>
       </c>
       <c r="AM38" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AN38" s="225"/>
+      <c r="AN38" s="194"/>
     </row>
     <row r="39" spans="31:40" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE39" s="224"/>
-      <c r="AF39" s="177">
+      <c r="AE39" s="193"/>
+      <c r="AF39" s="176">
         <v>44285</v>
       </c>
-      <c r="AG39" s="183" t="s">
+      <c r="AG39" s="182" t="s">
         <v>453</v>
       </c>
-      <c r="AH39" s="182" t="s">
+      <c r="AH39" s="181" t="s">
         <v>483</v>
       </c>
-      <c r="AI39" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="182" t="s">
+      <c r="AI39" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="181" t="s">
         <v>472</v>
       </c>
-      <c r="AK39" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="182" t="s">
+      <c r="AK39" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="181" t="s">
         <v>494</v>
       </c>
-      <c r="AM39" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="225"/>
+      <c r="AM39" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="194"/>
     </row>
     <row r="40" spans="31:40" ht="70" x14ac:dyDescent="0.2">
-      <c r="AE40" s="224"/>
-      <c r="AF40" s="176">
+      <c r="AE40" s="193"/>
+      <c r="AF40" s="175">
         <v>44301</v>
       </c>
-      <c r="AG40" s="184" t="s">
+      <c r="AG40" s="183" t="s">
         <v>453</v>
       </c>
-      <c r="AH40" s="179" t="s">
+      <c r="AH40" s="178" t="s">
         <v>484</v>
       </c>
-      <c r="AI40" s="140" t="s">
+      <c r="AI40" s="139" t="s">
         <v>485</v>
       </c>
-      <c r="AJ40" s="179" t="s">
+      <c r="AJ40" s="178" t="s">
         <v>473</v>
       </c>
-      <c r="AK40" s="55" t="s">
+      <c r="AK40" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="AL40" s="179" t="s">
+      <c r="AL40" s="178" t="s">
         <v>495</v>
       </c>
-      <c r="AM40" s="140" t="s">
+      <c r="AM40" s="139" t="s">
         <v>496</v>
       </c>
-      <c r="AN40" s="225"/>
+      <c r="AN40" s="194"/>
     </row>
     <row r="41" spans="31:40" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE41" s="224"/>
-      <c r="AF41" s="177">
+      <c r="AE41" s="193"/>
+      <c r="AF41" s="176">
         <v>44316</v>
       </c>
-      <c r="AG41" s="183" t="s">
+      <c r="AG41" s="182" t="s">
         <v>453</v>
       </c>
-      <c r="AH41" s="178" t="s">
+      <c r="AH41" s="177" t="s">
         <v>486</v>
       </c>
-      <c r="AI41" s="87" t="s">
+      <c r="AI41" s="86" t="s">
         <v>487</v>
       </c>
-      <c r="AJ41" s="178" t="s">
+      <c r="AJ41" s="177" t="s">
         <v>475</v>
       </c>
-      <c r="AK41" s="87" t="s">
+      <c r="AK41" s="86" t="s">
         <v>476</v>
       </c>
-      <c r="AL41" s="178" t="s">
+      <c r="AL41" s="177" t="s">
         <v>497</v>
       </c>
-      <c r="AM41" s="87" t="s">
+      <c r="AM41" s="86" t="s">
         <v>498</v>
       </c>
-      <c r="AN41" s="225"/>
+      <c r="AN41" s="194"/>
     </row>
     <row r="42" spans="31:40" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE42" s="224"/>
-      <c r="AF42" s="176">
+      <c r="AE42" s="193"/>
+      <c r="AF42" s="175">
         <v>44331</v>
       </c>
-      <c r="AG42" s="184" t="s">
+      <c r="AG42" s="183" t="s">
         <v>453</v>
       </c>
-      <c r="AH42" s="179" t="s">
+      <c r="AH42" s="178" t="s">
         <v>488</v>
       </c>
-      <c r="AI42" s="140" t="s">
+      <c r="AI42" s="139" t="s">
         <v>489</v>
       </c>
-      <c r="AJ42" s="179" t="s">
+      <c r="AJ42" s="178" t="s">
         <v>477</v>
       </c>
-      <c r="AK42" s="140" t="s">
+      <c r="AK42" s="139" t="s">
         <v>478</v>
       </c>
-      <c r="AL42" s="179" t="s">
+      <c r="AL42" s="178" t="s">
         <v>499</v>
       </c>
-      <c r="AM42" s="140" t="s">
+      <c r="AM42" s="139" t="s">
         <v>500</v>
       </c>
-      <c r="AN42" s="225"/>
+      <c r="AN42" s="194"/>
     </row>
     <row r="43" spans="31:40" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE43" s="224"/>
-      <c r="AF43" s="177">
+      <c r="AE43" s="193"/>
+      <c r="AF43" s="176">
         <v>44346</v>
       </c>
-      <c r="AG43" s="183" t="s">
+      <c r="AG43" s="182" t="s">
         <v>453</v>
       </c>
-      <c r="AH43" s="178" t="s">
+      <c r="AH43" s="177" t="s">
         <v>490</v>
       </c>
-      <c r="AI43" s="87" t="s">
+      <c r="AI43" s="86" t="s">
         <v>491</v>
       </c>
-      <c r="AJ43" s="178" t="s">
+      <c r="AJ43" s="177" t="s">
         <v>479</v>
       </c>
-      <c r="AK43" s="87" t="s">
+      <c r="AK43" s="86" t="s">
         <v>480</v>
       </c>
-      <c r="AL43" s="178" t="s">
+      <c r="AL43" s="177" t="s">
         <v>501</v>
       </c>
-      <c r="AM43" s="87" t="s">
+      <c r="AM43" s="86" t="s">
         <v>502</v>
       </c>
-      <c r="AN43" s="225"/>
+      <c r="AN43" s="194"/>
     </row>
     <row r="44" spans="31:40" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AE44" s="224"/>
-      <c r="AF44" s="176">
+      <c r="AE44" s="193"/>
+      <c r="AF44" s="175">
         <v>44362</v>
       </c>
-      <c r="AG44" s="184" t="s">
+      <c r="AG44" s="183" t="s">
         <v>453</v>
       </c>
-      <c r="AH44" s="180" t="s">
+      <c r="AH44" s="179" t="s">
         <v>492</v>
       </c>
-      <c r="AI44" s="88" t="s">
+      <c r="AI44" s="87" t="s">
         <v>493</v>
       </c>
-      <c r="AJ44" s="180" t="s">
+      <c r="AJ44" s="179" t="s">
         <v>481</v>
       </c>
-      <c r="AK44" s="88" t="s">
+      <c r="AK44" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="AL44" s="180" t="s">
+      <c r="AL44" s="179" t="s">
         <v>503</v>
       </c>
-      <c r="AM44" s="88" t="s">
+      <c r="AM44" s="87" t="s">
         <v>504</v>
       </c>
-      <c r="AN44" s="225"/>
+      <c r="AN44" s="194"/>
     </row>
     <row r="45" spans="31:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="AE45" s="224"/>
-      <c r="AF45" s="198" t="s">
+      <c r="AE45" s="193"/>
+      <c r="AF45" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="AG45" s="198"/>
-      <c r="AH45" s="198"/>
-      <c r="AI45" s="198"/>
-      <c r="AJ45" s="198"/>
-      <c r="AK45" s="198"/>
-      <c r="AL45" s="198"/>
-      <c r="AM45" s="198"/>
-      <c r="AN45" s="225"/>
+      <c r="AG45" s="220"/>
+      <c r="AH45" s="220"/>
+      <c r="AI45" s="220"/>
+      <c r="AJ45" s="220"/>
+      <c r="AK45" s="220"/>
+      <c r="AL45" s="220"/>
+      <c r="AM45" s="220"/>
+      <c r="AN45" s="194"/>
     </row>
     <row r="46" spans="31:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AE46" s="227"/>
-      <c r="AF46" s="228"/>
-      <c r="AG46" s="228"/>
-      <c r="AH46" s="228"/>
-      <c r="AI46" s="228"/>
-      <c r="AJ46" s="228"/>
-      <c r="AK46" s="228"/>
-      <c r="AL46" s="228"/>
-      <c r="AM46" s="228"/>
-      <c r="AN46" s="229"/>
+      <c r="AE46" s="196"/>
+      <c r="AF46" s="197"/>
+      <c r="AG46" s="197"/>
+      <c r="AH46" s="197"/>
+      <c r="AI46" s="197"/>
+      <c r="AJ46" s="197"/>
+      <c r="AK46" s="197"/>
+      <c r="AL46" s="197"/>
+      <c r="AM46" s="197"/>
+      <c r="AN46" s="198"/>
     </row>
     <row r="47" spans="31:40" x14ac:dyDescent="0.2">
       <c r="AE47" s="50"/>
@@ -9465,31 +9388,31 @@
       <c r="AN47" s="50"/>
     </row>
     <row r="50" spans="34:35" x14ac:dyDescent="0.2">
-      <c r="AH50" s="137"/>
-      <c r="AI50" s="137"/>
+      <c r="AH50" s="136"/>
+      <c r="AI50" s="136"/>
     </row>
     <row r="52" spans="34:35" x14ac:dyDescent="0.2">
-      <c r="AH52" s="138"/>
+      <c r="AH52" s="137"/>
     </row>
     <row r="53" spans="34:35" x14ac:dyDescent="0.2">
-      <c r="AH53" s="138"/>
-      <c r="AI53" s="138"/>
+      <c r="AH53" s="137"/>
+      <c r="AI53" s="137"/>
     </row>
     <row r="54" spans="34:35" x14ac:dyDescent="0.2">
-      <c r="AH54" s="138"/>
-      <c r="AI54" s="138"/>
+      <c r="AH54" s="137"/>
+      <c r="AI54" s="137"/>
     </row>
     <row r="55" spans="34:35" x14ac:dyDescent="0.2">
-      <c r="AH55" s="138"/>
-      <c r="AI55" s="138"/>
+      <c r="AH55" s="137"/>
+      <c r="AI55" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AF4:AM4"/>
-    <mergeCell ref="AF12:AM12"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AF36:AM36"/>
+    <mergeCell ref="AH37:AI37"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AL37:AM37"/>
+    <mergeCell ref="AF45:AM45"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="W21:AC21"/>
     <mergeCell ref="Y22:AC22"/>
@@ -9504,11 +9427,11 @@
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="Y13:AC13"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="AF36:AM36"/>
-    <mergeCell ref="AH37:AI37"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AL37:AM37"/>
-    <mergeCell ref="AF45:AM45"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AF4:AM4"/>
+    <mergeCell ref="AF12:AM12"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9541,80 +9464,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="135">
+      <c r="G2" s="134">
         <v>11.12425</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="91" t="s">
+      <c r="I3" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="91" t="s">
+      <c r="L3" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="92" t="s">
+      <c r="M3" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" s="137">
+      <c r="Q3" s="136">
         <v>44270</v>
       </c>
-      <c r="X3" s="137">
+      <c r="X3" s="136">
         <v>44270</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="93">
+      <c r="B4" s="92">
         <v>9.5508939999999996</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="93">
         <v>11.211634999999999</v>
       </c>
-      <c r="D4" s="94">
+      <c r="D4" s="93">
         <v>13.049963</v>
       </c>
-      <c r="E4" s="95">
+      <c r="E4" s="94">
         <v>44256</v>
       </c>
-      <c r="F4" s="95">
+      <c r="F4" s="94">
         <v>44270</v>
       </c>
-      <c r="G4" s="94">
+      <c r="G4" s="93">
         <v>11.409516999999999</v>
       </c>
-      <c r="H4" s="94">
+      <c r="H4" s="93">
         <v>-0.197881999999999</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="93">
         <v>1.6404460000000001</v>
       </c>
-      <c r="J4" s="94">
+      <c r="J4" s="93">
         <v>-1.8586229999999899</v>
       </c>
       <c r="K4">
@@ -9625,11 +9548,11 @@
         <f>((G4-$G$2)-(D4-$G$2))*100/(G4-$G$2)</f>
         <v>-575.05635071704921</v>
       </c>
-      <c r="M4" s="136">
+      <c r="M4" s="135">
         <f>((G4-$G$2)-(B4-$G$2))*100/(G4-$G$2)</f>
         <v>651.5380327903348</v>
       </c>
-      <c r="P4" s="85" t="str">
+      <c r="P4" s="84" t="str">
         <f>FIXED(C4,1)&amp;" ["&amp;FIXED(B4,1)&amp;", "&amp;FIXED(D4,1)&amp;"]"&amp;CHAR(10) &amp;
 FIXED(H4*-1,1)&amp;" ["&amp;FIXED(I4*-1,1)&amp;", "&amp;FIXED(J4*-1,1)&amp;"]"&amp; CHAR(10)&amp;
 FIXED(K4,1)</f>
@@ -9637,48 +9560,48 @@
 0.2 [-1.6, 1.9]
 69.4</v>
       </c>
-      <c r="Q4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" s="137">
+      <c r="Q4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="136">
         <v>44331</v>
       </c>
-      <c r="X4" s="85" t="s">
+      <c r="X4" s="84" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="93">
+      <c r="B5" s="92">
         <v>9.0692330000000005</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="93">
         <v>11.289133</v>
       </c>
-      <c r="D5" s="94">
+      <c r="D5" s="93">
         <v>13.860422</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="94">
         <v>44256</v>
       </c>
-      <c r="F5" s="95">
+      <c r="F5" s="94">
         <v>44285</v>
       </c>
-      <c r="G5" s="94">
+      <c r="G5" s="93">
         <v>12.148521000000001</v>
       </c>
-      <c r="H5" s="94">
+      <c r="H5" s="93">
         <v>-0.85938800000000004</v>
       </c>
-      <c r="I5" s="94">
+      <c r="I5" s="93">
         <v>1.7119009999999899</v>
       </c>
-      <c r="J5" s="94">
+      <c r="J5" s="93">
         <v>-3.079288</v>
       </c>
       <c r="K5">
@@ -9689,11 +9612,11 @@
         <f t="shared" ref="L5:L8" si="1">((G5-$G$2)-(D5-$G$2))*100/(G5-$G$2)</f>
         <v>-167.13360038505417</v>
       </c>
-      <c r="M5" s="136">
+      <c r="M5" s="135">
         <f t="shared" ref="M5:M8" si="2">((G5-$G$2)-(B5-$G$2))*100/(G5-$G$2)</f>
         <v>300.63215691940889</v>
       </c>
-      <c r="P5" s="85" t="str">
+      <c r="P5" s="84" t="str">
         <f t="shared" ref="P5:P18" si="3">FIXED(C5,1)&amp;" ["&amp;FIXED(B5,1)&amp;", "&amp;FIXED(D5,1)&amp;"]"&amp;CHAR(10) &amp;
 FIXED(H5*-1,1)&amp;" ["&amp;FIXED(I5*-1,1)&amp;", "&amp;FIXED(J5*-1,1)&amp;"]"&amp; CHAR(10)&amp;
 FIXED(K5,1) &amp;"% ["&amp;FIXED(L5,1)&amp;"%, "&amp;FIXED(M5,1)&amp;"%]"</f>
@@ -9701,7 +9624,7 @@
 0.9 [-1.7, 3.1]
 83.9% [-167.1%, 300.6%]</v>
       </c>
-      <c r="Q5" s="85" t="str">
+      <c r="Q5" s="84" t="str">
         <f>FIXED(C9,1)&amp;" ["&amp;FIXED(B9,1)&amp;", "&amp;FIXED(D9,1)&amp;"]"&amp;CHAR(10) &amp;
 FIXED(H9*-1,1)&amp;" ["&amp;FIXED(I9*-1,1)&amp;", "&amp;FIXED(J9*-1,1)&amp;"]"&amp; CHAR(10)&amp;
 FIXED(K9,1) &amp;"% ["&amp;FIXED(L9,1)&amp;"%, "&amp;FIXED(M9,1)&amp;"%]"</f>
@@ -9709,39 +9632,39 @@
 0.6 [-1.3, 2.4]
 5.2% [-10.8%, 19.7%]</v>
       </c>
-      <c r="R5" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="86" t="s">
+      <c r="R5" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="85" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="B6" s="93">
+      <c r="B6" s="92">
         <v>8.6940600000000003</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="93">
         <v>11.353944</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="93">
         <v>14.534090000000001</v>
       </c>
-      <c r="E6" s="95">
+      <c r="E6" s="94">
         <v>44256</v>
       </c>
-      <c r="F6" s="95">
+      <c r="F6" s="94">
         <v>44301</v>
       </c>
-      <c r="G6" s="94">
+      <c r="G6" s="93">
         <v>14.287843000000001</v>
       </c>
-      <c r="H6" s="94">
+      <c r="H6" s="93">
         <v>-2.9338989999999998</v>
       </c>
-      <c r="I6" s="94">
+      <c r="I6" s="93">
         <v>0.24624699999999999</v>
       </c>
-      <c r="J6" s="94">
+      <c r="J6" s="93">
         <v>-5.5937830000000002</v>
       </c>
       <c r="K6">
@@ -9752,18 +9675,18 @@
         <f t="shared" si="1"/>
         <v>-7.7837762316454828</v>
       </c>
-      <c r="M6" s="136">
+      <c r="M6" s="135">
         <f t="shared" si="2"/>
         <v>176.81740350291579</v>
       </c>
-      <c r="O6" s="137"/>
-      <c r="P6" s="85" t="str">
+      <c r="O6" s="136"/>
+      <c r="P6" s="84" t="str">
         <f t="shared" si="3"/>
         <v>11.4 [8.7, 14.5]
 2.9 [-0.2, 5.6]
 92.7% [-7.8%, 176.8%]</v>
       </c>
-      <c r="Q6" s="85" t="str">
+      <c r="Q6" s="84" t="str">
         <f>FIXED(C10,1)&amp;" ["&amp;FIXED(B10,1)&amp;", "&amp;FIXED(D10,1)&amp;"]"&amp;CHAR(10) &amp;
 FIXED(H10*-1,1)&amp;" ["&amp;FIXED(I10*-1,1)&amp;", "&amp;FIXED(J10*-1,1)&amp;"]"&amp; CHAR(10)&amp;
 FIXED(K10,1) &amp;"% ["&amp;FIXED(L10,1)&amp;"%, "&amp;FIXED(M10,1)&amp;"%]"</f>
@@ -9771,7 +9694,7 @@
 2.7 [-0.1, 5.0]
 18.7% [-0.6%, 35.3%]</v>
       </c>
-      <c r="R6" s="85" t="str">
+      <c r="R6" s="84" t="str">
         <f>FIXED(C13,1)&amp;" ["&amp;FIXED(B13,1)&amp;", "&amp;FIXED(D13,1)&amp;"]"&amp;CHAR(10) &amp;
 FIXED(H13*-1,1)&amp;" ["&amp;FIXED(I13*-1,1)&amp;", "&amp;FIXED(J13*-1,1)&amp;"]"&amp; CHAR(10)&amp;
 FIXED(K13,1) &amp;"% ["&amp;FIXED(L13,1)&amp;"%, "&amp;FIXED(M13,1)&amp;"%]"</f>
@@ -9779,7 +9702,7 @@
 1.8 [-0.7, 3.9]
 12.3% [-4.7%, 27.2%]</v>
       </c>
-      <c r="S6" s="86" t="s">
+      <c r="S6" s="85" t="s">
         <v>0</v>
       </c>
       <c r="V6">
@@ -9788,31 +9711,31 @@
       </c>
     </row>
     <row r="7" spans="2:24" ht="68" x14ac:dyDescent="0.2">
-      <c r="B7" s="93">
+      <c r="B7" s="92">
         <v>8.3953749999999996</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="93">
         <v>11.402383</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="93">
         <v>15.096142</v>
       </c>
-      <c r="E7" s="95">
+      <c r="E7" s="94">
         <v>44256</v>
       </c>
-      <c r="F7" s="95">
+      <c r="F7" s="94">
         <v>44316</v>
       </c>
-      <c r="G7" s="94">
+      <c r="G7" s="93">
         <v>19.156979</v>
       </c>
-      <c r="H7" s="94">
+      <c r="H7" s="93">
         <v>-7.7545959999999896</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="93">
         <v>-4.0608369999999896</v>
       </c>
-      <c r="J7" s="94">
+      <c r="J7" s="93">
         <v>-10.761604</v>
       </c>
       <c r="K7">
@@ -9823,17 +9746,17 @@
         <f t="shared" si="1"/>
         <v>50.553641234504475</v>
       </c>
-      <c r="M7" s="136">
+      <c r="M7" s="135">
         <f t="shared" si="2"/>
         <v>133.97195398973375</v>
       </c>
-      <c r="P7" s="85" t="str">
+      <c r="P7" s="84" t="str">
         <f t="shared" si="3"/>
         <v>11.4 [8.4, 15.1]
 7.8 [4.1, 10.8]
 96.5% [50.6%, 134.0%]</v>
       </c>
-      <c r="Q7" s="85" t="str">
+      <c r="Q7" s="84" t="str">
         <f>FIXED(C11,1)&amp;" ["&amp;FIXED(B11,1)&amp;", "&amp;FIXED(D11,1)&amp;"]"&amp;CHAR(10) &amp;
 FIXED(H11*-1,1)&amp;" ["&amp;FIXED(I11*-1,1)&amp;", "&amp;FIXED(J11*-1,1)&amp;"]"&amp; CHAR(10)&amp;
 FIXED(K11,1) &amp;"% ["&amp;FIXED(L11,1)&amp;"%, "&amp;FIXED(M11,1)&amp;"%]"</f>
@@ -9841,7 +9764,7 @@
 7.5 [4.1, 10.2]
 38.9% [21.3%, 53.5%]</v>
       </c>
-      <c r="R7" s="85" t="str">
+      <c r="R7" s="84" t="str">
         <f>FIXED(C14,1)&amp;" ["&amp;FIXED(B14,1)&amp;", "&amp;FIXED(D14,1)&amp;"]"&amp;CHAR(10) &amp;
 FIXED(H14*-1,1)&amp;" ["&amp;FIXED(I14*-1,1)&amp;", "&amp;FIXED(J14*-1,1)&amp;"]"&amp; CHAR(10)&amp;
 FIXED(K14,1) &amp;"% ["&amp;FIXED(L14,1)&amp;"%, "&amp;FIXED(M14,1)&amp;"%]"</f>
@@ -9849,7 +9772,7 @@
 6.2 [2.6, 9.2]
 32.5% [13.6%, 47.8%]</v>
       </c>
-      <c r="S7" s="85" t="str">
+      <c r="S7" s="84" t="str">
         <f>FIXED(C16,1)&amp;" ["&amp;FIXED(B16,1)&amp;", "&amp;FIXED(D16,1)&amp;"]"&amp;CHAR(10) &amp;
 FIXED(H16*-1,1)&amp;" ["&amp;FIXED(I16*-1,1)&amp;", "&amp;FIXED(J16*-1,1)&amp;"]"&amp; CHAR(10)&amp;
 FIXED(K16,1) &amp;"% ["&amp;FIXED(L16,1)&amp;"%, "&amp;FIXED(M16,1)&amp;"%]"</f>
@@ -9863,31 +9786,31 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="68" x14ac:dyDescent="0.2">
-      <c r="B8" s="93">
+      <c r="B8" s="92">
         <v>8.1230879999999992</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="93">
         <v>11.441407</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="93">
         <v>15.567758</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="94">
         <v>44256</v>
       </c>
-      <c r="F8" s="95">
+      <c r="F8" s="94">
         <v>44331</v>
       </c>
-      <c r="G8" s="94">
+      <c r="G8" s="93">
         <v>24.683025000000001</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8" s="93">
         <v>-13.241618000000001</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="93">
         <v>-9.1152669999999993</v>
       </c>
-      <c r="J8" s="94">
+      <c r="J8" s="93">
         <v>-16.559937000000001</v>
       </c>
       <c r="K8">
@@ -9898,20 +9821,20 @@
         <f t="shared" si="1"/>
         <v>67.227806346812315</v>
       </c>
-      <c r="M8" s="136">
+      <c r="M8" s="135">
         <f t="shared" si="2"/>
         <v>122.13446273723106</v>
       </c>
-      <c r="O8" s="137">
+      <c r="O8" s="136">
         <v>44331</v>
       </c>
-      <c r="P8" s="85" t="str">
+      <c r="P8" s="84" t="str">
         <f t="shared" si="3"/>
         <v>11.4 [8.1, 15.6]
 13.2 [9.1, 16.6]
 97.7% [67.2%, 122.1%]</v>
       </c>
-      <c r="Q8" s="85" t="str">
+      <c r="Q8" s="84" t="str">
         <f>FIXED(C12,1)&amp;" ["&amp;FIXED(B12,1)&amp;", "&amp;FIXED(D12,1)&amp;"]"&amp;CHAR(10) &amp;
 FIXED(H12*-1,1)&amp;" ["&amp;FIXED(I12*-1,1)&amp;", "&amp;FIXED(J12*-1,1)&amp;"]"&amp; CHAR(10)&amp;
 FIXED(K12,1) &amp;"% ["&amp;FIXED(L12,1)&amp;"%, "&amp;FIXED(M12,1)&amp;"%]"</f>
@@ -9919,7 +9842,7 @@
 12.9 [9.0, 16.1]
 52.3% [36.5%, 65.0%]</v>
       </c>
-      <c r="R8" s="85" t="str">
+      <c r="R8" s="84" t="str">
         <f>FIXED(C15,1)&amp;" ["&amp;FIXED(B15,1)&amp;", "&amp;FIXED(D15,1)&amp;"]"&amp;CHAR(10) &amp;
 FIXED(H15*-1,1)&amp;" ["&amp;FIXED(I15*-1,1)&amp;", "&amp;FIXED(J15*-1,1)&amp;"]"&amp; CHAR(10)&amp;
 FIXED(K15,1) &amp;"% ["&amp;FIXED(L15,1)&amp;"%, "&amp;FIXED(M15,1)&amp;"%]"</f>
@@ -9927,7 +9850,7 @@
 11.4 [6.6, 15.0]
 46.1% [26.7%, 60.7%]</v>
       </c>
-      <c r="S8" s="85" t="str">
+      <c r="S8" s="84" t="str">
         <f>FIXED(C17,1)&amp;" ["&amp;FIXED(B17,1)&amp;", "&amp;FIXED(D17,1)&amp;"]"&amp;CHAR(10) &amp;
 FIXED(H17*-1,1)&amp;" ["&amp;FIXED(I17*-1,1)&amp;", "&amp;FIXED(J17*-1,1)&amp;"]"&amp; CHAR(10)&amp;
 FIXED(K17,1) &amp;"% ["&amp;FIXED(L17,1)&amp;"%, "&amp;FIXED(M17,1)&amp;"%]"</f>
@@ -9941,154 +9864,154 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="93">
+      <c r="B9" s="92">
         <v>9.7509130000000006</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="93">
         <v>11.515587</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="93">
         <v>13.459272</v>
       </c>
-      <c r="E9" s="95">
+      <c r="E9" s="94">
         <v>44270</v>
       </c>
-      <c r="F9" s="95">
+      <c r="F9" s="94">
         <v>44285</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="93">
         <v>12.148521000000001</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="93">
         <v>-0.632934</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="93">
         <v>1.31075099999999</v>
       </c>
-      <c r="J9" s="94">
+      <c r="J9" s="93">
         <v>-2.397608</v>
       </c>
-      <c r="K9" s="94">
+      <c r="K9" s="93">
         <v>5.2099675343196097</v>
       </c>
-      <c r="L9" s="94">
+      <c r="L9" s="93">
         <v>-10.789387448891899</v>
       </c>
-      <c r="M9" s="96">
+      <c r="M9" s="95">
         <v>19.735801584406801</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="93">
+      <c r="B10" s="92">
         <v>9.2417920000000002</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="93">
         <v>11.62092</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="93">
         <v>14.369206</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="94">
         <v>44270</v>
       </c>
-      <c r="F10" s="95">
+      <c r="F10" s="94">
         <v>44301</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="93">
         <v>14.287843000000001</v>
       </c>
-      <c r="H10" s="94">
+      <c r="H10" s="93">
         <v>-2.6669230000000002</v>
       </c>
-      <c r="I10" s="94">
+      <c r="I10" s="93">
         <v>8.1362999999999602E-2</v>
       </c>
-      <c r="J10" s="94">
+      <c r="J10" s="93">
         <v>-5.0460510000000003</v>
       </c>
-      <c r="K10" s="94">
+      <c r="K10" s="93">
         <v>18.665679627078699</v>
       </c>
-      <c r="L10" s="94">
+      <c r="L10" s="93">
         <v>-0.56945614533977995</v>
       </c>
-      <c r="M10" s="96">
+      <c r="M10" s="95">
         <v>35.317094399763398</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="93">
+      <c r="B11" s="92">
         <v>8.9133309999999994</v>
       </c>
-      <c r="C11" s="94">
+      <c r="C11" s="93">
         <v>11.703863999999999</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="93">
         <v>15.073506999999999</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="94">
         <v>44270</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="94">
         <v>44316</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="93">
         <v>19.156979</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="93">
         <v>-7.4531150000000004</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="93">
         <v>-4.0834720000000004</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="93">
         <v>-10.243648</v>
       </c>
-      <c r="K11" s="94">
+      <c r="K11" s="93">
         <v>38.905481913406</v>
       </c>
-      <c r="L11" s="94">
+      <c r="L11" s="93">
         <v>21.315845259317701</v>
       </c>
-      <c r="M11" s="96">
+      <c r="M11" s="95">
         <v>53.472147148044499</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="93">
+      <c r="B12" s="92">
         <v>8.6296219999999995</v>
       </c>
-      <c r="C12" s="94">
+      <c r="C12" s="93">
         <v>11.776206</v>
       </c>
-      <c r="D12" s="94">
+      <c r="D12" s="93">
         <v>15.677747999999999</v>
       </c>
-      <c r="E12" s="95">
+      <c r="E12" s="94">
         <v>44270</v>
       </c>
-      <c r="F12" s="95">
+      <c r="F12" s="94">
         <v>44331</v>
       </c>
-      <c r="G12" s="94">
+      <c r="G12" s="93">
         <v>24.683025000000001</v>
       </c>
-      <c r="H12" s="94">
+      <c r="H12" s="93">
         <v>-12.906819</v>
       </c>
-      <c r="I12" s="94">
+      <c r="I12" s="93">
         <v>-9.0052769999999995</v>
       </c>
-      <c r="J12" s="94">
+      <c r="J12" s="93">
         <v>-16.053402999999999</v>
       </c>
-      <c r="K12" s="94">
+      <c r="K12" s="93">
         <v>52.290264260559603</v>
       </c>
-      <c r="L12" s="94">
+      <c r="L12" s="93">
         <v>36.483684637519097</v>
       </c>
-      <c r="M12" s="96">
+      <c r="M12" s="95">
         <v>65.038231740234394</v>
       </c>
       <c r="V12">
@@ -10097,40 +10020,40 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="93">
+      <c r="B13" s="92">
         <v>10.403639</v>
       </c>
-      <c r="C13" s="94">
+      <c r="C13" s="93">
         <v>12.534257999999999</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="93">
         <v>14.963876000000001</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E13" s="94">
         <v>44285</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="94">
         <v>44301</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="93">
         <v>14.287843000000001</v>
       </c>
-      <c r="H13" s="94">
+      <c r="H13" s="93">
         <v>-1.7535849999999999</v>
       </c>
-      <c r="I13" s="94">
+      <c r="I13" s="93">
         <v>0.676033</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="93">
         <v>-3.884204</v>
       </c>
-      <c r="K13" s="94">
+      <c r="K13" s="93">
         <v>12.273266160609399</v>
       </c>
-      <c r="L13" s="94">
+      <c r="L13" s="93">
         <v>-4.7315259553173998</v>
       </c>
-      <c r="M13" s="96">
+      <c r="M13" s="95">
         <v>27.185377106957201</v>
       </c>
       <c r="V13">
@@ -10139,40 +10062,40 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="93">
+      <c r="B14" s="92">
         <v>9.998151</v>
       </c>
-      <c r="C14" s="94">
+      <c r="C14" s="93">
         <v>12.927246</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="93">
         <v>16.55302</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="94">
         <v>44285</v>
       </c>
-      <c r="F14" s="95">
+      <c r="F14" s="94">
         <v>44316</v>
       </c>
-      <c r="G14" s="94">
+      <c r="G14" s="93">
         <v>19.156979</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="93">
         <v>-6.2297329999999898</v>
       </c>
-      <c r="I14" s="94">
+      <c r="I14" s="93">
         <v>-2.6039589999999899</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="93">
         <v>-9.1588279999999997</v>
       </c>
-      <c r="K14" s="94">
+      <c r="K14" s="93">
         <v>32.519391496957802</v>
       </c>
-      <c r="L14" s="94">
+      <c r="L14" s="93">
         <v>13.5927434069849</v>
       </c>
-      <c r="M14" s="96">
+      <c r="M14" s="95">
         <v>47.809354491645003</v>
       </c>
       <c r="V14">
@@ -10181,157 +10104,157 @@
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="93">
+      <c r="B15" s="92">
         <v>9.7117070000000005</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="93">
         <v>13.311531</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="93">
         <v>18.082550999999999</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E15" s="94">
         <v>44285</v>
       </c>
-      <c r="F15" s="95">
+      <c r="F15" s="94">
         <v>44331</v>
       </c>
-      <c r="G15" s="94">
+      <c r="G15" s="93">
         <v>24.683025000000001</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="93">
         <v>-11.371494</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="93">
         <v>-6.6004740000000002</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="93">
         <v>-14.971318</v>
       </c>
-      <c r="K15" s="94">
+      <c r="K15" s="93">
         <v>46.0700987824628</v>
       </c>
-      <c r="L15" s="94">
+      <c r="L15" s="93">
         <v>26.740944434484799</v>
       </c>
-      <c r="M15" s="96">
+      <c r="M15" s="95">
         <v>60.654307970761202</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="93">
+      <c r="B16" s="92">
         <v>13.131354</v>
       </c>
-      <c r="C16" s="94">
+      <c r="C16" s="93">
         <v>16.302250000000001</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="93">
         <v>20.206731999999999</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="94">
         <v>44301</v>
       </c>
-      <c r="F16" s="95">
+      <c r="F16" s="94">
         <v>44316</v>
       </c>
-      <c r="G16" s="94">
+      <c r="G16" s="93">
         <v>19.156979</v>
       </c>
-      <c r="H16" s="94">
+      <c r="H16" s="93">
         <v>-2.8547289999999901</v>
       </c>
-      <c r="I16" s="94">
+      <c r="I16" s="93">
         <v>1.0497529999999899</v>
       </c>
-      <c r="J16" s="94">
+      <c r="J16" s="93">
         <v>-6.0256249999999998</v>
       </c>
-      <c r="K16" s="94">
+      <c r="K16" s="93">
         <v>14.9017702634637</v>
       </c>
-      <c r="L16" s="94">
+      <c r="L16" s="93">
         <v>-5.4797418737056498</v>
       </c>
-      <c r="M16" s="96">
+      <c r="M16" s="95">
         <v>31.453941667942502</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="93">
+      <c r="B17" s="92">
         <v>13.484980999999999</v>
       </c>
-      <c r="C17" s="94">
+      <c r="C17" s="93">
         <v>19.050961000000001</v>
       </c>
-      <c r="D17" s="94">
+      <c r="D17" s="93">
         <v>26.884647999999999</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="94">
         <v>44301</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F17" s="94">
         <v>44331</v>
       </c>
-      <c r="G17" s="94">
+      <c r="G17" s="93">
         <v>24.683025000000001</v>
       </c>
-      <c r="H17" s="94">
+      <c r="H17" s="93">
         <v>-5.6320639999999997</v>
       </c>
-      <c r="I17" s="94">
+      <c r="I17" s="93">
         <v>2.2016229999999899</v>
       </c>
-      <c r="J17" s="94">
+      <c r="J17" s="93">
         <v>-11.198043999999999</v>
       </c>
-      <c r="K17" s="94">
+      <c r="K17" s="93">
         <v>22.817559841226899</v>
       </c>
-      <c r="L17" s="94">
+      <c r="L17" s="93">
         <v>-8.9195833979019898</v>
       </c>
-      <c r="M17" s="96">
+      <c r="M17" s="95">
         <v>45.367389126737898</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="97">
+      <c r="B18" s="96">
         <v>20.588626999999999</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="97">
         <v>25.633641999999998</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="97">
         <v>31.260646000000001</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="98">
         <v>44316</v>
       </c>
-      <c r="F18" s="99">
+      <c r="F18" s="98">
         <v>44331</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="97">
         <v>24.683025000000001</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18" s="97">
         <v>0.95061699999999705</v>
       </c>
-      <c r="I18" s="98">
+      <c r="I18" s="97">
         <v>6.5776209999999997</v>
       </c>
-      <c r="J18" s="98">
+      <c r="J18" s="97">
         <v>-4.094398</v>
       </c>
-      <c r="K18" s="98">
+      <c r="K18" s="97">
         <v>-3.85129861514136</v>
       </c>
-      <c r="L18" s="98">
+      <c r="L18" s="97">
         <v>-26.648358537901998</v>
       </c>
-      <c r="M18" s="100">
+      <c r="M18" s="99">
         <v>16.587910112313999</v>
       </c>
-      <c r="P18" s="85" t="str">
+      <c r="P18" s="84" t="str">
         <f t="shared" si="3"/>
         <v>25.6 [20.6, 31.3]
 -1.0 [-6.6, 4.1]
@@ -10394,10 +10317,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DF5461-E19E-644C-9379-AB0909192BB2}">
-  <dimension ref="B3:BF58"/>
+  <dimension ref="B3:BE75"/>
   <sheetViews>
-    <sheetView topLeftCell="AS42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU55" sqref="AU55"/>
+    <sheetView tabSelected="1" topLeftCell="AS60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA71" sqref="BA71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10413,24 +10336,23 @@
     <col min="44" max="44" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="9.5" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="23.5" customWidth="1"/>
+    <col min="53" max="53" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -10445,26 +10367,26 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="185" t="s">
+      <c r="W3" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="185"/>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="185"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -10479,41 +10401,41 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="187" t="s">
+      <c r="W4" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="188"/>
-      <c r="Y4" s="188"/>
-      <c r="Z4" s="188"/>
-      <c r="AA4" s="188"/>
-      <c r="AB4" s="188"/>
-      <c r="AC4" s="188"/>
-      <c r="AF4" s="185" t="s">
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
+      <c r="AF4" s="215" t="s">
         <v>312</v>
       </c>
-      <c r="AG4" s="185"/>
-      <c r="AH4" s="185"/>
-      <c r="AI4" s="185"/>
-      <c r="AJ4" s="185"/>
-      <c r="AK4" s="185"/>
-      <c r="AL4" s="185"/>
-      <c r="AM4" s="185"/>
-      <c r="AN4" s="185"/>
-      <c r="AO4" s="185"/>
-      <c r="AP4" s="185"/>
-      <c r="AQ4" s="185"/>
-      <c r="AR4" s="185"/>
+      <c r="AG4" s="215"/>
+      <c r="AH4" s="215"/>
+      <c r="AI4" s="215"/>
+      <c r="AJ4" s="215"/>
+      <c r="AK4" s="215"/>
+      <c r="AL4" s="215"/>
+      <c r="AM4" s="215"/>
+      <c r="AN4" s="215"/>
+      <c r="AO4" s="215"/>
+      <c r="AP4" s="215"/>
+      <c r="AQ4" s="215"/>
+      <c r="AR4" s="215"/>
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -10530,32 +10452,32 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="186" t="s">
+      <c r="Y5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="186"/>
-      <c r="AA5" s="186"/>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="186"/>
+      <c r="Z5" s="214"/>
+      <c r="AA5" s="214"/>
+      <c r="AB5" s="214"/>
+      <c r="AC5" s="214"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="199" t="s">
+      <c r="AG5" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="187"/>
-      <c r="AJ5" s="200"/>
-      <c r="AK5" s="199" t="s">
+      <c r="AH5" s="216"/>
+      <c r="AI5" s="216"/>
+      <c r="AJ5" s="225"/>
+      <c r="AK5" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="AL5" s="187"/>
-      <c r="AM5" s="187"/>
-      <c r="AN5" s="187"/>
-      <c r="AO5" s="199" t="s">
+      <c r="AL5" s="216"/>
+      <c r="AM5" s="216"/>
+      <c r="AN5" s="216"/>
+      <c r="AO5" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="AP5" s="187"/>
-      <c r="AQ5" s="187"/>
-      <c r="AR5" s="187"/>
+      <c r="AP5" s="216"/>
+      <c r="AQ5" s="216"/>
+      <c r="AR5" s="216"/>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
@@ -10617,7 +10539,7 @@
       <c r="AF6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AG6" s="60" t="s">
+      <c r="AG6" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AH6" s="4" t="s">
@@ -10626,10 +10548,10 @@
       <c r="AI6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AJ6" s="62" t="s">
+      <c r="AJ6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AK6" s="60" t="s">
+      <c r="AK6" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AL6" s="4" t="s">
@@ -10641,7 +10563,7 @@
       <c r="AN6" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="AO6" s="60" t="s">
+      <c r="AO6" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AP6" s="4" t="s">
@@ -10733,40 +10655,40 @@
       <c r="AF7" s="28">
         <v>44270</v>
       </c>
-      <c r="AG7" s="58" t="s">
+      <c r="AG7" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="AH7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="58" t="s">
+      <c r="AH7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="AL7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="58" t="s">
+      <c r="AL7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="AP7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="55" t="s">
+      <c r="AP7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="54" t="s">
         <v>0</v>
       </c>
     </row>
@@ -10861,7 +10783,7 @@
       <c r="AF8" s="40">
         <v>44285</v>
       </c>
-      <c r="AG8" s="61" t="s">
+      <c r="AG8" s="60" t="s">
         <v>291</v>
       </c>
       <c r="AH8" s="39" t="s">
@@ -10873,7 +10795,7 @@
       <c r="AJ8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AK8" s="61" t="s">
+      <c r="AK8" s="60" t="s">
         <v>240</v>
       </c>
       <c r="AL8" s="39" t="s">
@@ -10885,7 +10807,7 @@
       <c r="AN8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AO8" s="61" t="s">
+      <c r="AO8" s="60" t="s">
         <v>258</v>
       </c>
       <c r="AP8" s="39" t="s">
@@ -10995,40 +10917,40 @@
       <c r="AF9" s="28">
         <v>44301</v>
       </c>
-      <c r="AG9" s="139" t="s">
+      <c r="AG9" s="138" t="s">
         <v>293</v>
       </c>
-      <c r="AH9" s="140" t="s">
+      <c r="AH9" s="139" t="s">
         <v>294</v>
       </c>
-      <c r="AI9" s="55" t="s">
+      <c r="AI9" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="AJ9" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="139" t="s">
+      <c r="AJ9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="138" t="s">
         <v>241</v>
       </c>
-      <c r="AL9" s="140" t="s">
+      <c r="AL9" s="139" t="s">
         <v>288</v>
       </c>
-      <c r="AM9" s="55" t="s">
+      <c r="AM9" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="AN9" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="58" t="s">
+      <c r="AN9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="AP9" s="55" t="s">
+      <c r="AP9" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="AQ9" s="140" t="s">
+      <c r="AQ9" s="139" t="s">
         <v>260</v>
       </c>
-      <c r="AR9" s="55" t="s">
+      <c r="AR9" s="54" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11138,40 +11060,40 @@
       <c r="AF10" s="40">
         <v>44316</v>
       </c>
-      <c r="AG10" s="101" t="s">
+      <c r="AG10" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="AH10" s="102" t="s">
+      <c r="AH10" s="101" t="s">
         <v>253</v>
       </c>
-      <c r="AI10" s="102" t="s">
+      <c r="AI10" s="101" t="s">
         <v>254</v>
       </c>
       <c r="AJ10" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="AK10" s="101" t="s">
+      <c r="AK10" s="100" t="s">
         <v>243</v>
       </c>
-      <c r="AL10" s="102" t="s">
+      <c r="AL10" s="101" t="s">
         <v>289</v>
       </c>
-      <c r="AM10" s="102" t="s">
+      <c r="AM10" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="AN10" s="102" t="s">
+      <c r="AN10" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="AO10" s="101" t="s">
+      <c r="AO10" s="100" t="s">
         <v>261</v>
       </c>
-      <c r="AP10" s="102" t="s">
+      <c r="AP10" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="AQ10" s="102" t="s">
+      <c r="AQ10" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="AR10" s="102" t="s">
+      <c r="AR10" s="101" t="s">
         <v>264</v>
       </c>
     </row>
@@ -11278,56 +11200,56 @@
 (-7.21)
 -4.54%</v>
       </c>
-      <c r="AF11" s="77">
+      <c r="AF11" s="76">
         <v>44331</v>
       </c>
-      <c r="AG11" s="89" t="s">
+      <c r="AG11" s="88" t="s">
         <v>295</v>
       </c>
-      <c r="AH11" s="88" t="s">
+      <c r="AH11" s="87" t="s">
         <v>296</v>
       </c>
-      <c r="AI11" s="88" t="s">
+      <c r="AI11" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="AJ11" s="78" t="s">
+      <c r="AJ11" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="AK11" s="89" t="s">
+      <c r="AK11" s="88" t="s">
         <v>246</v>
       </c>
-      <c r="AL11" s="88" t="s">
+      <c r="AL11" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="AM11" s="88" t="s">
+      <c r="AM11" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="AN11" s="88" t="s">
+      <c r="AN11" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="AO11" s="89" t="s">
+      <c r="AO11" s="88" t="s">
         <v>265</v>
       </c>
-      <c r="AP11" s="88" t="s">
+      <c r="AP11" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="AQ11" s="88" t="s">
+      <c r="AQ11" s="87" t="s">
         <v>267</v>
       </c>
-      <c r="AR11" s="88" t="s">
+      <c r="AR11" s="87" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:44" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="214"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -11342,41 +11264,41 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="186" t="s">
+      <c r="W12" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AF12" s="201" t="s">
+      <c r="X12" s="214"/>
+      <c r="Y12" s="214"/>
+      <c r="Z12" s="214"/>
+      <c r="AA12" s="214"/>
+      <c r="AB12" s="214"/>
+      <c r="AC12" s="214"/>
+      <c r="AF12" s="226" t="s">
         <v>313</v>
       </c>
-      <c r="AG12" s="202"/>
-      <c r="AH12" s="202"/>
-      <c r="AI12" s="202"/>
-      <c r="AJ12" s="202"/>
-      <c r="AK12" s="202"/>
-      <c r="AL12" s="202"/>
-      <c r="AM12" s="202"/>
-      <c r="AN12" s="202"/>
-      <c r="AO12" s="202"/>
-      <c r="AP12" s="202"/>
-      <c r="AQ12" s="202"/>
-      <c r="AR12" s="202"/>
+      <c r="AG12" s="227"/>
+      <c r="AH12" s="227"/>
+      <c r="AI12" s="227"/>
+      <c r="AJ12" s="227"/>
+      <c r="AK12" s="227"/>
+      <c r="AL12" s="227"/>
+      <c r="AM12" s="227"/>
+      <c r="AN12" s="227"/>
+      <c r="AO12" s="227"/>
+      <c r="AP12" s="227"/>
+      <c r="AQ12" s="227"/>
+      <c r="AR12" s="227"/>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="186" t="s">
+      <c r="D13" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -11393,13 +11315,13 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="186" t="s">
+      <c r="Y13" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="Z13" s="186"/>
-      <c r="AA13" s="186"/>
-      <c r="AB13" s="186"/>
-      <c r="AC13" s="186"/>
+      <c r="Z13" s="214"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="214"/>
+      <c r="AC13" s="214"/>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
@@ -11994,44 +11916,44 @@
       </c>
     </row>
     <row r="21" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="W21" s="186" t="s">
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="214"/>
+      <c r="W21" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="186"/>
-      <c r="Z21" s="186"/>
-      <c r="AA21" s="186"/>
-      <c r="AB21" s="186"/>
-      <c r="AC21" s="186"/>
+      <c r="X21" s="214"/>
+      <c r="Y21" s="214"/>
+      <c r="Z21" s="214"/>
+      <c r="AA21" s="214"/>
+      <c r="AB21" s="214"/>
+      <c r="AC21" s="214"/>
     </row>
     <row r="22" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="186" t="s">
+      <c r="Y22" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="186"/>
-      <c r="AA22" s="186"/>
-      <c r="AB22" s="186"/>
-      <c r="AC22" s="186"/>
+      <c r="Z22" s="214"/>
+      <c r="AA22" s="214"/>
+      <c r="AB22" s="214"/>
+      <c r="AC22" s="214"/>
     </row>
     <row r="23" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -12595,48 +12517,48 @@
     </row>
     <row r="30" spans="2:44" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="AF32" s="185" t="s">
+      <c r="AF32" s="215" t="s">
         <v>318</v>
       </c>
-      <c r="AG32" s="185"/>
-      <c r="AH32" s="185"/>
-      <c r="AI32" s="185"/>
-      <c r="AJ32" s="185"/>
-      <c r="AK32" s="185"/>
-      <c r="AL32" s="185"/>
-      <c r="AM32" s="185"/>
-      <c r="AN32" s="185"/>
-      <c r="AO32" s="185"/>
-      <c r="AP32" s="185"/>
-      <c r="AQ32" s="185"/>
-      <c r="AR32" s="185"/>
-    </row>
-    <row r="33" spans="32:58" x14ac:dyDescent="0.2">
+      <c r="AG32" s="215"/>
+      <c r="AH32" s="215"/>
+      <c r="AI32" s="215"/>
+      <c r="AJ32" s="215"/>
+      <c r="AK32" s="215"/>
+      <c r="AL32" s="215"/>
+      <c r="AM32" s="215"/>
+      <c r="AN32" s="215"/>
+      <c r="AO32" s="215"/>
+      <c r="AP32" s="215"/>
+      <c r="AQ32" s="215"/>
+      <c r="AR32" s="215"/>
+    </row>
+    <row r="33" spans="32:57" x14ac:dyDescent="0.2">
       <c r="AF33" s="1"/>
-      <c r="AG33" s="199" t="s">
+      <c r="AG33" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="AH33" s="187"/>
-      <c r="AI33" s="187"/>
-      <c r="AJ33" s="200"/>
-      <c r="AK33" s="199" t="s">
+      <c r="AH33" s="216"/>
+      <c r="AI33" s="216"/>
+      <c r="AJ33" s="225"/>
+      <c r="AK33" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="AL33" s="187"/>
-      <c r="AM33" s="187"/>
-      <c r="AN33" s="187"/>
-      <c r="AO33" s="199" t="s">
+      <c r="AL33" s="216"/>
+      <c r="AM33" s="216"/>
+      <c r="AN33" s="216"/>
+      <c r="AO33" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="AP33" s="187"/>
-      <c r="AQ33" s="187"/>
-      <c r="AR33" s="187"/>
-    </row>
-    <row r="34" spans="32:58" x14ac:dyDescent="0.2">
+      <c r="AP33" s="216"/>
+      <c r="AQ33" s="216"/>
+      <c r="AR33" s="216"/>
+    </row>
+    <row r="34" spans="32:57" x14ac:dyDescent="0.2">
       <c r="AF34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AG34" s="60" t="s">
+      <c r="AG34" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AH34" s="4" t="s">
@@ -12645,10 +12567,10 @@
       <c r="AI34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AJ34" s="62" t="s">
+      <c r="AJ34" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AK34" s="60" t="s">
+      <c r="AK34" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AL34" s="4" t="s">
@@ -12660,7 +12582,7 @@
       <c r="AN34" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="AO34" s="60" t="s">
+      <c r="AO34" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AP34" s="4" t="s">
@@ -12673,52 +12595,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="32:58" ht="70" x14ac:dyDescent="0.2">
+    <row r="35" spans="32:57" ht="70" x14ac:dyDescent="0.2">
       <c r="AF35" s="28">
         <v>44270</v>
       </c>
-      <c r="AG35" s="58" t="s">
+      <c r="AG35" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="AH35" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="58" t="s">
+      <c r="AH35" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="AL35" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="58" t="s">
+      <c r="AL35" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="AP35" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="55" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="32:58" ht="70" x14ac:dyDescent="0.2">
+      <c r="AP35" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="32:57" ht="70" x14ac:dyDescent="0.2">
       <c r="AF36" s="40">
         <v>44285</v>
       </c>
-      <c r="AG36" s="61" t="s">
+      <c r="AG36" s="60" t="s">
         <v>214</v>
       </c>
       <c r="AH36" s="39" t="s">
@@ -12730,7 +12652,7 @@
       <c r="AJ36" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AK36" s="61" t="s">
+      <c r="AK36" s="60" t="s">
         <v>205</v>
       </c>
       <c r="AL36" s="39" t="s">
@@ -12742,7 +12664,7 @@
       <c r="AN36" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AO36" s="61" t="s">
+      <c r="AO36" s="60" t="s">
         <v>227</v>
       </c>
       <c r="AP36" s="39" t="s">
@@ -12755,433 +12677,643 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="32:58" ht="70" x14ac:dyDescent="0.2">
+    <row r="37" spans="32:57" ht="70" x14ac:dyDescent="0.2">
       <c r="AF37" s="28">
         <v>44301</v>
       </c>
-      <c r="AG37" s="139" t="s">
+      <c r="AG37" s="138" t="s">
         <v>215</v>
       </c>
-      <c r="AH37" s="140" t="s">
+      <c r="AH37" s="139" t="s">
         <v>218</v>
       </c>
-      <c r="AI37" s="55" t="s">
+      <c r="AI37" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="AJ37" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="139" t="s">
+      <c r="AJ37" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="AL37" s="140" t="s">
+      <c r="AL37" s="139" t="s">
         <v>206</v>
       </c>
-      <c r="AM37" s="55" t="s">
+      <c r="AM37" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="AN37" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO37" s="58" t="s">
+      <c r="AN37" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="AP37" s="55" t="s">
+      <c r="AP37" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="AQ37" s="140" t="s">
+      <c r="AQ37" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="AR37" s="55" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="32:58" ht="70" x14ac:dyDescent="0.2">
+      <c r="AR37" s="54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="32:57" ht="70" x14ac:dyDescent="0.2">
       <c r="AF38" s="40">
         <v>44316</v>
       </c>
-      <c r="AG38" s="101" t="s">
+      <c r="AG38" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="AH38" s="102" t="s">
+      <c r="AH38" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="AI38" s="102" t="s">
+      <c r="AI38" s="101" t="s">
         <v>222</v>
       </c>
       <c r="AJ38" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="AK38" s="101" t="s">
+      <c r="AK38" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="AL38" s="102" t="s">
+      <c r="AL38" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="AM38" s="102" t="s">
+      <c r="AM38" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AN38" s="102" t="s">
+      <c r="AN38" s="101" t="s">
         <v>211</v>
       </c>
-      <c r="AO38" s="101" t="s">
+      <c r="AO38" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="AP38" s="102" t="s">
+      <c r="AP38" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="AQ38" s="102" t="s">
+      <c r="AQ38" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="AR38" s="102" t="s">
+      <c r="AR38" s="101" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="32:58" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AF39" s="77">
+    <row r="39" spans="32:57" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF39" s="76">
         <v>44331</v>
       </c>
-      <c r="AG39" s="89" t="s">
+      <c r="AG39" s="88" t="s">
         <v>314</v>
       </c>
-      <c r="AH39" s="88" t="s">
+      <c r="AH39" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="AI39" s="88" t="s">
+      <c r="AI39" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="AJ39" s="78" t="s">
+      <c r="AJ39" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="AK39" s="89" t="s">
+      <c r="AK39" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="AL39" s="88" t="s">
+      <c r="AL39" s="87" t="s">
         <v>317</v>
       </c>
-      <c r="AM39" s="88" t="s">
+      <c r="AM39" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="AN39" s="88" t="s">
+      <c r="AN39" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="AO39" s="89" t="s">
+      <c r="AO39" s="88" t="s">
         <v>230</v>
       </c>
-      <c r="AP39" s="88" t="s">
+      <c r="AP39" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="AQ39" s="88" t="s">
+      <c r="AQ39" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="AR39" s="88" t="s">
+      <c r="AR39" s="87" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="32:58" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="AF40" s="201" t="s">
+    <row r="40" spans="32:57" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AF40" s="226" t="s">
         <v>313</v>
       </c>
-      <c r="AG40" s="202"/>
-      <c r="AH40" s="202"/>
-      <c r="AI40" s="202"/>
-      <c r="AJ40" s="202"/>
-      <c r="AK40" s="202"/>
-      <c r="AL40" s="202"/>
-      <c r="AM40" s="202"/>
-      <c r="AN40" s="202"/>
-      <c r="AO40" s="202"/>
-      <c r="AP40" s="202"/>
-      <c r="AQ40" s="202"/>
-      <c r="AR40" s="202"/>
-    </row>
-    <row r="46" spans="32:58" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="32:58" x14ac:dyDescent="0.2">
-      <c r="AW47" s="221"/>
-      <c r="AX47" s="222"/>
-      <c r="AY47" s="222"/>
-      <c r="AZ47" s="222"/>
-      <c r="BA47" s="222"/>
-      <c r="BB47" s="222"/>
-      <c r="BC47" s="222"/>
-      <c r="BD47" s="222"/>
-      <c r="BE47" s="222"/>
-      <c r="BF47" s="223"/>
-    </row>
-    <row r="48" spans="32:58" x14ac:dyDescent="0.2">
-      <c r="AW48" s="224"/>
-      <c r="AX48" s="195" t="s">
+      <c r="AG40" s="227"/>
+      <c r="AH40" s="227"/>
+      <c r="AI40" s="227"/>
+      <c r="AJ40" s="227"/>
+      <c r="AK40" s="227"/>
+      <c r="AL40" s="227"/>
+      <c r="AM40" s="227"/>
+      <c r="AN40" s="227"/>
+      <c r="AO40" s="227"/>
+      <c r="AP40" s="227"/>
+      <c r="AQ40" s="227"/>
+      <c r="AR40" s="227"/>
+    </row>
+    <row r="46" spans="32:57" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="32:57" x14ac:dyDescent="0.2">
+      <c r="AW47" s="190"/>
+      <c r="AX47" s="191"/>
+      <c r="AY47" s="191"/>
+      <c r="AZ47" s="191"/>
+      <c r="BA47" s="191"/>
+      <c r="BB47" s="191"/>
+      <c r="BC47" s="191"/>
+      <c r="BD47" s="191"/>
+      <c r="BE47" s="192"/>
+    </row>
+    <row r="48" spans="32:57" x14ac:dyDescent="0.2">
+      <c r="AW48" s="193"/>
+      <c r="AX48" s="219" t="s">
         <v>505</v>
       </c>
-      <c r="AY48" s="195"/>
-      <c r="AZ48" s="195"/>
-      <c r="BA48" s="195"/>
-      <c r="BB48" s="195"/>
-      <c r="BC48" s="195"/>
-      <c r="BD48" s="195"/>
-      <c r="BE48" s="195"/>
-      <c r="BF48" s="225"/>
-    </row>
-    <row r="49" spans="49:58" x14ac:dyDescent="0.2">
-      <c r="AW49" s="224"/>
-      <c r="AX49" s="230" t="s">
+      <c r="AY48" s="219"/>
+      <c r="AZ48" s="219"/>
+      <c r="BA48" s="219"/>
+      <c r="BB48" s="219"/>
+      <c r="BC48" s="219"/>
+      <c r="BD48" s="219"/>
+      <c r="BE48" s="194"/>
+    </row>
+    <row r="49" spans="49:57" x14ac:dyDescent="0.2">
+      <c r="AW49" s="193"/>
+      <c r="AX49" s="199" t="s">
         <v>455</v>
       </c>
-      <c r="AY49" s="230"/>
-      <c r="AZ49" s="215" t="s">
+      <c r="AY49" s="199"/>
+      <c r="AZ49" s="186" t="s">
         <v>469</v>
       </c>
-      <c r="BA49" s="216"/>
-      <c r="BB49" s="215" t="s">
+      <c r="BA49" s="222" t="s">
         <v>470</v>
       </c>
-      <c r="BC49" s="216"/>
-      <c r="BD49" s="215" t="s">
+      <c r="BB49" s="223"/>
+      <c r="BC49" s="222" t="s">
         <v>471</v>
       </c>
-      <c r="BE49" s="216"/>
-      <c r="BF49" s="225"/>
-    </row>
-    <row r="50" spans="49:58" x14ac:dyDescent="0.2">
-      <c r="AW50" s="224"/>
-      <c r="AX50" s="217" t="s">
+      <c r="BD49" s="223"/>
+      <c r="BE49" s="194"/>
+    </row>
+    <row r="50" spans="49:57" x14ac:dyDescent="0.2">
+      <c r="AW50" s="193"/>
+      <c r="AX50" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="AY50" s="217" t="s">
+      <c r="AY50" s="187" t="s">
         <v>454</v>
       </c>
-      <c r="AZ50" s="218" t="s">
+      <c r="AZ50" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="BA50" s="219" t="s">
+      <c r="BA50" s="188" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB50" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="BB50" s="218" t="s">
+      <c r="BC50" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="BC50" s="219" t="s">
+      <c r="BD50" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="BD50" s="218" t="s">
+      <c r="BE50" s="194"/>
+    </row>
+    <row r="51" spans="49:57" ht="56" x14ac:dyDescent="0.2">
+      <c r="AW51" s="193"/>
+      <c r="AX51" s="185">
+        <v>44285</v>
+      </c>
+      <c r="AY51" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AZ51" s="181" t="s">
+        <v>506</v>
+      </c>
+      <c r="BA51" s="181" t="s">
+        <v>513</v>
+      </c>
+      <c r="BB51" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC51" s="181" t="s">
+        <v>523</v>
+      </c>
+      <c r="BD51" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE51" s="194"/>
+    </row>
+    <row r="52" spans="49:57" ht="56" x14ac:dyDescent="0.2">
+      <c r="AW52" s="193"/>
+      <c r="AX52" s="184">
+        <v>44301</v>
+      </c>
+      <c r="AY52" s="183" t="s">
+        <v>453</v>
+      </c>
+      <c r="AZ52" s="178" t="s">
+        <v>507</v>
+      </c>
+      <c r="BA52" s="178" t="s">
+        <v>514</v>
+      </c>
+      <c r="BB52" s="54" t="s">
+        <v>508</v>
+      </c>
+      <c r="BC52" s="178" t="s">
+        <v>524</v>
+      </c>
+      <c r="BD52" s="139" t="s">
+        <v>525</v>
+      </c>
+      <c r="BE52" s="194"/>
+    </row>
+    <row r="53" spans="49:57" ht="56" x14ac:dyDescent="0.2">
+      <c r="AW53" s="193"/>
+      <c r="AX53" s="185">
+        <v>44316</v>
+      </c>
+      <c r="AY53" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AZ53" s="177" t="s">
+        <v>509</v>
+      </c>
+      <c r="BA53" s="177" t="s">
+        <v>515</v>
+      </c>
+      <c r="BB53" s="86" t="s">
+        <v>516</v>
+      </c>
+      <c r="BC53" s="177" t="s">
+        <v>526</v>
+      </c>
+      <c r="BD53" s="86" t="s">
+        <v>527</v>
+      </c>
+      <c r="BE53" s="194"/>
+    </row>
+    <row r="54" spans="49:57" ht="56" x14ac:dyDescent="0.2">
+      <c r="AW54" s="193"/>
+      <c r="AX54" s="184">
+        <v>44331</v>
+      </c>
+      <c r="AY54" s="183" t="s">
+        <v>453</v>
+      </c>
+      <c r="AZ54" s="178" t="s">
+        <v>510</v>
+      </c>
+      <c r="BA54" s="178" t="s">
+        <v>517</v>
+      </c>
+      <c r="BB54" s="139" t="s">
+        <v>518</v>
+      </c>
+      <c r="BC54" s="178" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD54" s="139" t="s">
+        <v>529</v>
+      </c>
+      <c r="BE54" s="194"/>
+    </row>
+    <row r="55" spans="49:57" ht="56" x14ac:dyDescent="0.2">
+      <c r="AW55" s="193"/>
+      <c r="AX55" s="185">
+        <v>44346</v>
+      </c>
+      <c r="AY55" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AZ55" s="177" t="s">
+        <v>511</v>
+      </c>
+      <c r="BA55" s="177" t="s">
+        <v>519</v>
+      </c>
+      <c r="BB55" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="BC55" s="177" t="s">
+        <v>530</v>
+      </c>
+      <c r="BD55" s="86" t="s">
+        <v>531</v>
+      </c>
+      <c r="BE55" s="194"/>
+    </row>
+    <row r="56" spans="49:57" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AW56" s="193"/>
+      <c r="AX56" s="184">
+        <v>44362</v>
+      </c>
+      <c r="AY56" s="183" t="s">
+        <v>453</v>
+      </c>
+      <c r="AZ56" s="179" t="s">
+        <v>512</v>
+      </c>
+      <c r="BA56" s="179" t="s">
+        <v>521</v>
+      </c>
+      <c r="BB56" s="87" t="s">
+        <v>522</v>
+      </c>
+      <c r="BC56" s="179" t="s">
+        <v>532</v>
+      </c>
+      <c r="BD56" s="87" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE56" s="194"/>
+    </row>
+    <row r="57" spans="49:57" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AW57" s="193"/>
+      <c r="AX57" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY57" s="220"/>
+      <c r="AZ57" s="220"/>
+      <c r="BA57" s="220"/>
+      <c r="BB57" s="220"/>
+      <c r="BC57" s="220"/>
+      <c r="BD57" s="220"/>
+      <c r="BE57" s="194"/>
+    </row>
+    <row r="58" spans="49:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AW58" s="196"/>
+      <c r="AX58" s="197"/>
+      <c r="AY58" s="197"/>
+      <c r="AZ58" s="197"/>
+      <c r="BA58" s="197"/>
+      <c r="BB58" s="197"/>
+      <c r="BC58" s="197"/>
+      <c r="BD58" s="197"/>
+      <c r="BE58" s="198"/>
+    </row>
+    <row r="63" spans="49:57" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="49:57" x14ac:dyDescent="0.2">
+      <c r="AW64" s="190"/>
+      <c r="AX64" s="191"/>
+      <c r="AY64" s="191"/>
+      <c r="AZ64" s="191"/>
+      <c r="BA64" s="191"/>
+      <c r="BB64" s="191"/>
+      <c r="BC64" s="191"/>
+      <c r="BD64" s="191"/>
+      <c r="BE64" s="192"/>
+    </row>
+    <row r="65" spans="49:57" x14ac:dyDescent="0.2">
+      <c r="AW65" s="193"/>
+      <c r="AX65" s="219" t="s">
+        <v>548</v>
+      </c>
+      <c r="AY65" s="219"/>
+      <c r="AZ65" s="219"/>
+      <c r="BA65" s="219"/>
+      <c r="BB65" s="219"/>
+      <c r="BC65" s="219"/>
+      <c r="BD65" s="219"/>
+      <c r="BE65" s="194"/>
+    </row>
+    <row r="66" spans="49:57" x14ac:dyDescent="0.2">
+      <c r="AW66" s="193"/>
+      <c r="AX66" s="199" t="s">
+        <v>455</v>
+      </c>
+      <c r="AY66" s="199"/>
+      <c r="AZ66" s="186" t="s">
+        <v>541</v>
+      </c>
+      <c r="BA66" s="222" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB66" s="223"/>
+      <c r="BC66" s="222" t="s">
+        <v>456</v>
+      </c>
+      <c r="BD66" s="223"/>
+      <c r="BE66" s="194"/>
+    </row>
+    <row r="67" spans="49:57" x14ac:dyDescent="0.2">
+      <c r="AW67" s="193"/>
+      <c r="AX67" s="187" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY67" s="187" t="s">
+        <v>454</v>
+      </c>
+      <c r="AZ67" s="188" t="s">
+        <v>534</v>
+      </c>
+      <c r="BA67" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="BE50" s="219" t="s">
+      <c r="BB67" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="BF50" s="225"/>
-    </row>
-    <row r="51" spans="49:58" ht="56" x14ac:dyDescent="0.2">
-      <c r="AW51" s="224"/>
-      <c r="AX51" s="214">
+      <c r="BC67" s="188" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD67" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE67" s="194"/>
+    </row>
+    <row r="68" spans="49:57" ht="56" x14ac:dyDescent="0.2">
+      <c r="AW68" s="193"/>
+      <c r="AX68" s="185">
         <v>44285</v>
       </c>
-      <c r="AY51" s="183" t="s">
+      <c r="AY68" s="182" t="s">
         <v>453</v>
       </c>
-      <c r="AZ51" s="182" t="s">
-        <v>506</v>
-      </c>
-      <c r="BA51" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB51" s="182" t="s">
+      <c r="AZ68" s="181" t="s">
+        <v>542</v>
+      </c>
+      <c r="BA68" s="181" t="s">
+        <v>513</v>
+      </c>
+      <c r="BB68" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC68" s="181" t="s">
+        <v>472</v>
+      </c>
+      <c r="BD68" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE68" s="194"/>
+    </row>
+    <row r="69" spans="49:57" ht="56" x14ac:dyDescent="0.2">
+      <c r="AW69" s="193"/>
+      <c r="AX69" s="184">
+        <v>44301</v>
+      </c>
+      <c r="AY69" s="183" t="s">
+        <v>453</v>
+      </c>
+      <c r="AZ69" s="178" t="s">
+        <v>543</v>
+      </c>
+      <c r="BA69" s="178" t="s">
+        <v>514</v>
+      </c>
+      <c r="BB69" s="54" t="s">
+        <v>508</v>
+      </c>
+      <c r="BC69" s="178" t="s">
+        <v>473</v>
+      </c>
+      <c r="BD69" s="139" t="s">
+        <v>474</v>
+      </c>
+      <c r="BE69" s="194"/>
+    </row>
+    <row r="70" spans="49:57" ht="56" x14ac:dyDescent="0.2">
+      <c r="AW70" s="193"/>
+      <c r="AX70" s="185">
+        <v>44316</v>
+      </c>
+      <c r="AY70" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AZ70" s="177" t="s">
+        <v>544</v>
+      </c>
+      <c r="BA70" s="177" t="s">
+        <v>515</v>
+      </c>
+      <c r="BB70" s="86" t="s">
+        <v>516</v>
+      </c>
+      <c r="BC70" s="177" t="s">
+        <v>475</v>
+      </c>
+      <c r="BD70" s="86" t="s">
+        <v>476</v>
+      </c>
+      <c r="BE70" s="194"/>
+    </row>
+    <row r="71" spans="49:57" ht="56" x14ac:dyDescent="0.2">
+      <c r="AW71" s="193"/>
+      <c r="AX71" s="184">
+        <v>44331</v>
+      </c>
+      <c r="AY71" s="183" t="s">
+        <v>453</v>
+      </c>
+      <c r="AZ71" s="178" t="s">
+        <v>545</v>
+      </c>
+      <c r="BA71" s="246" t="s">
         <v>517</v>
       </c>
-      <c r="BC51" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD51" s="182" t="s">
-        <v>527</v>
-      </c>
-      <c r="BE51" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF51" s="225"/>
-    </row>
-    <row r="52" spans="49:58" ht="56" x14ac:dyDescent="0.2">
-      <c r="AW52" s="224"/>
-      <c r="AX52" s="213">
-        <v>44301</v>
-      </c>
-      <c r="AY52" s="184" t="s">
+      <c r="BB71" s="139" t="s">
+        <v>518</v>
+      </c>
+      <c r="BC71" s="178" t="s">
+        <v>477</v>
+      </c>
+      <c r="BD71" s="139" t="s">
+        <v>478</v>
+      </c>
+      <c r="BE71" s="194"/>
+    </row>
+    <row r="72" spans="49:57" ht="56" x14ac:dyDescent="0.2">
+      <c r="AW72" s="193"/>
+      <c r="AX72" s="185">
+        <v>44346</v>
+      </c>
+      <c r="AY72" s="182" t="s">
         <v>453</v>
       </c>
-      <c r="AZ52" s="179" t="s">
-        <v>507</v>
-      </c>
-      <c r="BA52" s="220" t="s">
-        <v>538</v>
-      </c>
-      <c r="BB52" s="179" t="s">
-        <v>518</v>
-      </c>
-      <c r="BC52" s="55" t="s">
-        <v>508</v>
-      </c>
-      <c r="BD52" s="179" t="s">
-        <v>528</v>
-      </c>
-      <c r="BE52" s="140" t="s">
-        <v>529</v>
-      </c>
-      <c r="BF52" s="225"/>
-    </row>
-    <row r="53" spans="49:58" ht="56" x14ac:dyDescent="0.2">
-      <c r="AW53" s="224"/>
-      <c r="AX53" s="214">
-        <v>44316</v>
-      </c>
-      <c r="AY53" s="183" t="s">
+      <c r="AZ72" s="177" t="s">
+        <v>546</v>
+      </c>
+      <c r="BA72" s="177" t="s">
+        <v>519</v>
+      </c>
+      <c r="BB72" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="BC72" s="177" t="s">
+        <v>479</v>
+      </c>
+      <c r="BD72" s="86" t="s">
+        <v>480</v>
+      </c>
+      <c r="BE72" s="194"/>
+    </row>
+    <row r="73" spans="49:57" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AW73" s="193"/>
+      <c r="AX73" s="184">
+        <v>44362</v>
+      </c>
+      <c r="AY73" s="183" t="s">
         <v>453</v>
       </c>
-      <c r="AZ53" s="178" t="s">
-        <v>509</v>
-      </c>
-      <c r="BA53" s="87" t="s">
-        <v>510</v>
-      </c>
-      <c r="BB53" s="178" t="s">
-        <v>519</v>
-      </c>
-      <c r="BC53" s="87" t="s">
-        <v>520</v>
-      </c>
-      <c r="BD53" s="178" t="s">
-        <v>530</v>
-      </c>
-      <c r="BE53" s="87" t="s">
-        <v>531</v>
-      </c>
-      <c r="BF53" s="225"/>
-    </row>
-    <row r="54" spans="49:58" ht="56" x14ac:dyDescent="0.2">
-      <c r="AW54" s="224"/>
-      <c r="AX54" s="213">
-        <v>44331</v>
-      </c>
-      <c r="AY54" s="184" t="s">
-        <v>453</v>
-      </c>
-      <c r="AZ54" s="179" t="s">
-        <v>511</v>
-      </c>
-      <c r="BA54" s="140" t="s">
-        <v>512</v>
-      </c>
-      <c r="BB54" s="179" t="s">
+      <c r="AZ73" s="179" t="s">
+        <v>547</v>
+      </c>
+      <c r="BA73" s="179" t="s">
         <v>521</v>
       </c>
-      <c r="BC54" s="140" t="s">
+      <c r="BB73" s="87" t="s">
         <v>522</v>
       </c>
-      <c r="BD54" s="179" t="s">
-        <v>532</v>
-      </c>
-      <c r="BE54" s="140" t="s">
-        <v>533</v>
-      </c>
-      <c r="BF54" s="225"/>
-    </row>
-    <row r="55" spans="49:58" ht="56" x14ac:dyDescent="0.2">
-      <c r="AW55" s="224"/>
-      <c r="AX55" s="214">
-        <v>44346</v>
-      </c>
-      <c r="AY55" s="183" t="s">
-        <v>453</v>
-      </c>
-      <c r="AZ55" s="178" t="s">
-        <v>513</v>
-      </c>
-      <c r="BA55" s="87" t="s">
-        <v>514</v>
-      </c>
-      <c r="BB55" s="178" t="s">
-        <v>523</v>
-      </c>
-      <c r="BC55" s="87" t="s">
-        <v>524</v>
-      </c>
-      <c r="BD55" s="178" t="s">
-        <v>534</v>
-      </c>
-      <c r="BE55" s="87" t="s">
-        <v>535</v>
-      </c>
-      <c r="BF55" s="225"/>
-    </row>
-    <row r="56" spans="49:58" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AW56" s="224"/>
-      <c r="AX56" s="213">
-        <v>44362</v>
-      </c>
-      <c r="AY56" s="184" t="s">
-        <v>453</v>
-      </c>
-      <c r="AZ56" s="180" t="s">
-        <v>515</v>
-      </c>
-      <c r="BA56" s="88" t="s">
-        <v>516</v>
-      </c>
-      <c r="BB56" s="180" t="s">
-        <v>525</v>
-      </c>
-      <c r="BC56" s="88" t="s">
-        <v>526</v>
-      </c>
-      <c r="BD56" s="180" t="s">
-        <v>536</v>
-      </c>
-      <c r="BE56" s="88" t="s">
-        <v>537</v>
-      </c>
-      <c r="BF56" s="225"/>
-    </row>
-    <row r="57" spans="49:58" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="AW57" s="224"/>
-      <c r="AX57" s="198" t="s">
+      <c r="BC73" s="179" t="s">
+        <v>481</v>
+      </c>
+      <c r="BD73" s="87" t="s">
+        <v>482</v>
+      </c>
+      <c r="BE73" s="194"/>
+    </row>
+    <row r="74" spans="49:57" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AW74" s="193"/>
+      <c r="AX74" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="AY57" s="198"/>
-      <c r="AZ57" s="198"/>
-      <c r="BA57" s="198"/>
-      <c r="BB57" s="198"/>
-      <c r="BC57" s="198"/>
-      <c r="BD57" s="198"/>
-      <c r="BE57" s="198"/>
-      <c r="BF57" s="225"/>
-    </row>
-    <row r="58" spans="49:58" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AW58" s="227"/>
-      <c r="AX58" s="228"/>
-      <c r="AY58" s="228"/>
-      <c r="AZ58" s="228"/>
-      <c r="BA58" s="228"/>
-      <c r="BB58" s="228"/>
-      <c r="BC58" s="228"/>
-      <c r="BD58" s="228"/>
-      <c r="BE58" s="228"/>
-      <c r="BF58" s="229"/>
+      <c r="AY74" s="220"/>
+      <c r="AZ74" s="220"/>
+      <c r="BA74" s="220"/>
+      <c r="BB74" s="220"/>
+      <c r="BC74" s="220"/>
+      <c r="BD74" s="220"/>
+      <c r="BE74" s="194"/>
+    </row>
+    <row r="75" spans="49:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AW75" s="196"/>
+      <c r="AX75" s="197"/>
+      <c r="AY75" s="197"/>
+      <c r="AZ75" s="197"/>
+      <c r="BA75" s="197"/>
+      <c r="BB75" s="197"/>
+      <c r="BC75" s="197"/>
+      <c r="BD75" s="197"/>
+      <c r="BE75" s="198"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="AX48:BE48"/>
-    <mergeCell ref="AZ49:BA49"/>
-    <mergeCell ref="BB49:BC49"/>
-    <mergeCell ref="BD49:BE49"/>
-    <mergeCell ref="AX57:BE57"/>
-    <mergeCell ref="AF4:AR4"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="AF12:AR12"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="Y5:AC5"/>
+  <mergeCells count="32">
+    <mergeCell ref="AX65:BD65"/>
+    <mergeCell ref="BA66:BB66"/>
+    <mergeCell ref="BC66:BD66"/>
+    <mergeCell ref="AX74:BD74"/>
+    <mergeCell ref="AF32:AR32"/>
+    <mergeCell ref="AG33:AJ33"/>
+    <mergeCell ref="AK33:AN33"/>
+    <mergeCell ref="AO33:AR33"/>
+    <mergeCell ref="AF40:AR40"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="Y22:AC22"/>
     <mergeCell ref="B12:H12"/>
@@ -13190,11 +13322,21 @@
     <mergeCell ref="Y13:AC13"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="W21:AC21"/>
-    <mergeCell ref="AF32:AR32"/>
-    <mergeCell ref="AG33:AJ33"/>
-    <mergeCell ref="AK33:AN33"/>
-    <mergeCell ref="AO33:AR33"/>
-    <mergeCell ref="AF40:AR40"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AF4:AR4"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="AF12:AR12"/>
+    <mergeCell ref="AX48:BD48"/>
+    <mergeCell ref="BA49:BB49"/>
+    <mergeCell ref="BC49:BD49"/>
+    <mergeCell ref="AX57:BD57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13240,53 +13382,53 @@
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6" s="50"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="219"/>
+      <c r="I6" s="219"/>
+      <c r="J6" s="219"/>
+      <c r="K6" s="219"/>
+      <c r="L6" s="219"/>
+      <c r="M6" s="219"/>
+      <c r="N6" s="219"/>
+      <c r="O6" s="219"/>
+      <c r="P6" s="219"/>
+      <c r="Q6" s="219"/>
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C7" s="50"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="205"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="197"/>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="197"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="234"/>
+      <c r="J7" s="233"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="233"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="218"/>
+      <c r="Q7" s="218"/>
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C8" s="50"/>
       <c r="D8" s="48"/>
       <c r="E8" s="47"/>
-      <c r="F8" s="57"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="57"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="56"/>
       <c r="K8" s="51"/>
       <c r="L8" s="51"/>
       <c r="M8" s="51"/>
-      <c r="N8" s="57"/>
+      <c r="N8" s="56"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="51"/>
@@ -13296,108 +13438,108 @@
       <c r="C9" s="50"/>
       <c r="D9" s="28"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
       <c r="R9" s="50"/>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C10" s="50"/>
       <c r="D10" s="52"/>
       <c r="E10" s="53"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
       <c r="R10" s="50"/>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C11" s="50"/>
       <c r="D11" s="28"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C12" s="50"/>
       <c r="D12" s="52"/>
       <c r="E12" s="53"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="50"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="3:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C14" s="50"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="198"/>
-      <c r="P14" s="198"/>
-      <c r="Q14" s="198"/>
+      <c r="D14" s="220"/>
+      <c r="E14" s="220"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="220"/>
+      <c r="H14" s="220"/>
+      <c r="I14" s="220"/>
+      <c r="J14" s="220"/>
+      <c r="K14" s="220"/>
+      <c r="L14" s="220"/>
+      <c r="M14" s="220"/>
+      <c r="N14" s="220"/>
+      <c r="O14" s="220"/>
+      <c r="P14" s="220"/>
+      <c r="Q14" s="220"/>
       <c r="R14" s="50"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.2">
@@ -13456,53 +13598,53 @@
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="50"/>
-      <c r="D20" s="195"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="195"/>
-      <c r="K20" s="195"/>
-      <c r="L20" s="195"/>
-      <c r="M20" s="195"/>
-      <c r="N20" s="195"/>
-      <c r="O20" s="195"/>
-      <c r="P20" s="195"/>
-      <c r="Q20" s="195"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="219"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
+      <c r="P20" s="219"/>
+      <c r="Q20" s="219"/>
       <c r="R20" s="50"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="50"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="197"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="197"/>
-      <c r="L21" s="197"/>
-      <c r="M21" s="197"/>
-      <c r="N21" s="204"/>
-      <c r="O21" s="197"/>
-      <c r="P21" s="197"/>
-      <c r="Q21" s="197"/>
+      <c r="F21" s="233"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="234"/>
+      <c r="J21" s="233"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="233"/>
+      <c r="O21" s="218"/>
+      <c r="P21" s="218"/>
+      <c r="Q21" s="218"/>
       <c r="R21" s="50"/>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="50"/>
       <c r="D22" s="48"/>
       <c r="E22" s="47"/>
-      <c r="F22" s="57"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="57"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="56"/>
       <c r="K22" s="51"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
-      <c r="N22" s="57"/>
+      <c r="N22" s="56"/>
       <c r="O22" s="51"/>
       <c r="P22" s="51"/>
       <c r="Q22" s="51"/>
@@ -13512,108 +13654,108 @@
       <c r="C23" s="50"/>
       <c r="D23" s="28"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
       <c r="R23" s="50"/>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="50"/>
       <c r="D24" s="52"/>
       <c r="E24" s="53"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
       <c r="R24" s="50"/>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="50"/>
       <c r="D25" s="28"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
       <c r="R25" s="50"/>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="50"/>
       <c r="D26" s="52"/>
       <c r="E26" s="53"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
       <c r="R26" s="50"/>
     </row>
     <row r="27" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="50"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
       <c r="R27" s="50"/>
     </row>
     <row r="28" spans="3:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C28" s="50"/>
-      <c r="D28" s="198"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="198"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="198"/>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="198"/>
-      <c r="N28" s="198"/>
-      <c r="O28" s="198"/>
-      <c r="P28" s="198"/>
-      <c r="Q28" s="198"/>
+      <c r="D28" s="220"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="220"/>
+      <c r="K28" s="220"/>
+      <c r="L28" s="220"/>
+      <c r="M28" s="220"/>
+      <c r="N28" s="220"/>
+      <c r="O28" s="220"/>
+      <c r="P28" s="220"/>
+      <c r="Q28" s="220"/>
       <c r="R28" s="50"/>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.2">
@@ -13653,651 +13795,661 @@
       <c r="R30" s="50"/>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D36" s="208" t="s">
+      <c r="D36" s="230" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="208"/>
-      <c r="F36" s="208"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="208"/>
-      <c r="K36" s="208"/>
-      <c r="L36" s="208"/>
-      <c r="M36" s="208"/>
-      <c r="N36" s="208"/>
-      <c r="O36" s="208"/>
-      <c r="P36" s="208"/>
-      <c r="Q36" s="208"/>
+      <c r="E36" s="230"/>
+      <c r="F36" s="230"/>
+      <c r="G36" s="230"/>
+      <c r="H36" s="230"/>
+      <c r="I36" s="230"/>
+      <c r="J36" s="230"/>
+      <c r="K36" s="230"/>
+      <c r="L36" s="230"/>
+      <c r="M36" s="230"/>
+      <c r="N36" s="230"/>
+      <c r="O36" s="230"/>
+      <c r="P36" s="230"/>
+      <c r="Q36" s="230"/>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="209" t="s">
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-      <c r="M37" s="209"/>
-      <c r="N37" s="209"/>
-      <c r="O37" s="209"/>
-      <c r="P37" s="209"/>
-      <c r="Q37" s="209"/>
+      <c r="G37" s="231"/>
+      <c r="H37" s="231"/>
+      <c r="I37" s="231"/>
+      <c r="J37" s="231"/>
+      <c r="K37" s="231"/>
+      <c r="L37" s="231"/>
+      <c r="M37" s="231"/>
+      <c r="N37" s="231"/>
+      <c r="O37" s="231"/>
+      <c r="P37" s="231"/>
+      <c r="Q37" s="231"/>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="206" t="s">
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="228" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="206" t="s">
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="229"/>
+      <c r="J38" s="228" t="s">
         <v>70</v>
       </c>
-      <c r="K38" s="193"/>
-      <c r="L38" s="193"/>
-      <c r="M38" s="193"/>
-      <c r="N38" s="206" t="s">
+      <c r="K38" s="212"/>
+      <c r="L38" s="212"/>
+      <c r="M38" s="212"/>
+      <c r="N38" s="228" t="s">
         <v>71</v>
       </c>
-      <c r="O38" s="193"/>
-      <c r="P38" s="193"/>
-      <c r="Q38" s="193"/>
+      <c r="O38" s="212"/>
+      <c r="P38" s="212"/>
+      <c r="Q38" s="212"/>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D39" s="105" t="s">
+      <c r="D39" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="106" t="s">
+      <c r="E39" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="107" t="s">
+      <c r="F39" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="108" t="s">
+      <c r="G39" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="108" t="s">
+      <c r="H39" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="109" t="s">
+      <c r="I39" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="107" t="s">
+      <c r="J39" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="K39" s="108" t="s">
+      <c r="K39" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="L39" s="108" t="s">
+      <c r="L39" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="M39" s="108" t="s">
+      <c r="M39" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="N39" s="107" t="s">
+      <c r="N39" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="O39" s="108" t="s">
+      <c r="O39" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="P39" s="108" t="s">
+      <c r="P39" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="Q39" s="108" t="s">
+      <c r="Q39" s="107" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="4:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="D40" s="110">
+      <c r="D40" s="109">
         <v>44270</v>
       </c>
-      <c r="E40" s="131">
+      <c r="E40" s="130">
         <v>158.30000000000001</v>
       </c>
-      <c r="F40" s="111" t="s">
+      <c r="F40" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="G40" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" s="111" t="s">
+      <c r="G40" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="K40" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M40" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" s="111" t="s">
+      <c r="K40" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="O40" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="112" t="s">
+      <c r="O40" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="111" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="D41" s="113">
+      <c r="D41" s="112">
         <v>44285</v>
       </c>
-      <c r="E41" s="132">
+      <c r="E41" s="131">
         <v>161.91</v>
       </c>
-      <c r="F41" s="114" t="s">
+      <c r="F41" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="G41" s="115" t="s">
+      <c r="G41" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="H41" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="114" t="s">
+      <c r="H41" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="K41" s="115" t="s">
+      <c r="K41" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="L41" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="N41" s="114" t="s">
+      <c r="L41" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="O41" s="115" t="s">
+      <c r="O41" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="P41" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="115" t="s">
+      <c r="P41" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="114" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="4:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="D42" s="110">
+      <c r="D42" s="109">
         <v>44301</v>
       </c>
-      <c r="E42" s="131">
+      <c r="E42" s="130">
         <v>173.75</v>
       </c>
-      <c r="F42" s="111" t="s">
+      <c r="F42" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="112" t="s">
+      <c r="G42" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="H42" s="112" t="s">
+      <c r="H42" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="I42" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="J42" s="111" t="s">
+      <c r="I42" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="K42" s="116" t="s">
+      <c r="K42" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="L42" s="112" t="s">
+      <c r="L42" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="M42" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="N42" s="111" t="s">
+      <c r="M42" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="O42" s="112" t="s">
+      <c r="O42" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="P42" s="112" t="s">
+      <c r="P42" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="Q42" s="112" t="s">
+      <c r="Q42" s="111" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="4:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="D43" s="113">
+      <c r="D43" s="112">
         <v>44316</v>
       </c>
-      <c r="E43" s="132">
+      <c r="E43" s="131">
         <v>211.25</v>
       </c>
-      <c r="F43" s="117" t="s">
+      <c r="F43" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="G43" s="118" t="s">
+      <c r="G43" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="H43" s="115" t="s">
+      <c r="H43" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="I43" s="115" t="s">
+      <c r="I43" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="J43" s="117" t="s">
+      <c r="J43" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="K43" s="118" t="s">
+      <c r="K43" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="L43" s="115" t="s">
+      <c r="L43" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="M43" s="115" t="s">
+      <c r="M43" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="N43" s="117" t="s">
+      <c r="N43" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="O43" s="118" t="s">
+      <c r="O43" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="P43" s="115" t="s">
+      <c r="P43" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="Q43" s="115" t="s">
+      <c r="Q43" s="114" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="44" spans="4:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="D44" s="119">
+      <c r="D44" s="118">
         <v>44331</v>
       </c>
-      <c r="E44" s="133">
+      <c r="E44" s="132">
         <v>269.73</v>
       </c>
-      <c r="F44" s="121" t="s">
+      <c r="F44" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="G44" s="122" t="s">
+      <c r="G44" s="121" t="s">
         <v>180</v>
       </c>
-      <c r="H44" s="122" t="s">
+      <c r="H44" s="121" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="120" t="s">
+      <c r="I44" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="J44" s="121" t="s">
+      <c r="J44" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="K44" s="123" t="s">
+      <c r="K44" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="L44" s="122" t="s">
+      <c r="L44" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="M44" s="120" t="s">
+      <c r="M44" s="119" t="s">
         <v>195</v>
       </c>
-      <c r="N44" s="121" t="s">
+      <c r="N44" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="O44" s="122" t="s">
+      <c r="O44" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="P44" s="122" t="s">
+      <c r="P44" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="Q44" s="120" t="s">
+      <c r="Q44" s="119" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="45" spans="4:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="210" t="s">
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="210"/>
-      <c r="K45" s="210"/>
-      <c r="L45" s="210"/>
-      <c r="M45" s="210"/>
-      <c r="N45" s="210"/>
-      <c r="O45" s="210"/>
-      <c r="P45" s="210"/>
-      <c r="Q45" s="210"/>
+      <c r="G45" s="232"/>
+      <c r="H45" s="232"/>
+      <c r="I45" s="232"/>
+      <c r="J45" s="232"/>
+      <c r="K45" s="232"/>
+      <c r="L45" s="232"/>
+      <c r="M45" s="232"/>
+      <c r="N45" s="232"/>
+      <c r="O45" s="232"/>
+      <c r="P45" s="232"/>
+      <c r="Q45" s="232"/>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="206" t="s">
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="228" t="s">
         <v>69</v>
       </c>
-      <c r="G46" s="193"/>
-      <c r="H46" s="193"/>
-      <c r="I46" s="207"/>
-      <c r="J46" s="206" t="s">
+      <c r="G46" s="212"/>
+      <c r="H46" s="212"/>
+      <c r="I46" s="229"/>
+      <c r="J46" s="228" t="s">
         <v>70</v>
       </c>
-      <c r="K46" s="193"/>
-      <c r="L46" s="193"/>
-      <c r="M46" s="193"/>
-      <c r="N46" s="206" t="s">
+      <c r="K46" s="212"/>
+      <c r="L46" s="212"/>
+      <c r="M46" s="212"/>
+      <c r="N46" s="228" t="s">
         <v>71</v>
       </c>
-      <c r="O46" s="193"/>
-      <c r="P46" s="193"/>
-      <c r="Q46" s="193"/>
+      <c r="O46" s="212"/>
+      <c r="P46" s="212"/>
+      <c r="Q46" s="212"/>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D47" s="105" t="s">
+      <c r="D47" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="106" t="s">
+      <c r="E47" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="107" t="s">
+      <c r="F47" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="G47" s="108" t="s">
+      <c r="G47" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="108" t="s">
+      <c r="H47" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="109" t="s">
+      <c r="I47" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="107" t="s">
+      <c r="J47" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="K47" s="108" t="s">
+      <c r="K47" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="108" t="s">
+      <c r="L47" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="108" t="s">
+      <c r="M47" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="107" t="s">
+      <c r="N47" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="O47" s="108" t="s">
+      <c r="O47" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="108" t="s">
+      <c r="P47" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="108" t="s">
+      <c r="Q47" s="107" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="4:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="D48" s="110">
+      <c r="D48" s="109">
         <v>44270</v>
       </c>
-      <c r="E48" s="131">
+      <c r="E48" s="130">
         <v>158.30000000000001</v>
       </c>
-      <c r="F48" s="111" t="s">
+      <c r="F48" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="J48" s="111" t="s">
+      <c r="G48" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="K48" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="L48" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M48" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="N48" s="111" t="s">
+      <c r="K48" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="M48" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="O48" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="P48" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="112" t="s">
+      <c r="O48" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="111" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="4:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="D49" s="113">
+      <c r="D49" s="112">
         <v>44285</v>
       </c>
-      <c r="E49" s="132">
+      <c r="E49" s="131">
         <v>161.91</v>
       </c>
-      <c r="F49" s="114" t="s">
+      <c r="F49" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="G49" s="115" t="s">
+      <c r="G49" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="H49" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="114" t="s">
+      <c r="H49" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="K49" s="115" t="s">
+      <c r="K49" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="L49" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" s="114" t="s">
+      <c r="L49" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="O49" s="115" t="s">
+      <c r="O49" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="P49" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="115" t="s">
+      <c r="P49" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="114" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="4:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="D50" s="110">
+      <c r="D50" s="109">
         <v>44301</v>
       </c>
-      <c r="E50" s="131">
+      <c r="E50" s="130">
         <v>173.75</v>
       </c>
-      <c r="F50" s="111" t="s">
+      <c r="F50" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="112" t="s">
+      <c r="G50" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="H50" s="112" t="s">
+      <c r="H50" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="I50" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="111" t="s">
+      <c r="I50" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="K50" s="116" t="s">
+      <c r="K50" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="L50" s="112" t="s">
+      <c r="L50" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="M50" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="111" t="s">
+      <c r="M50" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="O50" s="112" t="s">
+      <c r="O50" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="P50" s="112" t="s">
+      <c r="P50" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="Q50" s="112" t="s">
+      <c r="Q50" s="111" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="4:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="D51" s="113">
+      <c r="D51" s="112">
         <v>44316</v>
       </c>
-      <c r="E51" s="132">
+      <c r="E51" s="131">
         <v>211.25</v>
       </c>
-      <c r="F51" s="117" t="s">
+      <c r="F51" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="G51" s="118" t="s">
+      <c r="G51" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="H51" s="118" t="s">
+      <c r="H51" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="I51" s="115" t="s">
+      <c r="I51" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="J51" s="117" t="s">
+      <c r="J51" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="K51" s="118" t="s">
+      <c r="K51" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="L51" s="118" t="s">
+      <c r="L51" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="M51" s="115" t="s">
+      <c r="M51" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="N51" s="117" t="s">
+      <c r="N51" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="O51" s="118" t="s">
+      <c r="O51" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="P51" s="118" t="s">
+      <c r="P51" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="Q51" s="115" t="s">
+      <c r="Q51" s="114" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="52" spans="4:17" ht="37" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="126">
+      <c r="D52" s="125">
         <v>44331</v>
       </c>
-      <c r="E52" s="134">
+      <c r="E52" s="133">
         <v>269.73</v>
       </c>
-      <c r="F52" s="128" t="s">
+      <c r="F52" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="G52" s="129" t="s">
+      <c r="G52" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="H52" s="129" t="s">
+      <c r="H52" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="I52" s="127" t="s">
+      <c r="I52" s="126" t="s">
         <v>143</v>
       </c>
-      <c r="J52" s="128" t="s">
+      <c r="J52" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="K52" s="130" t="s">
+      <c r="K52" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="129" t="s">
+      <c r="L52" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="M52" s="127" t="s">
+      <c r="M52" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="N52" s="128" t="s">
+      <c r="N52" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="O52" s="129" t="s">
+      <c r="O52" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="P52" s="129" t="s">
+      <c r="P52" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="Q52" s="129" t="s">
+      <c r="Q52" s="128" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="53" spans="4:17" ht="49" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="203" t="s">
+      <c r="D53" s="235" t="s">
         <v>196</v>
       </c>
-      <c r="E53" s="203"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="203"/>
-      <c r="H53" s="203"/>
-      <c r="I53" s="203"/>
-      <c r="J53" s="203"/>
-      <c r="K53" s="203"/>
-      <c r="L53" s="203"/>
-      <c r="M53" s="203"/>
-      <c r="N53" s="203"/>
-      <c r="O53" s="203"/>
-      <c r="P53" s="203"/>
-      <c r="Q53" s="203"/>
+      <c r="E53" s="235"/>
+      <c r="F53" s="235"/>
+      <c r="G53" s="235"/>
+      <c r="H53" s="235"/>
+      <c r="I53" s="235"/>
+      <c r="J53" s="235"/>
+      <c r="K53" s="235"/>
+      <c r="L53" s="235"/>
+      <c r="M53" s="235"/>
+      <c r="N53" s="235"/>
+      <c r="O53" s="235"/>
+      <c r="P53" s="235"/>
+      <c r="Q53" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D53:Q53"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="D14:Q14"/>
     <mergeCell ref="D20:Q20"/>
     <mergeCell ref="F46:I46"/>
     <mergeCell ref="J46:M46"/>
@@ -14308,16 +14460,6 @@
     <mergeCell ref="N38:Q38"/>
     <mergeCell ref="F37:Q37"/>
     <mergeCell ref="F45:Q45"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="D53:Q53"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="D28:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14352,83 +14494,83 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:41" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="C3" s="185" t="s">
+      <c r="C3" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="X3" s="185" t="s">
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="X3" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="185"/>
-      <c r="AD3" s="185"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="215"/>
     </row>
     <row r="4" spans="3:41" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="C4" s="187" t="s">
+      <c r="C4" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="X4" s="187" t="s">
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="X4" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="188"/>
-      <c r="Z4" s="188"/>
-      <c r="AA4" s="188"/>
-      <c r="AB4" s="188"/>
-      <c r="AC4" s="188"/>
-      <c r="AD4" s="188"/>
-      <c r="AG4" s="185" t="s">
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
+      <c r="AD4" s="217"/>
+      <c r="AG4" s="215" t="s">
         <v>320</v>
       </c>
-      <c r="AH4" s="185"/>
-      <c r="AI4" s="185"/>
-      <c r="AJ4" s="185"/>
-      <c r="AK4" s="185"/>
-      <c r="AL4" s="185"/>
-      <c r="AM4" s="185"/>
-      <c r="AN4" s="185"/>
-      <c r="AO4" s="185"/>
+      <c r="AH4" s="215"/>
+      <c r="AI4" s="215"/>
+      <c r="AJ4" s="215"/>
+      <c r="AK4" s="215"/>
+      <c r="AL4" s="215"/>
+      <c r="AM4" s="215"/>
+      <c r="AN4" s="215"/>
+      <c r="AO4" s="215"/>
     </row>
     <row r="5" spans="3:41" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="E5" s="186" t="s">
+      <c r="E5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="Z5" s="186" t="s">
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
+      <c r="Z5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="186"/>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="186"/>
-      <c r="AD5" s="186"/>
-      <c r="AH5" s="199" t="s">
+      <c r="AA5" s="214"/>
+      <c r="AB5" s="214"/>
+      <c r="AC5" s="214"/>
+      <c r="AD5" s="214"/>
+      <c r="AH5" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="AI5" s="187"/>
-      <c r="AJ5" s="187"/>
-      <c r="AK5" s="200"/>
-      <c r="AL5" s="199" t="s">
+      <c r="AI5" s="216"/>
+      <c r="AJ5" s="216"/>
+      <c r="AK5" s="225"/>
+      <c r="AL5" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="AM5" s="187"/>
-      <c r="AN5" s="187"/>
-      <c r="AO5" s="187"/>
+      <c r="AM5" s="216"/>
+      <c r="AN5" s="216"/>
+      <c r="AO5" s="216"/>
     </row>
     <row r="6" spans="3:41" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="C6" s="16" t="s">
@@ -14476,7 +14618,7 @@
       <c r="AG6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AH6" s="60" t="s">
+      <c r="AH6" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AI6" s="4" t="s">
@@ -14485,10 +14627,10 @@
       <c r="AJ6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AK6" s="62" t="s">
+      <c r="AK6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AL6" s="60" t="s">
+      <c r="AL6" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AM6" s="4" t="s">
@@ -14586,7 +14728,7 @@
       <c r="AG7" s="40">
         <v>44270</v>
       </c>
-      <c r="AH7" s="61" t="s">
+      <c r="AH7" s="60" t="s">
         <v>321</v>
       </c>
       <c r="AI7" s="39" t="s">
@@ -14595,10 +14737,10 @@
       <c r="AJ7" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AK7" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="61" t="s">
+      <c r="AK7" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="60" t="s">
         <v>269</v>
       </c>
       <c r="AM7" s="39" t="s">
@@ -14702,28 +14844,28 @@
       <c r="AG8" s="28">
         <v>44285</v>
       </c>
-      <c r="AH8" s="58" t="s">
+      <c r="AH8" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="AI8" s="55" t="s">
+      <c r="AI8" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="AJ8" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="58" t="s">
+      <c r="AJ8" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="AM8" s="55" t="s">
+      <c r="AM8" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="AN8" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="55" t="s">
+      <c r="AN8" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="54" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14824,22 +14966,22 @@
       <c r="AG9" s="40">
         <v>44301</v>
       </c>
-      <c r="AH9" s="101" t="s">
+      <c r="AH9" s="100" t="s">
         <v>324</v>
       </c>
-      <c r="AI9" s="102" t="s">
+      <c r="AI9" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="AJ9" s="102" t="s">
+      <c r="AJ9" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="AK9" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="101" t="s">
+      <c r="AK9" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="100" t="s">
         <v>272</v>
       </c>
-      <c r="AM9" s="102" t="s">
+      <c r="AM9" s="101" t="s">
         <v>273</v>
       </c>
       <c r="AN9" s="39" t="s">
@@ -14950,28 +15092,28 @@
       <c r="AG10" s="28">
         <v>44316</v>
       </c>
-      <c r="AH10" s="139" t="s">
+      <c r="AH10" s="138" t="s">
         <v>327</v>
       </c>
-      <c r="AI10" s="140" t="s">
+      <c r="AI10" s="139" t="s">
         <v>328</v>
       </c>
-      <c r="AJ10" s="140" t="s">
+      <c r="AJ10" s="139" t="s">
         <v>329</v>
       </c>
-      <c r="AK10" s="144" t="s">
+      <c r="AK10" s="143" t="s">
         <v>330</v>
       </c>
-      <c r="AL10" s="139" t="s">
+      <c r="AL10" s="138" t="s">
         <v>275</v>
       </c>
-      <c r="AM10" s="140" t="s">
+      <c r="AM10" s="139" t="s">
         <v>276</v>
       </c>
-      <c r="AN10" s="140" t="s">
+      <c r="AN10" s="139" t="s">
         <v>277</v>
       </c>
-      <c r="AO10" s="140" t="s">
+      <c r="AO10" s="139" t="s">
         <v>278</v>
       </c>
     </row>
@@ -15076,77 +15218,77 @@
       <c r="AG11" s="41">
         <v>44331</v>
       </c>
-      <c r="AH11" s="141" t="s">
+      <c r="AH11" s="140" t="s">
         <v>331</v>
       </c>
-      <c r="AI11" s="142" t="s">
+      <c r="AI11" s="141" t="s">
         <v>332</v>
       </c>
-      <c r="AJ11" s="142" t="s">
+      <c r="AJ11" s="141" t="s">
         <v>333</v>
       </c>
-      <c r="AK11" s="143" t="s">
+      <c r="AK11" s="142" t="s">
         <v>334</v>
       </c>
-      <c r="AL11" s="141" t="s">
+      <c r="AL11" s="140" t="s">
         <v>279</v>
       </c>
-      <c r="AM11" s="142" t="s">
+      <c r="AM11" s="141" t="s">
         <v>280</v>
       </c>
-      <c r="AN11" s="142" t="s">
+      <c r="AN11" s="141" t="s">
         <v>281</v>
       </c>
-      <c r="AO11" s="142" t="s">
+      <c r="AO11" s="141" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="12" spans="3:41" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="186" t="s">
+      <c r="C12" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="X12" s="186" t="s">
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="214"/>
+      <c r="I12" s="214"/>
+      <c r="X12" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="186"/>
-      <c r="AG12" s="201" t="s">
+      <c r="Y12" s="214"/>
+      <c r="Z12" s="214"/>
+      <c r="AA12" s="214"/>
+      <c r="AB12" s="214"/>
+      <c r="AC12" s="214"/>
+      <c r="AD12" s="214"/>
+      <c r="AG12" s="226" t="s">
         <v>319</v>
       </c>
-      <c r="AH12" s="202"/>
-      <c r="AI12" s="202"/>
-      <c r="AJ12" s="202"/>
-      <c r="AK12" s="202"/>
-      <c r="AL12" s="202"/>
-      <c r="AM12" s="202"/>
-      <c r="AN12" s="202"/>
-      <c r="AO12" s="202"/>
+      <c r="AH12" s="227"/>
+      <c r="AI12" s="227"/>
+      <c r="AJ12" s="227"/>
+      <c r="AK12" s="227"/>
+      <c r="AL12" s="227"/>
+      <c r="AM12" s="227"/>
+      <c r="AN12" s="227"/>
+      <c r="AO12" s="227"/>
     </row>
     <row r="13" spans="3:41" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="E13" s="186" t="s">
+      <c r="E13" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="Z13" s="186" t="s">
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="Z13" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="AA13" s="186"/>
-      <c r="AB13" s="186"/>
-      <c r="AC13" s="186"/>
-      <c r="AD13" s="186"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="214"/>
+      <c r="AC13" s="214"/>
+      <c r="AD13" s="214"/>
     </row>
     <row r="14" spans="3:41" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
@@ -15735,12 +15877,6 @@
     <row r="21" spans="3:30" s="1" customFormat="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AG4:AO4"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AG12:AO12"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="X12:AD12"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="Z13:AD13"/>
     <mergeCell ref="C3:I3"/>
@@ -15749,6 +15885,12 @@
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="AG4:AO4"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AG12:AO12"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="X12:AD12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15777,15 +15919,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -15800,26 +15942,26 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="185" t="s">
+      <c r="W3" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="185"/>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="185"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -15834,41 +15976,41 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="187" t="s">
+      <c r="W4" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="188"/>
-      <c r="Y4" s="188"/>
-      <c r="Z4" s="188"/>
-      <c r="AA4" s="188"/>
-      <c r="AB4" s="188"/>
-      <c r="AC4" s="188"/>
-      <c r="AF4" s="185" t="s">
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
+      <c r="AF4" s="215" t="s">
         <v>378</v>
       </c>
-      <c r="AG4" s="185"/>
-      <c r="AH4" s="185"/>
-      <c r="AI4" s="185"/>
-      <c r="AJ4" s="185"/>
-      <c r="AK4" s="185"/>
-      <c r="AL4" s="185"/>
-      <c r="AM4" s="185"/>
-      <c r="AN4" s="185"/>
-      <c r="AO4" s="185"/>
-      <c r="AP4" s="185"/>
-      <c r="AQ4" s="185"/>
-      <c r="AR4" s="185"/>
+      <c r="AG4" s="215"/>
+      <c r="AH4" s="215"/>
+      <c r="AI4" s="215"/>
+      <c r="AJ4" s="215"/>
+      <c r="AK4" s="215"/>
+      <c r="AL4" s="215"/>
+      <c r="AM4" s="215"/>
+      <c r="AN4" s="215"/>
+      <c r="AO4" s="215"/>
+      <c r="AP4" s="215"/>
+      <c r="AQ4" s="215"/>
+      <c r="AR4" s="215"/>
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -15885,32 +16027,32 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="186" t="s">
+      <c r="Y5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="186"/>
-      <c r="AA5" s="186"/>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="186"/>
+      <c r="Z5" s="214"/>
+      <c r="AA5" s="214"/>
+      <c r="AB5" s="214"/>
+      <c r="AC5" s="214"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="199" t="s">
+      <c r="AG5" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="187"/>
-      <c r="AJ5" s="187"/>
-      <c r="AK5" s="199" t="s">
+      <c r="AH5" s="216"/>
+      <c r="AI5" s="216"/>
+      <c r="AJ5" s="216"/>
+      <c r="AK5" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="AL5" s="187"/>
-      <c r="AM5" s="187"/>
-      <c r="AN5" s="187"/>
-      <c r="AO5" s="199" t="s">
+      <c r="AL5" s="216"/>
+      <c r="AM5" s="216"/>
+      <c r="AN5" s="216"/>
+      <c r="AO5" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="AP5" s="187"/>
-      <c r="AQ5" s="187"/>
-      <c r="AR5" s="187"/>
+      <c r="AP5" s="216"/>
+      <c r="AQ5" s="216"/>
+      <c r="AR5" s="216"/>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
@@ -15972,7 +16114,7 @@
       <c r="AF6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AG6" s="60" t="s">
+      <c r="AG6" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AH6" s="4" t="s">
@@ -15984,7 +16126,7 @@
       <c r="AJ6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AK6" s="60" t="s">
+      <c r="AK6" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AL6" s="4" t="s">
@@ -15996,7 +16138,7 @@
       <c r="AN6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AO6" s="60" t="s">
+      <c r="AO6" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AP6" s="4" t="s">
@@ -16088,40 +16230,40 @@
       <c r="AF7" s="28">
         <v>44270</v>
       </c>
-      <c r="AG7" s="58" t="s">
+      <c r="AG7" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="AH7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="58" t="s">
+      <c r="AH7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="AL7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="58" t="s">
+      <c r="AL7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="AP7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="55" t="s">
+      <c r="AP7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="54" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16216,7 +16358,7 @@
       <c r="AF8" s="40">
         <v>44285</v>
       </c>
-      <c r="AG8" s="61" t="s">
+      <c r="AG8" s="60" t="s">
         <v>336</v>
       </c>
       <c r="AH8" s="39" t="s">
@@ -16228,7 +16370,7 @@
       <c r="AJ8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AK8" s="61" t="s">
+      <c r="AK8" s="60" t="s">
         <v>350</v>
       </c>
       <c r="AL8" s="39" t="s">
@@ -16240,7 +16382,7 @@
       <c r="AN8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AO8" s="61" t="s">
+      <c r="AO8" s="60" t="s">
         <v>364</v>
       </c>
       <c r="AP8" s="39" t="s">
@@ -16350,40 +16492,40 @@
       <c r="AF9" s="28">
         <v>44301</v>
       </c>
-      <c r="AG9" s="139" t="s">
+      <c r="AG9" s="138" t="s">
         <v>338</v>
       </c>
-      <c r="AH9" s="140" t="s">
+      <c r="AH9" s="139" t="s">
         <v>339</v>
       </c>
-      <c r="AI9" s="140" t="s">
+      <c r="AI9" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="AJ9" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="139" t="s">
+      <c r="AJ9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="138" t="s">
         <v>352</v>
       </c>
-      <c r="AL9" s="140" t="s">
+      <c r="AL9" s="139" t="s">
         <v>353</v>
       </c>
-      <c r="AM9" s="140" t="s">
+      <c r="AM9" s="139" t="s">
         <v>354</v>
       </c>
-      <c r="AN9" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="58" t="s">
+      <c r="AN9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="AP9" s="140" t="s">
+      <c r="AP9" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="AQ9" s="140" t="s">
+      <c r="AQ9" s="139" t="s">
         <v>368</v>
       </c>
-      <c r="AR9" s="55" t="s">
+      <c r="AR9" s="54" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16493,40 +16635,40 @@
       <c r="AF10" s="40">
         <v>44316</v>
       </c>
-      <c r="AG10" s="101" t="s">
+      <c r="AG10" s="100" t="s">
         <v>341</v>
       </c>
-      <c r="AH10" s="102" t="s">
+      <c r="AH10" s="101" t="s">
         <v>342</v>
       </c>
-      <c r="AI10" s="102" t="s">
+      <c r="AI10" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="AJ10" s="102" t="s">
+      <c r="AJ10" s="101" t="s">
         <v>344</v>
       </c>
-      <c r="AK10" s="101" t="s">
+      <c r="AK10" s="100" t="s">
         <v>355</v>
       </c>
-      <c r="AL10" s="102" t="s">
+      <c r="AL10" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="AM10" s="102" t="s">
+      <c r="AM10" s="101" t="s">
         <v>357</v>
       </c>
-      <c r="AN10" s="102" t="s">
+      <c r="AN10" s="101" t="s">
         <v>358</v>
       </c>
-      <c r="AO10" s="101" t="s">
+      <c r="AO10" s="100" t="s">
         <v>369</v>
       </c>
-      <c r="AP10" s="102" t="s">
+      <c r="AP10" s="101" t="s">
         <v>370</v>
       </c>
-      <c r="AQ10" s="102" t="s">
+      <c r="AQ10" s="101" t="s">
         <v>371</v>
       </c>
-      <c r="AR10" s="102" t="s">
+      <c r="AR10" s="101" t="s">
         <v>372</v>
       </c>
     </row>
@@ -16633,56 +16775,56 @@
 (8.43)
 5.36%</v>
       </c>
-      <c r="AF11" s="77">
+      <c r="AF11" s="76">
         <v>44331</v>
       </c>
-      <c r="AG11" s="89" t="s">
+      <c r="AG11" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="AH11" s="88" t="s">
+      <c r="AH11" s="87" t="s">
         <v>346</v>
       </c>
-      <c r="AI11" s="88" t="s">
+      <c r="AI11" s="87" t="s">
         <v>347</v>
       </c>
-      <c r="AJ11" s="88" t="s">
+      <c r="AJ11" s="87" t="s">
         <v>348</v>
       </c>
-      <c r="AK11" s="89" t="s">
+      <c r="AK11" s="88" t="s">
         <v>359</v>
       </c>
-      <c r="AL11" s="88" t="s">
+      <c r="AL11" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="AM11" s="88" t="s">
+      <c r="AM11" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="AN11" s="88" t="s">
+      <c r="AN11" s="87" t="s">
         <v>362</v>
       </c>
-      <c r="AO11" s="89" t="s">
+      <c r="AO11" s="88" t="s">
         <v>373</v>
       </c>
-      <c r="AP11" s="88" t="s">
+      <c r="AP11" s="87" t="s">
         <v>374</v>
       </c>
-      <c r="AQ11" s="88" t="s">
+      <c r="AQ11" s="87" t="s">
         <v>375</v>
       </c>
-      <c r="AR11" s="88" t="s">
+      <c r="AR11" s="87" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="12" spans="2:44" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="214"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -16697,41 +16839,41 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="186" t="s">
+      <c r="W12" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AF12" s="202" t="s">
+      <c r="X12" s="214"/>
+      <c r="Y12" s="214"/>
+      <c r="Z12" s="214"/>
+      <c r="AA12" s="214"/>
+      <c r="AB12" s="214"/>
+      <c r="AC12" s="214"/>
+      <c r="AF12" s="227" t="s">
         <v>377</v>
       </c>
-      <c r="AG12" s="202"/>
-      <c r="AH12" s="202"/>
-      <c r="AI12" s="202"/>
-      <c r="AJ12" s="202"/>
-      <c r="AK12" s="202"/>
-      <c r="AL12" s="202"/>
-      <c r="AM12" s="202"/>
-      <c r="AN12" s="202"/>
-      <c r="AO12" s="202"/>
-      <c r="AP12" s="202"/>
-      <c r="AQ12" s="202"/>
-      <c r="AR12" s="202"/>
+      <c r="AG12" s="227"/>
+      <c r="AH12" s="227"/>
+      <c r="AI12" s="227"/>
+      <c r="AJ12" s="227"/>
+      <c r="AK12" s="227"/>
+      <c r="AL12" s="227"/>
+      <c r="AM12" s="227"/>
+      <c r="AN12" s="227"/>
+      <c r="AO12" s="227"/>
+      <c r="AP12" s="227"/>
+      <c r="AQ12" s="227"/>
+      <c r="AR12" s="227"/>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="186" t="s">
+      <c r="D13" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -16748,13 +16890,13 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="186" t="s">
+      <c r="Y13" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="Z13" s="186"/>
-      <c r="AA13" s="186"/>
-      <c r="AB13" s="186"/>
-      <c r="AC13" s="186"/>
+      <c r="Z13" s="214"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="214"/>
+      <c r="AC13" s="214"/>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
@@ -17349,44 +17491,44 @@
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="W21" s="186" t="s">
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="214"/>
+      <c r="W21" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="186"/>
-      <c r="Z21" s="186"/>
-      <c r="AA21" s="186"/>
-      <c r="AB21" s="186"/>
-      <c r="AC21" s="186"/>
+      <c r="X21" s="214"/>
+      <c r="Y21" s="214"/>
+      <c r="Z21" s="214"/>
+      <c r="AA21" s="214"/>
+      <c r="AB21" s="214"/>
+      <c r="AC21" s="214"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="186" t="s">
+      <c r="Y22" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="186"/>
-      <c r="AA22" s="186"/>
-      <c r="AB22" s="186"/>
-      <c r="AC22" s="186"/>
+      <c r="Z22" s="214"/>
+      <c r="AA22" s="214"/>
+      <c r="AB22" s="214"/>
+      <c r="AC22" s="214"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -17951,17 +18093,6 @@
     <row r="30" spans="2:29" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AR4"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="AF12:AR12"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="Y5:AC5"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="Y22:AC22"/>
     <mergeCell ref="B12:H12"/>
@@ -17970,6 +18101,17 @@
     <mergeCell ref="Y13:AC13"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="W21:AC21"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AF4:AR4"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="AF12:AR12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17997,15 +18139,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -18020,26 +18162,26 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="185" t="s">
+      <c r="W3" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="185"/>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="185"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -18054,41 +18196,41 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="187" t="s">
+      <c r="W4" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="188"/>
-      <c r="Y4" s="188"/>
-      <c r="Z4" s="188"/>
-      <c r="AA4" s="188"/>
-      <c r="AB4" s="188"/>
-      <c r="AC4" s="188"/>
-      <c r="AF4" s="185" t="s">
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
+      <c r="AF4" s="215" t="s">
         <v>407</v>
       </c>
-      <c r="AG4" s="185"/>
-      <c r="AH4" s="185"/>
-      <c r="AI4" s="185"/>
-      <c r="AJ4" s="185"/>
-      <c r="AK4" s="185"/>
-      <c r="AL4" s="185"/>
-      <c r="AM4" s="185"/>
-      <c r="AN4" s="185"/>
-      <c r="AO4" s="185"/>
-      <c r="AP4" s="185"/>
-      <c r="AQ4" s="185"/>
-      <c r="AR4" s="185"/>
+      <c r="AG4" s="215"/>
+      <c r="AH4" s="215"/>
+      <c r="AI4" s="215"/>
+      <c r="AJ4" s="215"/>
+      <c r="AK4" s="215"/>
+      <c r="AL4" s="215"/>
+      <c r="AM4" s="215"/>
+      <c r="AN4" s="215"/>
+      <c r="AO4" s="215"/>
+      <c r="AP4" s="215"/>
+      <c r="AQ4" s="215"/>
+      <c r="AR4" s="215"/>
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -18105,32 +18247,32 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="186" t="s">
+      <c r="Y5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="186"/>
-      <c r="AA5" s="186"/>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="186"/>
+      <c r="Z5" s="214"/>
+      <c r="AA5" s="214"/>
+      <c r="AB5" s="214"/>
+      <c r="AC5" s="214"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="199" t="s">
+      <c r="AG5" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="187"/>
-      <c r="AJ5" s="187"/>
-      <c r="AK5" s="199" t="s">
+      <c r="AH5" s="216"/>
+      <c r="AI5" s="216"/>
+      <c r="AJ5" s="216"/>
+      <c r="AK5" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="AL5" s="187"/>
-      <c r="AM5" s="187"/>
-      <c r="AN5" s="187"/>
-      <c r="AO5" s="199" t="s">
+      <c r="AL5" s="216"/>
+      <c r="AM5" s="216"/>
+      <c r="AN5" s="216"/>
+      <c r="AO5" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="AP5" s="187"/>
-      <c r="AQ5" s="187"/>
-      <c r="AR5" s="187"/>
+      <c r="AP5" s="216"/>
+      <c r="AQ5" s="216"/>
+      <c r="AR5" s="216"/>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
@@ -18192,7 +18334,7 @@
       <c r="AF6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AG6" s="60" t="s">
+      <c r="AG6" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AH6" s="4" t="s">
@@ -18204,7 +18346,7 @@
       <c r="AJ6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AK6" s="60" t="s">
+      <c r="AK6" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AL6" s="4" t="s">
@@ -18216,7 +18358,7 @@
       <c r="AN6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AO6" s="60" t="s">
+      <c r="AO6" s="59" t="s">
         <v>2</v>
       </c>
       <c r="AP6" s="4" t="s">
@@ -18308,40 +18450,40 @@
       <c r="AF7" s="28">
         <v>44270</v>
       </c>
-      <c r="AG7" s="58" t="s">
+      <c r="AG7" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="AH7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="58" t="s">
+      <c r="AH7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="AL7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="58" t="s">
+      <c r="AL7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="AP7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="55" t="s">
+      <c r="AP7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="54" t="s">
         <v>0</v>
       </c>
     </row>
@@ -18436,7 +18578,7 @@
       <c r="AF8" s="40">
         <v>44285</v>
       </c>
-      <c r="AG8" s="61" t="s">
+      <c r="AG8" s="60" t="s">
         <v>380</v>
       </c>
       <c r="AH8" s="39" t="s">
@@ -18448,7 +18590,7 @@
       <c r="AJ8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AK8" s="61" t="s">
+      <c r="AK8" s="60" t="s">
         <v>298</v>
       </c>
       <c r="AL8" s="39" t="s">
@@ -18460,7 +18602,7 @@
       <c r="AN8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AO8" s="61" t="s">
+      <c r="AO8" s="60" t="s">
         <v>394</v>
       </c>
       <c r="AP8" s="39" t="s">
@@ -18570,40 +18712,40 @@
       <c r="AF9" s="28">
         <v>44301</v>
       </c>
-      <c r="AG9" s="58" t="s">
+      <c r="AG9" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="AH9" s="55" t="s">
+      <c r="AH9" s="54" t="s">
         <v>383</v>
       </c>
-      <c r="AI9" s="55" t="s">
+      <c r="AI9" s="54" t="s">
         <v>384</v>
       </c>
-      <c r="AJ9" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="58" t="s">
+      <c r="AJ9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="AL9" s="55" t="s">
+      <c r="AL9" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="AM9" s="55" t="s">
+      <c r="AM9" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="AN9" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="58" t="s">
+      <c r="AN9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="AP9" s="55" t="s">
+      <c r="AP9" s="54" t="s">
         <v>397</v>
       </c>
-      <c r="AQ9" s="55" t="s">
+      <c r="AQ9" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="AR9" s="55" t="s">
+      <c r="AR9" s="54" t="s">
         <v>0</v>
       </c>
     </row>
@@ -18713,7 +18855,7 @@
       <c r="AF10" s="40">
         <v>44316</v>
       </c>
-      <c r="AG10" s="61" t="s">
+      <c r="AG10" s="60" t="s">
         <v>385</v>
       </c>
       <c r="AH10" s="39" t="s">
@@ -18725,7 +18867,7 @@
       <c r="AJ10" s="39" t="s">
         <v>388</v>
       </c>
-      <c r="AK10" s="61" t="s">
+      <c r="AK10" s="60" t="s">
         <v>303</v>
       </c>
       <c r="AL10" s="39" t="s">
@@ -18737,7 +18879,7 @@
       <c r="AN10" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="AO10" s="61" t="s">
+      <c r="AO10" s="60" t="s">
         <v>399</v>
       </c>
       <c r="AP10" s="39" t="s">
@@ -18853,56 +18995,56 @@
 (-1.67)
 -1.06%</v>
       </c>
-      <c r="AF11" s="77">
+      <c r="AF11" s="76">
         <v>44331</v>
       </c>
-      <c r="AG11" s="79" t="s">
+      <c r="AG11" s="78" t="s">
         <v>389</v>
       </c>
-      <c r="AH11" s="78" t="s">
+      <c r="AH11" s="77" t="s">
         <v>390</v>
       </c>
-      <c r="AI11" s="78" t="s">
+      <c r="AI11" s="77" t="s">
         <v>391</v>
       </c>
-      <c r="AJ11" s="78" t="s">
+      <c r="AJ11" s="77" t="s">
         <v>392</v>
       </c>
-      <c r="AK11" s="79" t="s">
+      <c r="AK11" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="AL11" s="78" t="s">
+      <c r="AL11" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="AM11" s="78" t="s">
+      <c r="AM11" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="AN11" s="78" t="s">
+      <c r="AN11" s="77" t="s">
         <v>310</v>
       </c>
-      <c r="AO11" s="79" t="s">
+      <c r="AO11" s="78" t="s">
         <v>403</v>
       </c>
-      <c r="AP11" s="78" t="s">
+      <c r="AP11" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="AQ11" s="78" t="s">
+      <c r="AQ11" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="AR11" s="78" t="s">
+      <c r="AR11" s="77" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="12" spans="2:44" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="214"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -18917,41 +19059,41 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="186" t="s">
+      <c r="W12" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AF12" s="201" t="s">
+      <c r="X12" s="214"/>
+      <c r="Y12" s="214"/>
+      <c r="Z12" s="214"/>
+      <c r="AA12" s="214"/>
+      <c r="AB12" s="214"/>
+      <c r="AC12" s="214"/>
+      <c r="AF12" s="226" t="s">
         <v>408</v>
       </c>
-      <c r="AG12" s="202"/>
-      <c r="AH12" s="202"/>
-      <c r="AI12" s="202"/>
-      <c r="AJ12" s="202"/>
-      <c r="AK12" s="202"/>
-      <c r="AL12" s="202"/>
-      <c r="AM12" s="202"/>
-      <c r="AN12" s="202"/>
-      <c r="AO12" s="202"/>
-      <c r="AP12" s="202"/>
-      <c r="AQ12" s="202"/>
-      <c r="AR12" s="202"/>
+      <c r="AG12" s="227"/>
+      <c r="AH12" s="227"/>
+      <c r="AI12" s="227"/>
+      <c r="AJ12" s="227"/>
+      <c r="AK12" s="227"/>
+      <c r="AL12" s="227"/>
+      <c r="AM12" s="227"/>
+      <c r="AN12" s="227"/>
+      <c r="AO12" s="227"/>
+      <c r="AP12" s="227"/>
+      <c r="AQ12" s="227"/>
+      <c r="AR12" s="227"/>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="186" t="s">
+      <c r="D13" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -18968,13 +19110,13 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="186" t="s">
+      <c r="Y13" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="Z13" s="186"/>
-      <c r="AA13" s="186"/>
-      <c r="AB13" s="186"/>
-      <c r="AC13" s="186"/>
+      <c r="Z13" s="214"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="214"/>
+      <c r="AC13" s="214"/>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
@@ -19569,44 +19711,44 @@
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="W21" s="186" t="s">
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="214"/>
+      <c r="W21" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="186"/>
-      <c r="Z21" s="186"/>
-      <c r="AA21" s="186"/>
-      <c r="AB21" s="186"/>
-      <c r="AC21" s="186"/>
+      <c r="X21" s="214"/>
+      <c r="Y21" s="214"/>
+      <c r="Z21" s="214"/>
+      <c r="AA21" s="214"/>
+      <c r="AB21" s="214"/>
+      <c r="AC21" s="214"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="186" t="s">
+      <c r="Y22" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="186"/>
-      <c r="AA22" s="186"/>
-      <c r="AB22" s="186"/>
-      <c r="AC22" s="186"/>
+      <c r="Z22" s="214"/>
+      <c r="AA22" s="214"/>
+      <c r="AB22" s="214"/>
+      <c r="AC22" s="214"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -20171,17 +20313,6 @@
     <row r="30" spans="2:29" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF4:AR4"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="AF12:AR12"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="Y5:AC5"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="Y22:AC22"/>
     <mergeCell ref="B12:H12"/>
@@ -20190,6 +20321,17 @@
     <mergeCell ref="Y13:AC13"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="W21:AC21"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AF4:AR4"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="AF12:AR12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20226,36 +20368,36 @@
       <c r="L1" s="46"/>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C2" s="211" t="s">
+      <c r="C2" s="236" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
       <c r="H2" s="46"/>
-      <c r="I2" s="212" t="s">
+      <c r="I2" s="237" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
       <c r="L2" s="46"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="D3" s="186" t="s">
+      <c r="D3" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="186"/>
+      <c r="E3" s="214"/>
       <c r="F3" s="17"/>
       <c r="G3" s="12" t="s">
         <v>61</v>
       </c>
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="66" t="s">
         <v>61</v>
       </c>
       <c r="L3" s="46"/>
@@ -20277,10 +20419,10 @@
       <c r="I4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="74" t="s">
         <v>64</v>
       </c>
       <c r="L4" s="46"/>
@@ -20302,10 +20444,10 @@
       <c r="I5" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="67" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="46"/>
@@ -20327,10 +20469,10 @@
       <c r="I6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="68" t="s">
         <v>33</v>
       </c>
       <c r="L6" s="46"/>
@@ -20352,10 +20494,10 @@
       <c r="I7" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="68" t="s">
+      <c r="K7" s="67" t="s">
         <v>65</v>
       </c>
       <c r="L7" s="46"/>
@@ -20377,10 +20519,10 @@
       <c r="I8" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="69" t="s">
+      <c r="K8" s="68" t="s">
         <v>38</v>
       </c>
       <c r="L8" s="46"/>
@@ -20402,10 +20544,10 @@
       <c r="I9" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="68" t="s">
+      <c r="K9" s="67" t="s">
         <v>66</v>
       </c>
       <c r="L9" s="46"/>
@@ -20427,10 +20569,10 @@
       <c r="I10" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="69">
         <v>10472027</v>
       </c>
-      <c r="K10" s="70">
+      <c r="K10" s="69">
         <v>17268922</v>
       </c>
       <c r="L10" s="46"/>
@@ -20452,10 +20594,10 @@
       <c r="I11" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="70">
         <v>142518</v>
       </c>
-      <c r="K11" s="71">
+      <c r="K11" s="70">
         <v>176232</v>
       </c>
       <c r="L11" s="46"/>
@@ -20477,10 +20619,10 @@
       <c r="I12" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="71">
         <v>1.4E-2</v>
       </c>
-      <c r="K12" s="72">
+      <c r="K12" s="71">
         <v>0.01</v>
       </c>
       <c r="L12" s="46"/>
@@ -20502,10 +20644,10 @@
       <c r="I13" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="68" t="s">
+      <c r="K13" s="67" t="s">
         <v>47</v>
       </c>
       <c r="L13" s="46"/>
@@ -20527,10 +20669,10 @@
       <c r="I14" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="68" t="s">
         <v>51</v>
       </c>
       <c r="L14" s="46"/>
@@ -20552,10 +20694,10 @@
       <c r="I15" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="68" t="s">
+      <c r="J15" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="68" t="s">
+      <c r="K15" s="67" t="s">
         <v>55</v>
       </c>
       <c r="L15" s="46"/>
@@ -20577,10 +20719,10 @@
       <c r="I16" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="73" t="s">
+      <c r="J16" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="73" t="s">
+      <c r="K16" s="72" t="s">
         <v>59</v>
       </c>
       <c r="L16" s="46"/>

--- a/tables_extended.xlsx
+++ b/tables_extended.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Documents/projects/covid/science_revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007B42D1-1AA7-CD44-BFC9-ED985861B875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA29142-AC8D-1149-8FD7-CB44C9F314CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B3E001DA-FE62-B74F-A74D-2CE97A02E934}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B3E001DA-FE62-B74F-A74D-2CE97A02E934}"/>
   </bookViews>
   <sheets>
     <sheet name="case_tables" sheetId="3" r:id="rId1"/>
     <sheet name="death_tables" sheetId="7" r:id="rId2"/>
-    <sheet name="t2_deaths" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="17" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="16" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId7"/>
-    <sheet name="t4_cases" sheetId="9" r:id="rId8"/>
-    <sheet name="t5_deaths" sheetId="10" r:id="rId9"/>
-    <sheet name="t6_deaths" sheetId="8" r:id="rId10"/>
-    <sheet name="peak_comp" sheetId="11" r:id="rId11"/>
-    <sheet name="man_edit" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet3" sheetId="15" r:id="rId13"/>
+    <sheet name="table_s1" sheetId="18" r:id="rId3"/>
+    <sheet name="t2_deaths" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="17" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="16" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId8"/>
+    <sheet name="t4_cases" sheetId="9" r:id="rId9"/>
+    <sheet name="t5_deaths" sheetId="10" r:id="rId10"/>
+    <sheet name="t6_deaths" sheetId="8" r:id="rId11"/>
+    <sheet name="peak_comp" sheetId="11" r:id="rId12"/>
+    <sheet name="man_edit" sheetId="12" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="575">
   <si>
     <t>-</t>
   </si>
@@ -2950,6 +2951,341 @@
       <t>. Predicted total death counts and deaths averted under high CFR schedule (in thousands)</t>
     </r>
   </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Ladakh</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Dadra and Nagar Haveli and Daman and Diu</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>Pondicherry</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>&gt; 5</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <r>
+      <t>% cases in Wave 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Case rate ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Case tier</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>Comparison Metrics</t>
+  </si>
+  <si>
+    <t>&lt; 1</t>
+  </si>
+  <si>
+    <t>Total Deaths</t>
+  </si>
+  <si>
+    <r>
+      <t>% deaths in Wave 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Death rate ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Death tier</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Table S1a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Comparison of peak timing of daily new cases across Indian states and union territories in Wave 1 vs Wave 2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Table S1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Comparison of deaths peak timing across states in Wave 1 vs Wave 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wave 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(June 13, 2020-February 13, 2021: 246 days)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wave 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(February 14-July 31, 2021: 168 days)</t>
+    </r>
+  </si>
+  <si>
+    <t>Peak
+Date</t>
+  </si>
+  <si>
+    <t>Peak Daily
+Cases</t>
+  </si>
+  <si>
+    <t>Peak Daily
+Deaths</t>
+  </si>
 </sst>
 </file>
 
@@ -2958,7 +3294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3069,6 +3405,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3096,7 +3452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -3409,12 +3765,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4133,6 +4542,208 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6219,29 +6830,30 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D128970-B007-A34B-8156-C6D1E235C2B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275DD0A-FAB0-344A-B479-7C91A0D59C48}">
   <dimension ref="B3:AR30"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4:AR12"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="29" max="29" width="10.83203125" customWidth="1"/>
     <col min="32" max="32" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="21.5" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="21.5" bestFit="1" customWidth="1"/>
     <col min="39" max="40" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="21.5" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B3" s="248" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="248"/>
       <c r="D3" s="248"/>
@@ -6264,7 +6876,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="248" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X3" s="248"/>
       <c r="Y3" s="248"/>
@@ -6307,7 +6919,7 @@
       <c r="AB4" s="250"/>
       <c r="AC4" s="250"/>
       <c r="AF4" s="248" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="AG4" s="248"/>
       <c r="AH4" s="248"/>
@@ -6480,7 +7092,7 @@
         <v>158.30000000000001</v>
       </c>
       <c r="D7" s="20">
-        <v>156.97</v>
+        <v>156.93</v>
       </c>
       <c r="E7" s="20">
         <v>158.30000000000001</v>
@@ -6497,7 +7109,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="13">
         <f t="shared" ref="J7:N11" si="0">$C7-D7</f>
-        <v>1.3300000000000125</v>
+        <v>1.3700000000000045</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" si="0"/>
@@ -6509,7 +7121,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="15">
         <f t="shared" ref="P7:T11" si="1">J7/$D7</f>
-        <v>8.4729566159139486E-3</v>
+        <v>8.7300070094947085E-3</v>
       </c>
       <c r="Q7" s="15">
         <f t="shared" si="1"/>
@@ -6529,9 +7141,9 @@
       </c>
       <c r="Y7" s="30" t="str">
         <f t="shared" ref="Y7:Y11" si="3">D7 &amp; CHAR(10) &amp; "(" &amp; FIXED(J7, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(P7*100,2) &amp; "%"</f>
-        <v>156.97
-(1.33)
-0.85%</v>
+        <v>156.93
+(1.37)
+0.87%</v>
       </c>
       <c r="Z7" s="30" t="str">
         <f t="shared" ref="Z7:Z11" si="4">E7 &amp; CHAR(10) &amp; "(" &amp; FIXED(K7, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(Q7*100,2) &amp; "%"</f>
@@ -6552,7 +7164,7 @@
         <v>44270</v>
       </c>
       <c r="AG7" s="57" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="AH7" s="54" t="s">
         <v>0</v>
@@ -6564,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="57" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="AL7" s="54" t="s">
         <v>0</v>
@@ -6576,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="57" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="AP7" s="54" t="s">
         <v>0</v>
@@ -6596,10 +7208,10 @@
         <v>161.91</v>
       </c>
       <c r="D8" s="23">
-        <v>157.18</v>
+        <v>157.07</v>
       </c>
       <c r="E8" s="23">
-        <v>158.65</v>
+        <v>158.61000000000001</v>
       </c>
       <c r="F8" s="23">
         <v>161.91</v>
@@ -6613,11 +7225,11 @@
       <c r="I8" s="14"/>
       <c r="J8" s="13">
         <f t="shared" si="0"/>
-        <v>4.7299999999999898</v>
+        <v>4.8400000000000034</v>
       </c>
       <c r="K8" s="13">
         <f t="shared" si="0"/>
-        <v>3.2599999999999909</v>
+        <v>3.2999999999999829</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" si="0"/>
@@ -6628,11 +7240,11 @@
       <c r="O8" s="1"/>
       <c r="P8" s="15">
         <f t="shared" si="1"/>
-        <v>3.0092887135767844E-2</v>
+        <v>3.0814286623798329E-2</v>
       </c>
       <c r="Q8" s="15">
         <f t="shared" si="1"/>
-        <v>2.0740552233108479E-2</v>
+        <v>2.1009740879862373E-2</v>
       </c>
       <c r="R8" s="15">
         <f t="shared" si="1"/>
@@ -6654,15 +7266,15 @@
       </c>
       <c r="Y8" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>157.18
-(4.73)
-3.01%</v>
+        <v>157.07
+(4.84)
+3.08%</v>
       </c>
       <c r="Z8" s="30" t="str">
         <f t="shared" si="4"/>
-        <v>158.65
-(3.26)
-2.07%</v>
+        <v>158.61
+(3.30)
+2.10%</v>
       </c>
       <c r="AA8" s="30" t="str">
         <f t="shared" ref="AA8:AA11" si="5">F8 &amp; CHAR(10) &amp; "(" &amp; FIXED(L8, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(R8*100,2) &amp; "%"</f>
@@ -6680,10 +7292,10 @@
         <v>44285</v>
       </c>
       <c r="AG8" s="60" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="AH8" s="39" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="AI8" s="39" t="s">
         <v>0</v>
@@ -6692,10 +7304,10 @@
         <v>0</v>
       </c>
       <c r="AK8" s="60" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="AL8" s="39" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="AM8" s="39" t="s">
         <v>0</v>
@@ -6704,10 +7316,10 @@
         <v>0</v>
       </c>
       <c r="AO8" s="60" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="AP8" s="39" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="AQ8" s="39" t="s">
         <v>0</v>
@@ -6724,13 +7336,13 @@
         <v>173.75</v>
       </c>
       <c r="D9" s="20">
-        <v>157.46</v>
+        <v>157.15</v>
       </c>
       <c r="E9" s="20">
-        <v>159.09</v>
+        <v>158.84</v>
       </c>
       <c r="F9" s="20">
-        <v>163.71</v>
+        <v>163.44999999999999</v>
       </c>
       <c r="G9" s="20">
         <v>173.75</v>
@@ -6741,15 +7353,15 @@
       <c r="I9" s="14"/>
       <c r="J9" s="13">
         <f t="shared" si="0"/>
-        <v>16.289999999999992</v>
+        <v>16.599999999999994</v>
       </c>
       <c r="K9" s="13">
         <f t="shared" si="0"/>
-        <v>14.659999999999997</v>
+        <v>14.909999999999997</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="0"/>
-        <v>10.039999999999992</v>
+        <v>10.300000000000011</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" si="0"/>
@@ -6759,15 +7371,15 @@
       <c r="O9" s="1"/>
       <c r="P9" s="15">
         <f t="shared" si="1"/>
-        <v>0.10345484567509203</v>
+        <v>0.10563156220171806</v>
       </c>
       <c r="Q9" s="15">
         <f t="shared" si="1"/>
-        <v>9.3103010288327168E-2</v>
+        <v>9.4877505567928705E-2</v>
       </c>
       <c r="R9" s="15">
         <f t="shared" si="1"/>
-        <v>6.3762225327067143E-2</v>
+        <v>6.5542475342029977E-2</v>
       </c>
       <c r="S9" s="15">
         <f t="shared" si="1"/>
@@ -6785,21 +7397,21 @@
       </c>
       <c r="Y9" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>157.46
-(16.29)
-10.35%</v>
+        <v>157.15
+(16.60)
+10.56%</v>
       </c>
       <c r="Z9" s="30" t="str">
         <f t="shared" si="4"/>
-        <v>159.09
-(14.66)
-9.31%</v>
+        <v>158.84
+(14.91)
+9.49%</v>
       </c>
       <c r="AA9" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>163.71
-(10.04)
-6.38%</v>
+        <v>163.45
+(10.30)
+6.55%</v>
       </c>
       <c r="AB9" s="30" t="str">
         <f t="shared" ref="AB9:AB11" si="6">G9 &amp; CHAR(10) &amp; "(" &amp; FIXED(M9, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(S9*100,2) &amp; "%"</f>
@@ -6813,38 +7425,38 @@
       <c r="AF9" s="28">
         <v>44301</v>
       </c>
-      <c r="AG9" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH9" s="54" t="s">
-        <v>293</v>
-      </c>
-      <c r="AI9" s="54" t="s">
-        <v>294</v>
+      <c r="AG9" s="138" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH9" s="139" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI9" s="139" t="s">
+        <v>250</v>
       </c>
       <c r="AJ9" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AK9" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL9" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM9" s="54" t="s">
-        <v>219</v>
+      <c r="AK9" s="138" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL9" s="139" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM9" s="139" t="s">
+        <v>264</v>
       </c>
       <c r="AN9" s="54" t="s">
         <v>0</v>
       </c>
       <c r="AO9" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="AP9" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ9" s="54" t="s">
-        <v>308</v>
+        <v>276</v>
+      </c>
+      <c r="AP9" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ9" s="139" t="s">
+        <v>278</v>
       </c>
       <c r="AR9" s="54" t="s">
         <v>0</v>
@@ -6858,16 +7470,16 @@
         <v>211.25</v>
       </c>
       <c r="D10" s="23">
-        <v>157.76</v>
+        <v>157.16</v>
       </c>
       <c r="E10" s="23">
-        <v>159.57</v>
+        <v>159.01</v>
       </c>
       <c r="F10" s="23">
-        <v>166.2</v>
+        <v>164.95</v>
       </c>
       <c r="G10" s="23">
-        <v>185.96</v>
+        <v>184</v>
       </c>
       <c r="H10" s="24">
         <v>211.25</v>
@@ -6875,19 +7487,19 @@
       <c r="I10" s="14"/>
       <c r="J10" s="13">
         <f t="shared" si="0"/>
-        <v>53.490000000000009</v>
+        <v>54.09</v>
       </c>
       <c r="K10" s="13">
         <f t="shared" si="0"/>
-        <v>51.680000000000007</v>
+        <v>52.240000000000009</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="0"/>
-        <v>45.050000000000011</v>
+        <v>46.300000000000011</v>
       </c>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>25.289999999999992</v>
+        <v>27.25</v>
       </c>
       <c r="N10" s="13">
         <f t="shared" si="0"/>
@@ -6896,19 +7508,19 @@
       <c r="O10" s="1"/>
       <c r="P10" s="15">
         <f t="shared" si="1"/>
-        <v>0.33905933062880333</v>
+        <v>0.34417154492237212</v>
       </c>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>0.32758620689655177</v>
+        <v>0.33240010180707563</v>
       </c>
       <c r="R10" s="15">
         <f t="shared" si="1"/>
-        <v>0.2855603448275863</v>
+        <v>0.29460422499363714</v>
       </c>
       <c r="S10" s="15">
         <f t="shared" si="1"/>
-        <v>0.16030679513184581</v>
+        <v>0.17339017561720541</v>
       </c>
       <c r="T10" s="15">
         <f t="shared" si="1"/>
@@ -6925,27 +7537,27 @@
       </c>
       <c r="Y10" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>157.76
-(53.49)
-33.91%</v>
+        <v>157.16
+(54.09)
+34.42%</v>
       </c>
       <c r="Z10" s="30" t="str">
         <f t="shared" si="4"/>
-        <v>159.57
-(51.68)
-32.76%</v>
+        <v>159.01
+(52.24)
+33.24%</v>
       </c>
       <c r="AA10" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>166.2
-(45.05)
-28.56%</v>
+        <v>164.95
+(46.30)
+29.46%</v>
       </c>
       <c r="AB10" s="30" t="str">
         <f t="shared" si="6"/>
-        <v>185.96
-(25.29)
-16.03%</v>
+        <v>184
+(27.25)
+17.34%</v>
       </c>
       <c r="AC10" s="30" t="str">
         <f t="shared" ref="AC10:AC11" si="7">H10 &amp; CHAR(10) &amp; "(" &amp; FIXED(N10, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(T10*100,2) &amp; "%"</f>
@@ -6956,41 +7568,41 @@
       <c r="AF10" s="40">
         <v>44316</v>
       </c>
-      <c r="AG10" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH10" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="AI10" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="AJ10" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="AK10" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL10" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM10" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN10" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="AO10" s="60" t="s">
-        <v>309</v>
-      </c>
-      <c r="AP10" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="AQ10" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="AR10" s="39" t="s">
-        <v>312</v>
+      <c r="AG10" s="100" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH10" s="101" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI10" s="101" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ10" s="101" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK10" s="100" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL10" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM10" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN10" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO10" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP10" s="101" t="s">
+        <v>280</v>
+      </c>
+      <c r="AQ10" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR10" s="101" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="2:44" ht="57" thickBot="1" x14ac:dyDescent="0.25">
@@ -7001,61 +7613,61 @@
         <v>269.73</v>
       </c>
       <c r="D11" s="26">
-        <v>158.21</v>
+        <v>157.13999999999999</v>
       </c>
       <c r="E11" s="26">
-        <v>160.36000000000001</v>
+        <v>159.12</v>
       </c>
       <c r="F11" s="26">
-        <v>170.49</v>
+        <v>166.8</v>
       </c>
       <c r="G11" s="26">
-        <v>211.58</v>
+        <v>199.3</v>
       </c>
       <c r="H11" s="27">
-        <v>271.39999999999998</v>
+        <v>261.3</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13">
         <f t="shared" si="0"/>
-        <v>111.52000000000001</v>
+        <v>112.59000000000003</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="0"/>
-        <v>109.37</v>
+        <v>110.61000000000001</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>99.240000000000009</v>
+        <v>102.93</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>58.150000000000006</v>
+        <v>70.430000000000007</v>
       </c>
       <c r="N11" s="13">
         <f t="shared" si="0"/>
-        <v>-1.6699999999999591</v>
+        <v>8.4300000000000068</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="15">
         <f t="shared" si="1"/>
-        <v>0.70488591113077559</v>
+        <v>0.71649484536082497</v>
       </c>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
-        <v>0.6912963782314645</v>
+        <v>0.70389461626575045</v>
       </c>
       <c r="R11" s="15">
         <f t="shared" si="1"/>
-        <v>0.62726755578029203</v>
+        <v>0.6550210003818252</v>
       </c>
       <c r="S11" s="15">
         <f t="shared" si="1"/>
-        <v>0.36754945957904056</v>
+        <v>0.44819905816469396</v>
       </c>
       <c r="T11" s="15">
         <f t="shared" si="1"/>
-        <v>-1.0555590670627387E-2</v>
+        <v>5.3646429935089779E-2</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -7068,72 +7680,72 @@
       </c>
       <c r="Y11" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>158.21
-(111.52)
-70.49%</v>
+        <v>157.14
+(112.59)
+71.65%</v>
       </c>
       <c r="Z11" s="30" t="str">
         <f t="shared" si="4"/>
-        <v>160.36
-(109.37)
-69.13%</v>
+        <v>159.12
+(110.61)
+70.39%</v>
       </c>
       <c r="AA11" s="30" t="str">
         <f t="shared" si="5"/>
-        <v>170.49
-(99.24)
-62.73%</v>
+        <v>166.8
+(102.93)
+65.50%</v>
       </c>
       <c r="AB11" s="30" t="str">
         <f t="shared" si="6"/>
-        <v>211.58
-(58.15)
-36.75%</v>
+        <v>199.3
+(70.43)
+44.82%</v>
       </c>
       <c r="AC11" s="30" t="str">
         <f t="shared" si="7"/>
-        <v>271.4
-(-1.67)
--1.06%</v>
+        <v>261.3
+(8.43)
+5.36%</v>
       </c>
       <c r="AF11" s="76">
         <v>44331</v>
       </c>
-      <c r="AG11" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="AH11" s="77" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI11" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="AJ11" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="AK11" s="78" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL11" s="77" t="s">
-        <v>225</v>
-      </c>
-      <c r="AM11" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="AN11" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="AO11" s="78" t="s">
-        <v>313</v>
-      </c>
-      <c r="AP11" s="77" t="s">
-        <v>314</v>
-      </c>
-      <c r="AQ11" s="77" t="s">
-        <v>315</v>
-      </c>
-      <c r="AR11" s="77" t="s">
-        <v>316</v>
+      <c r="AG11" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH11" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI11" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ11" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="AK11" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL11" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="AM11" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN11" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO11" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP11" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="AQ11" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="AR11" s="87" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="2:44" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -7169,8 +7781,8 @@
       <c r="AA12" s="247"/>
       <c r="AB12" s="247"/>
       <c r="AC12" s="247"/>
-      <c r="AF12" s="263" t="s">
-        <v>318</v>
+      <c r="AF12" s="264" t="s">
+        <v>287</v>
       </c>
       <c r="AG12" s="264"/>
       <c r="AH12" s="264"/>
@@ -7353,7 +7965,7 @@
         <v>158.30000000000001</v>
       </c>
       <c r="D16" s="9">
-        <v>156.91999999999999</v>
+        <v>156.88999999999999</v>
       </c>
       <c r="E16" s="9">
         <v>158.30000000000001</v>
@@ -7370,7 +7982,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="6">
         <f t="shared" ref="J16:N20" si="8">$C16-D16</f>
-        <v>1.3800000000000239</v>
+        <v>1.410000000000025</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="8"/>
@@ -7382,7 +7994,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="15">
         <f t="shared" ref="P16:T20" si="9">J16/$D16</f>
-        <v>8.794290084119449E-3</v>
+        <v>8.9871884760024546E-3</v>
       </c>
       <c r="Q16" s="15">
         <f t="shared" si="9"/>
@@ -7402,9 +8014,9 @@
       </c>
       <c r="Y16" s="30" t="str">
         <f t="shared" ref="Y16:Y20" si="11">D16 &amp; CHAR(10) &amp; "(" &amp; FIXED(J16, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(P16*100,2) &amp; "%"</f>
-        <v>156.92
-(1.38)
-0.88%</v>
+        <v>156.89
+(1.41)
+0.90%</v>
       </c>
       <c r="Z16" s="30" t="str">
         <f t="shared" ref="Z16:Z20" si="12">E16 &amp; CHAR(10) &amp; "(" &amp; FIXED(K16, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(Q16*100,2) &amp; "%"</f>
@@ -7430,10 +8042,10 @@
         <v>161.91</v>
       </c>
       <c r="D17" s="6">
-        <v>157.07</v>
+        <v>156.99</v>
       </c>
       <c r="E17" s="6">
-        <v>158.54</v>
+        <v>158.51</v>
       </c>
       <c r="F17" s="6">
         <v>161.91</v>
@@ -7447,11 +8059,11 @@
       <c r="I17" s="1"/>
       <c r="J17" s="6">
         <f t="shared" si="8"/>
-        <v>4.8400000000000034</v>
+        <v>4.9199999999999875</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="8"/>
-        <v>3.3700000000000045</v>
+        <v>3.4000000000000057</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="8"/>
@@ -7462,11 +8074,11 @@
       <c r="O17" s="1"/>
       <c r="P17" s="15">
         <f t="shared" si="9"/>
-        <v>3.0814286623798329E-2</v>
+        <v>3.1339575769157191E-2</v>
       </c>
       <c r="Q17" s="15">
         <f t="shared" si="9"/>
-        <v>2.1455402050041414E-2</v>
+        <v>2.1657430409580264E-2</v>
       </c>
       <c r="R17" s="15">
         <f t="shared" si="9"/>
@@ -7485,15 +8097,15 @@
       </c>
       <c r="Y17" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>157.07
-(4.84)
-3.08%</v>
+        <v>156.99
+(4.92)
+3.13%</v>
       </c>
       <c r="Z17" s="30" t="str">
         <f t="shared" si="12"/>
-        <v>158.54
-(3.37)
-2.15%</v>
+        <v>158.51
+(3.40)
+2.17%</v>
       </c>
       <c r="AA17" s="30" t="str">
         <f t="shared" ref="AA17:AA20" si="13">F17 &amp; CHAR(10) &amp; "(" &amp; FIXED(L17, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(R17*100,2) &amp; "%"</f>
@@ -7516,13 +8128,13 @@
         <v>173.75</v>
       </c>
       <c r="D18" s="9">
-        <v>157.33000000000001</v>
+        <v>157.06</v>
       </c>
       <c r="E18" s="9">
-        <v>158.96</v>
+        <v>158.74</v>
       </c>
       <c r="F18" s="9">
-        <v>163.61000000000001</v>
+        <v>163.36000000000001</v>
       </c>
       <c r="G18" s="9">
         <v>173.75</v>
@@ -7533,15 +8145,15 @@
       <c r="I18" s="1"/>
       <c r="J18" s="6">
         <f t="shared" si="8"/>
-        <v>16.419999999999987</v>
+        <v>16.689999999999998</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="8"/>
-        <v>14.789999999999992</v>
+        <v>15.009999999999991</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="8"/>
-        <v>10.139999999999986</v>
+        <v>10.389999999999986</v>
       </c>
       <c r="M18" s="6">
         <f t="shared" si="8"/>
@@ -7551,15 +8163,15 @@
       <c r="O18" s="1"/>
       <c r="P18" s="15">
         <f t="shared" si="9"/>
-        <v>0.1043666179368206</v>
+        <v>0.10626512160957594</v>
       </c>
       <c r="Q18" s="15">
         <f t="shared" si="9"/>
-        <v>9.4006228945528444E-2</v>
+        <v>9.5568572520055975E-2</v>
       </c>
       <c r="R18" s="15">
         <f t="shared" si="9"/>
-        <v>6.4450518019449468E-2</v>
+        <v>6.6153062523876136E-2</v>
       </c>
       <c r="S18" s="15">
         <f t="shared" si="9"/>
@@ -7577,21 +8189,21 @@
       </c>
       <c r="Y18" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>157.33
-(16.42)
-10.44%</v>
+        <v>157.06
+(16.69)
+10.63%</v>
       </c>
       <c r="Z18" s="30" t="str">
         <f t="shared" si="12"/>
-        <v>158.96
-(14.79)
-9.40%</v>
+        <v>158.74
+(15.01)
+9.56%</v>
       </c>
       <c r="AA18" s="30" t="str">
         <f t="shared" si="13"/>
-        <v>163.61
-(10.14)
-6.45%</v>
+        <v>163.36
+(10.39)
+6.62%</v>
       </c>
       <c r="AB18" s="30" t="str">
         <f t="shared" ref="AB18:AB20" si="14">G18 &amp; CHAR(10) &amp; "(" &amp; FIXED(M18, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(S18*100,2) &amp; "%"</f>
@@ -7611,16 +8223,16 @@
         <v>211.25</v>
       </c>
       <c r="D19" s="6">
-        <v>157.69999999999999</v>
+        <v>157.07</v>
       </c>
       <c r="E19" s="6">
-        <v>159.55000000000001</v>
+        <v>158.94</v>
       </c>
       <c r="F19" s="6">
-        <v>166.71</v>
+        <v>165.2</v>
       </c>
       <c r="G19" s="6">
-        <v>189.07</v>
+        <v>186.47</v>
       </c>
       <c r="H19" s="6">
         <v>211.25</v>
@@ -7628,19 +8240,19 @@
       <c r="I19" s="1"/>
       <c r="J19" s="6">
         <f t="shared" si="8"/>
-        <v>53.550000000000011</v>
+        <v>54.180000000000007</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="8"/>
-        <v>51.699999999999989</v>
+        <v>52.31</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="8"/>
-        <v>44.539999999999992</v>
+        <v>46.050000000000011</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="8"/>
-        <v>22.180000000000007</v>
+        <v>24.78</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="8"/>
@@ -7649,19 +8261,19 @@
       <c r="O19" s="1"/>
       <c r="P19" s="15">
         <f t="shared" si="9"/>
-        <v>0.33956880152187707</v>
+        <v>0.34494174571846953</v>
       </c>
       <c r="Q19" s="15">
         <f t="shared" si="9"/>
-        <v>0.32783766645529483</v>
+        <v>0.33303622588654741</v>
       </c>
       <c r="R19" s="15">
         <f t="shared" si="9"/>
-        <v>0.28243500317057701</v>
+        <v>0.29318138409626288</v>
       </c>
       <c r="S19" s="15">
         <f t="shared" si="9"/>
-        <v>0.14064679771718458</v>
+        <v>0.15776405424333101</v>
       </c>
       <c r="T19" s="15">
         <f t="shared" si="9"/>
@@ -7678,27 +8290,27 @@
       </c>
       <c r="Y19" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>157.7
-(53.55)
-33.96%</v>
+        <v>157.07
+(54.18)
+34.49%</v>
       </c>
       <c r="Z19" s="30" t="str">
         <f t="shared" si="12"/>
-        <v>159.55
-(51.70)
-32.78%</v>
+        <v>158.94
+(52.31)
+33.30%</v>
       </c>
       <c r="AA19" s="30" t="str">
         <f t="shared" si="13"/>
-        <v>166.71
-(44.54)
-28.24%</v>
+        <v>165.2
+(46.05)
+29.32%</v>
       </c>
       <c r="AB19" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>189.07
-(22.18)
-14.06%</v>
+        <v>186.47
+(24.78)
+15.78%</v>
       </c>
       <c r="AC19" s="30" t="str">
         <f t="shared" ref="AC19:AC20" si="15">H19 &amp; CHAR(10) &amp; "(" &amp; FIXED(N19, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(T19*100,2) &amp; "%"</f>
@@ -7715,61 +8327,61 @@
         <v>269.73</v>
       </c>
       <c r="D20" s="9">
-        <v>158.36000000000001</v>
+        <v>157.03</v>
       </c>
       <c r="E20" s="9">
-        <v>160.71</v>
+        <v>159.1</v>
       </c>
       <c r="F20" s="9">
-        <v>172.99</v>
+        <v>167.9</v>
       </c>
       <c r="G20" s="9">
-        <v>226.62</v>
+        <v>208.84</v>
       </c>
       <c r="H20" s="9">
-        <v>299.45</v>
+        <v>284.52</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="6">
         <f t="shared" si="8"/>
-        <v>111.37</v>
+        <v>112.70000000000002</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="8"/>
-        <v>109.02000000000001</v>
+        <v>110.63000000000002</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="8"/>
-        <v>96.740000000000009</v>
+        <v>101.83000000000001</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="8"/>
-        <v>43.110000000000014</v>
+        <v>60.890000000000015</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="8"/>
-        <v>-29.71999999999997</v>
+        <v>-14.789999999999964</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="15">
         <f t="shared" si="9"/>
-        <v>0.70327102803738317</v>
+        <v>0.71769725530153483</v>
       </c>
       <c r="Q20" s="15">
         <f t="shared" si="9"/>
-        <v>0.68843142207628194</v>
+        <v>0.70451506081640469</v>
       </c>
       <c r="R20" s="15">
         <f t="shared" si="9"/>
-        <v>0.61088658752210157</v>
+        <v>0.6484748137298606</v>
       </c>
       <c r="S20" s="15">
         <f t="shared" si="9"/>
-        <v>0.2722278353119475</v>
+        <v>0.38776030057950717</v>
       </c>
       <c r="T20" s="15">
         <f t="shared" si="9"/>
-        <v>-0.18767365496337438</v>
+        <v>-9.4185824364770826E-2</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -7782,33 +8394,33 @@
       </c>
       <c r="Y20" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>158.36
-(111.37)
-70.33%</v>
+        <v>157.03
+(112.70)
+71.77%</v>
       </c>
       <c r="Z20" s="30" t="str">
         <f t="shared" si="12"/>
-        <v>160.71
-(109.02)
-68.84%</v>
+        <v>159.1
+(110.63)
+70.45%</v>
       </c>
       <c r="AA20" s="30" t="str">
         <f t="shared" si="13"/>
-        <v>172.99
-(96.74)
-61.09%</v>
+        <v>167.9
+(101.83)
+64.85%</v>
       </c>
       <c r="AB20" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>226.62
-(43.11)
-27.22%</v>
+        <v>208.84
+(60.89)
+38.78%</v>
       </c>
       <c r="AC20" s="30" t="str">
         <f t="shared" si="15"/>
-        <v>299.45
-(-29.72)
--18.77%</v>
+        <v>284.52
+(-14.79)
+-9.42%</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
@@ -7968,7 +8580,7 @@
         <v>158.30000000000001</v>
       </c>
       <c r="D25" s="9">
-        <v>156.96</v>
+        <v>156.91999999999999</v>
       </c>
       <c r="E25" s="9">
         <v>158.30000000000001</v>
@@ -7984,7 +8596,7 @@
       </c>
       <c r="J25" s="6">
         <f t="shared" ref="J25:N29" si="16">$C25-D25</f>
-        <v>1.3400000000000034</v>
+        <v>1.3800000000000239</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="16"/>
@@ -7996,7 +8608,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="15">
         <f t="shared" ref="P25:T29" si="17">J25/$D25</f>
-        <v>8.5372069317023666E-3</v>
+        <v>8.794290084119449E-3</v>
       </c>
       <c r="Q25" s="15">
         <f t="shared" si="17"/>
@@ -8014,9 +8626,9 @@
       </c>
       <c r="Y25" s="30" t="str">
         <f t="shared" ref="Y25:Y29" si="19">D25 &amp; CHAR(10) &amp; "(" &amp; FIXED(J25, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(P25*100,2) &amp; "%"</f>
-        <v>156.96
-(1.34)
-0.85%</v>
+        <v>156.92
+(1.38)
+0.88%</v>
       </c>
       <c r="Z25" s="30" t="str">
         <f t="shared" ref="Z25:Z29" si="20">E25 &amp; CHAR(10) &amp; "(" &amp; FIXED(K25, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(Q25*100,2) &amp; "%"</f>
@@ -8042,10 +8654,10 @@
         <v>161.91</v>
       </c>
       <c r="D26" s="6">
-        <v>157.27000000000001</v>
+        <v>157.12</v>
       </c>
       <c r="E26" s="6">
-        <v>158.81</v>
+        <v>158.75</v>
       </c>
       <c r="F26" s="6">
         <v>161.91</v>
@@ -8058,11 +8670,11 @@
       </c>
       <c r="J26" s="6">
         <f t="shared" si="16"/>
-        <v>4.6399999999999864</v>
+        <v>4.789999999999992</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="16"/>
-        <v>3.0999999999999943</v>
+        <v>3.1599999999999966</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="16"/>
@@ -8073,11 +8685,11 @@
       <c r="O26" s="1"/>
       <c r="P26" s="15">
         <f t="shared" si="17"/>
-        <v>2.9503401793094589E-2</v>
+        <v>3.0486252545824797E-2</v>
       </c>
       <c r="Q26" s="15">
         <f t="shared" si="17"/>
-        <v>1.9711324473834769E-2</v>
+        <v>2.0112016293279002E-2</v>
       </c>
       <c r="R26" s="15">
         <f t="shared" si="17"/>
@@ -8094,15 +8706,15 @@
       </c>
       <c r="Y26" s="30" t="str">
         <f t="shared" si="19"/>
-        <v>157.27
-(4.64)
-2.95%</v>
+        <v>157.12
+(4.79)
+3.05%</v>
       </c>
       <c r="Z26" s="30" t="str">
         <f t="shared" si="20"/>
-        <v>158.81
-(3.10)
-1.97%</v>
+        <v>158.75
+(3.16)
+2.01%</v>
       </c>
       <c r="AA26" s="30" t="str">
         <f t="shared" ref="AA26:AA29" si="21">F26 &amp; CHAR(10) &amp; "(" &amp; FIXED(L26, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(R26*100,2) &amp; "%"</f>
@@ -8125,13 +8737,13 @@
         <v>173.75</v>
       </c>
       <c r="D27" s="9">
-        <v>157.5</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="E27" s="9">
-        <v>159.16999999999999</v>
+        <v>158.94</v>
       </c>
       <c r="F27" s="9">
-        <v>163.37</v>
+        <v>163.18</v>
       </c>
       <c r="G27" s="9">
         <v>173.75</v>
@@ -8141,15 +8753,15 @@
       </c>
       <c r="J27" s="6">
         <f t="shared" si="16"/>
-        <v>16.25</v>
+        <v>16.550000000000011</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="16"/>
-        <v>14.580000000000013</v>
+        <v>14.810000000000002</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="16"/>
-        <v>10.379999999999995</v>
+        <v>10.569999999999993</v>
       </c>
       <c r="M27" s="6">
         <f t="shared" si="16"/>
@@ -8159,15 +8771,15 @@
       <c r="O27" s="1"/>
       <c r="P27" s="15">
         <f t="shared" si="17"/>
-        <v>0.10317460317460317</v>
+        <v>0.10527989821882959</v>
       </c>
       <c r="Q27" s="15">
         <f t="shared" si="17"/>
-        <v>9.2571428571428652E-2</v>
+        <v>9.4211195928753197E-2</v>
       </c>
       <c r="R27" s="15">
         <f t="shared" si="17"/>
-        <v>6.5904761904761883E-2</v>
+        <v>6.7239185750636088E-2</v>
       </c>
       <c r="S27" s="15">
         <f t="shared" si="17"/>
@@ -8183,21 +8795,21 @@
       </c>
       <c r="Y27" s="30" t="str">
         <f t="shared" si="19"/>
-        <v>157.5
-(16.25)
-10.32%</v>
+        <v>157.2
+(16.55)
+10.53%</v>
       </c>
       <c r="Z27" s="30" t="str">
         <f t="shared" si="20"/>
-        <v>159.17
-(14.58)
-9.26%</v>
+        <v>158.94
+(14.81)
+9.42%</v>
       </c>
       <c r="AA27" s="30" t="str">
         <f t="shared" si="21"/>
-        <v>163.37
-(10.38)
-6.59%</v>
+        <v>163.18
+(10.57)
+6.72%</v>
       </c>
       <c r="AB27" s="30" t="str">
         <f t="shared" ref="AB27:AB29" si="22">G27 &amp; CHAR(10) &amp; "(" &amp; FIXED(M27, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(S27*100,2) &amp; "%"</f>
@@ -8217,35 +8829,35 @@
         <v>211.25</v>
       </c>
       <c r="D28" s="6">
-        <v>157.56</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="E28" s="6">
-        <v>159.27000000000001</v>
+        <v>158.97999999999999</v>
       </c>
       <c r="F28" s="6">
-        <v>163.91</v>
+        <v>163.53</v>
       </c>
       <c r="G28" s="6">
-        <v>176.35</v>
+        <v>176.02</v>
       </c>
       <c r="H28" s="6">
         <v>211.25</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="16"/>
-        <v>53.69</v>
+        <v>54.050000000000011</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="16"/>
-        <v>51.97999999999999</v>
+        <v>52.27000000000001</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="16"/>
-        <v>47.34</v>
+        <v>47.72</v>
       </c>
       <c r="M28" s="6">
         <f t="shared" si="16"/>
-        <v>34.900000000000006</v>
+        <v>35.22999999999999</v>
       </c>
       <c r="N28" s="6">
         <f t="shared" si="16"/>
@@ -8254,19 +8866,19 @@
       <c r="O28" s="1"/>
       <c r="P28" s="15">
         <f t="shared" si="17"/>
-        <v>0.34075907590759075</v>
+        <v>0.34382951653944033</v>
       </c>
       <c r="Q28" s="15">
         <f t="shared" si="17"/>
-        <v>0.32990606752982982</v>
+        <v>0.33250636132315531</v>
       </c>
       <c r="R28" s="15">
         <f t="shared" si="17"/>
-        <v>0.30045696877380046</v>
+        <v>0.30356234096692114</v>
       </c>
       <c r="S28" s="15">
         <f t="shared" si="17"/>
-        <v>0.22150291952272153</v>
+        <v>0.22410941475826968</v>
       </c>
       <c r="T28" s="15">
         <f t="shared" si="17"/>
@@ -8281,27 +8893,27 @@
       </c>
       <c r="Y28" s="30" t="str">
         <f t="shared" si="19"/>
-        <v>157.56
-(53.69)
-34.08%</v>
+        <v>157.2
+(54.05)
+34.38%</v>
       </c>
       <c r="Z28" s="30" t="str">
         <f t="shared" si="20"/>
-        <v>159.27
-(51.98)
-32.99%</v>
+        <v>158.98
+(52.27)
+33.25%</v>
       </c>
       <c r="AA28" s="30" t="str">
         <f t="shared" si="21"/>
-        <v>163.91
-(47.34)
-30.05%</v>
+        <v>163.53
+(47.72)
+30.36%</v>
       </c>
       <c r="AB28" s="30" t="str">
         <f t="shared" si="22"/>
-        <v>176.35
-(34.90)
-22.15%</v>
+        <v>176.02
+(35.23)
+22.41%</v>
       </c>
       <c r="AC28" s="30" t="str">
         <f t="shared" ref="AC28:AC29" si="23">H28 &amp; CHAR(10) &amp; "(" &amp; FIXED(N28, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(T28*100,2) &amp; "%"</f>
@@ -8318,60 +8930,60 @@
         <v>269.73</v>
       </c>
       <c r="D29" s="9">
-        <v>157.63</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="E29" s="9">
-        <v>159.4</v>
+        <v>159</v>
       </c>
       <c r="F29" s="9">
-        <v>164.61</v>
+        <v>163.83000000000001</v>
       </c>
       <c r="G29" s="9">
-        <v>180.57</v>
+        <v>178.5</v>
       </c>
       <c r="H29" s="9">
-        <v>221.16</v>
+        <v>219.41</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" si="16"/>
-        <v>112.10000000000002</v>
+        <v>112.53000000000003</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="16"/>
-        <v>110.33000000000001</v>
+        <v>110.73000000000002</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="16"/>
-        <v>105.12</v>
+        <v>105.9</v>
       </c>
       <c r="M29" s="6">
         <f t="shared" si="16"/>
-        <v>89.160000000000025</v>
+        <v>91.230000000000018</v>
       </c>
       <c r="N29" s="6">
         <f t="shared" si="16"/>
-        <v>48.570000000000022</v>
+        <v>50.320000000000022</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="15">
         <f t="shared" si="17"/>
-        <v>0.71115904332931568</v>
+        <v>0.71583969465648878</v>
       </c>
       <c r="Q29" s="15">
         <f t="shared" si="17"/>
-        <v>0.69993021632937902</v>
+        <v>0.70438931297709939</v>
       </c>
       <c r="R29" s="15">
         <f t="shared" si="17"/>
-        <v>0.66687813233521542</v>
+        <v>0.67366412213740468</v>
       </c>
       <c r="S29" s="15">
         <f t="shared" si="17"/>
-        <v>0.56562837023409263</v>
+        <v>0.58034351145038188</v>
       </c>
       <c r="T29" s="15">
         <f t="shared" si="17"/>
-        <v>0.30812662564232712</v>
+        <v>0.3201017811704836</v>
       </c>
       <c r="W29" s="35">
         <v>44331</v>
@@ -8382,33 +8994,33 @@
       </c>
       <c r="Y29" s="30" t="str">
         <f t="shared" si="19"/>
-        <v>157.63
-(112.10)
-71.12%</v>
+        <v>157.2
+(112.53)
+71.58%</v>
       </c>
       <c r="Z29" s="30" t="str">
         <f t="shared" si="20"/>
-        <v>159.4
-(110.33)
-69.99%</v>
+        <v>159
+(110.73)
+70.44%</v>
       </c>
       <c r="AA29" s="30" t="str">
         <f t="shared" si="21"/>
-        <v>164.61
-(105.12)
-66.69%</v>
+        <v>163.83
+(105.90)
+67.37%</v>
       </c>
       <c r="AB29" s="30" t="str">
         <f t="shared" si="22"/>
-        <v>180.57
-(89.16)
-56.56%</v>
+        <v>178.5
+(91.23)
+58.03%</v>
       </c>
       <c r="AC29" s="30" t="str">
         <f t="shared" si="23"/>
-        <v>221.16
-(48.57)
-30.81%</v>
+        <v>219.41
+(50.32)
+32.01%</v>
       </c>
     </row>
     <row r="30" spans="2:29" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -8439,6 +9051,2226 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D128970-B007-A34B-8156-C6D1E235C2B8}">
+  <dimension ref="B3:AR30"/>
+  <sheetViews>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4:AR12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="32" max="32" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B3" s="248" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="248"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="248" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="248"/>
+      <c r="AA3" s="248"/>
+      <c r="AB3" s="248"/>
+      <c r="AC3" s="248"/>
+    </row>
+    <row r="4" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B4" s="249" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="249" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="250"/>
+      <c r="Y4" s="250"/>
+      <c r="Z4" s="250"/>
+      <c r="AA4" s="250"/>
+      <c r="AB4" s="250"/>
+      <c r="AC4" s="250"/>
+      <c r="AF4" s="248" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG4" s="248"/>
+      <c r="AH4" s="248"/>
+      <c r="AI4" s="248"/>
+      <c r="AJ4" s="248"/>
+      <c r="AK4" s="248"/>
+      <c r="AL4" s="248"/>
+      <c r="AM4" s="248"/>
+      <c r="AN4" s="248"/>
+      <c r="AO4" s="248"/>
+      <c r="AP4" s="248"/>
+      <c r="AQ4" s="248"/>
+      <c r="AR4" s="248"/>
+    </row>
+    <row r="5" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="247" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="247"/>
+      <c r="AA5" s="247"/>
+      <c r="AB5" s="247"/>
+      <c r="AC5" s="247"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="261" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH5" s="249"/>
+      <c r="AI5" s="249"/>
+      <c r="AJ5" s="249"/>
+      <c r="AK5" s="261" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL5" s="249"/>
+      <c r="AM5" s="249"/>
+      <c r="AN5" s="249"/>
+      <c r="AO5" s="261" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP5" s="249"/>
+      <c r="AQ5" s="249"/>
+      <c r="AR5" s="249"/>
+    </row>
+    <row r="6" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:44" ht="56" x14ac:dyDescent="0.2">
+      <c r="B7" s="19">
+        <v>44270</v>
+      </c>
+      <c r="C7" s="20">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="D7" s="20">
+        <v>156.97</v>
+      </c>
+      <c r="E7" s="20">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13">
+        <f t="shared" ref="J7:N11" si="0">$C7-D7</f>
+        <v>1.3300000000000125</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="15">
+        <f t="shared" ref="P7:T11" si="1">J7/$D7</f>
+        <v>8.4729566159139486E-3</v>
+      </c>
+      <c r="Q7" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="31">
+        <v>44270</v>
+      </c>
+      <c r="X7" s="32">
+        <f t="shared" ref="X7:X11" si="2">C7</f>
+        <v>158.30000000000001</v>
+      </c>
+      <c r="Y7" s="30" t="str">
+        <f t="shared" ref="Y7:Y11" si="3">D7 &amp; CHAR(10) &amp; "(" &amp; FIXED(J7, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(P7*100,2) &amp; "%"</f>
+        <v>156.97
+(1.33)
+0.85%</v>
+      </c>
+      <c r="Z7" s="30" t="str">
+        <f t="shared" ref="Z7:Z11" si="4">E7 &amp; CHAR(10) &amp; "(" &amp; FIXED(K7, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(Q7*100,2) &amp; "%"</f>
+        <v>158.3
+(0.00)
+0.00%</v>
+      </c>
+      <c r="AA7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="28">
+        <v>44270</v>
+      </c>
+      <c r="AG7" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="AP7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:44" ht="56" x14ac:dyDescent="0.2">
+      <c r="B8" s="22">
+        <v>44285</v>
+      </c>
+      <c r="C8" s="23">
+        <v>161.91</v>
+      </c>
+      <c r="D8" s="23">
+        <v>157.18</v>
+      </c>
+      <c r="E8" s="23">
+        <v>158.65</v>
+      </c>
+      <c r="F8" s="23">
+        <v>161.91</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>4.7299999999999898</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="0"/>
+        <v>3.2599999999999909</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0092887135767844E-2</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="1"/>
+        <v>2.0740552233108479E-2</v>
+      </c>
+      <c r="R8" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="15"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="28">
+        <v>44285</v>
+      </c>
+      <c r="X8" s="29">
+        <f t="shared" si="2"/>
+        <v>161.91</v>
+      </c>
+      <c r="Y8" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>157.18
+(4.73)
+3.01%</v>
+      </c>
+      <c r="Z8" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v>158.65
+(3.26)
+2.07%</v>
+      </c>
+      <c r="AA8" s="30" t="str">
+        <f t="shared" ref="AA8:AA11" si="5">F8 &amp; CHAR(10) &amp; "(" &amp; FIXED(L8, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(R8*100,2) &amp; "%"</f>
+        <v>161.91
+(0.00)
+0.00%</v>
+      </c>
+      <c r="AB8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="40">
+        <v>44285</v>
+      </c>
+      <c r="AG8" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH8" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI8" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL8" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM8" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP8" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="AQ8" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:44" ht="56" x14ac:dyDescent="0.2">
+      <c r="B9" s="19">
+        <v>44301</v>
+      </c>
+      <c r="C9" s="20">
+        <v>173.75</v>
+      </c>
+      <c r="D9" s="20">
+        <v>157.46</v>
+      </c>
+      <c r="E9" s="20">
+        <v>159.09</v>
+      </c>
+      <c r="F9" s="20">
+        <v>163.71</v>
+      </c>
+      <c r="G9" s="20">
+        <v>173.75</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>16.289999999999992</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="0"/>
+        <v>14.659999999999997</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="0"/>
+        <v>10.039999999999992</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.10345484567509203</v>
+      </c>
+      <c r="Q9" s="15">
+        <f t="shared" si="1"/>
+        <v>9.3103010288327168E-2</v>
+      </c>
+      <c r="R9" s="15">
+        <f t="shared" si="1"/>
+        <v>6.3762225327067143E-2</v>
+      </c>
+      <c r="S9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="15"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="31">
+        <v>44301</v>
+      </c>
+      <c r="X9" s="32">
+        <f t="shared" si="2"/>
+        <v>173.75</v>
+      </c>
+      <c r="Y9" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>157.46
+(16.29)
+10.35%</v>
+      </c>
+      <c r="Z9" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v>159.09
+(14.66)
+9.31%</v>
+      </c>
+      <c r="AA9" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v>163.71
+(10.04)
+6.38%</v>
+      </c>
+      <c r="AB9" s="30" t="str">
+        <f t="shared" ref="AB9:AB11" si="6">G9 &amp; CHAR(10) &amp; "(" &amp; FIXED(M9, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(S9*100,2) &amp; "%"</f>
+        <v>173.75
+(0.00)
+0.00%</v>
+      </c>
+      <c r="AC9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="28">
+        <v>44301</v>
+      </c>
+      <c r="AG9" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH9" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="AI9" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL9" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM9" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP9" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ9" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR9" s="54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:44" ht="56" x14ac:dyDescent="0.2">
+      <c r="B10" s="22">
+        <v>44316</v>
+      </c>
+      <c r="C10" s="23">
+        <v>211.25</v>
+      </c>
+      <c r="D10" s="23">
+        <v>157.76</v>
+      </c>
+      <c r="E10" s="23">
+        <v>159.57</v>
+      </c>
+      <c r="F10" s="23">
+        <v>166.2</v>
+      </c>
+      <c r="G10" s="23">
+        <v>185.96</v>
+      </c>
+      <c r="H10" s="24">
+        <v>211.25</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>53.490000000000009</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="0"/>
+        <v>51.680000000000007</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="0"/>
+        <v>45.050000000000011</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="0"/>
+        <v>25.289999999999992</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.33905933062880333</v>
+      </c>
+      <c r="Q10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.32758620689655177</v>
+      </c>
+      <c r="R10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.2855603448275863</v>
+      </c>
+      <c r="S10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.16030679513184581</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="28">
+        <v>44316</v>
+      </c>
+      <c r="X10" s="29">
+        <f t="shared" si="2"/>
+        <v>211.25</v>
+      </c>
+      <c r="Y10" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>157.76
+(53.49)
+33.91%</v>
+      </c>
+      <c r="Z10" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v>159.57
+(51.68)
+32.76%</v>
+      </c>
+      <c r="AA10" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v>166.2
+(45.05)
+28.56%</v>
+      </c>
+      <c r="AB10" s="30" t="str">
+        <f t="shared" si="6"/>
+        <v>185.96
+(25.29)
+16.03%</v>
+      </c>
+      <c r="AC10" s="30" t="str">
+        <f t="shared" ref="AC10:AC11" si="7">H10 &amp; CHAR(10) &amp; "(" &amp; FIXED(N10, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(T10*100,2) &amp; "%"</f>
+        <v>211.25
+(0.00)
+0.00%</v>
+      </c>
+      <c r="AF10" s="40">
+        <v>44316</v>
+      </c>
+      <c r="AG10" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH10" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI10" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ10" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK10" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL10" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM10" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN10" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO10" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="AP10" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="AQ10" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="AR10" s="39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="2:44" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>44331</v>
+      </c>
+      <c r="C11" s="26">
+        <v>269.73</v>
+      </c>
+      <c r="D11" s="26">
+        <v>158.21</v>
+      </c>
+      <c r="E11" s="26">
+        <v>160.36000000000001</v>
+      </c>
+      <c r="F11" s="26">
+        <v>170.49</v>
+      </c>
+      <c r="G11" s="26">
+        <v>211.58</v>
+      </c>
+      <c r="H11" s="27">
+        <v>271.39999999999998</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>111.52000000000001</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="0"/>
+        <v>109.37</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="0"/>
+        <v>99.240000000000009</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="0"/>
+        <v>58.150000000000006</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.6699999999999591</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.70488591113077559</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.6912963782314645</v>
+      </c>
+      <c r="R11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.62726755578029203</v>
+      </c>
+      <c r="S11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36754945957904056</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="1"/>
+        <v>-1.0555590670627387E-2</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="31">
+        <v>44331</v>
+      </c>
+      <c r="X11" s="32">
+        <f t="shared" si="2"/>
+        <v>269.73</v>
+      </c>
+      <c r="Y11" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>158.21
+(111.52)
+70.49%</v>
+      </c>
+      <c r="Z11" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v>160.36
+(109.37)
+69.13%</v>
+      </c>
+      <c r="AA11" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v>170.49
+(99.24)
+62.73%</v>
+      </c>
+      <c r="AB11" s="30" t="str">
+        <f t="shared" si="6"/>
+        <v>211.58
+(58.15)
+36.75%</v>
+      </c>
+      <c r="AC11" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v>271.4
+(-1.67)
+-1.06%</v>
+      </c>
+      <c r="AF11" s="76">
+        <v>44331</v>
+      </c>
+      <c r="AG11" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH11" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI11" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ11" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK11" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL11" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM11" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN11" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO11" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP11" s="77" t="s">
+        <v>314</v>
+      </c>
+      <c r="AQ11" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="AR11" s="77" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="2:44" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="247" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="247"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="247"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="247" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="247"/>
+      <c r="Y12" s="247"/>
+      <c r="Z12" s="247"/>
+      <c r="AA12" s="247"/>
+      <c r="AB12" s="247"/>
+      <c r="AC12" s="247"/>
+      <c r="AF12" s="263" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG12" s="264"/>
+      <c r="AH12" s="264"/>
+      <c r="AI12" s="264"/>
+      <c r="AJ12" s="264"/>
+      <c r="AK12" s="264"/>
+      <c r="AL12" s="264"/>
+      <c r="AM12" s="264"/>
+      <c r="AN12" s="264"/>
+      <c r="AO12" s="264"/>
+      <c r="AP12" s="264"/>
+      <c r="AQ12" s="264"/>
+      <c r="AR12" s="264"/>
+    </row>
+    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="247" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="247"/>
+      <c r="AA13" s="247"/>
+      <c r="AB13" s="247"/>
+      <c r="AC13" s="247"/>
+    </row>
+    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:44" ht="42" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>44256</v>
+      </c>
+      <c r="C15" s="6">
+        <v>156.69</v>
+      </c>
+      <c r="D15" s="6">
+        <v>156.69</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6">
+        <f>$C15-D15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="15">
+        <f>J15/$D15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="28">
+        <v>44256</v>
+      </c>
+      <c r="X15" s="29">
+        <f>C15</f>
+        <v>156.69</v>
+      </c>
+      <c r="Y15" s="30" t="str">
+        <f>D15 &amp; CHAR(10) &amp; "(" &amp; FIXED(J15, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(P15*100,2) &amp; "%"</f>
+        <v>156.69
+(0.00)
+0.00%</v>
+      </c>
+      <c r="Z15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:44" ht="42" x14ac:dyDescent="0.2">
+      <c r="B16" s="8">
+        <v>44270</v>
+      </c>
+      <c r="C16" s="9">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="D16" s="9">
+        <v>156.91999999999999</v>
+      </c>
+      <c r="E16" s="9">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6">
+        <f t="shared" ref="J16:N20" si="8">$C16-D16</f>
+        <v>1.3800000000000239</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="15">
+        <f t="shared" ref="P16:T20" si="9">J16/$D16</f>
+        <v>8.794290084119449E-3</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="31">
+        <v>44270</v>
+      </c>
+      <c r="X16" s="32">
+        <f t="shared" ref="X16:X20" si="10">C16</f>
+        <v>158.30000000000001</v>
+      </c>
+      <c r="Y16" s="30" t="str">
+        <f t="shared" ref="Y16:Y20" si="11">D16 &amp; CHAR(10) &amp; "(" &amp; FIXED(J16, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(P16*100,2) &amp; "%"</f>
+        <v>156.92
+(1.38)
+0.88%</v>
+      </c>
+      <c r="Z16" s="30" t="str">
+        <f t="shared" ref="Z16:Z20" si="12">E16 &amp; CHAR(10) &amp; "(" &amp; FIXED(K16, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(Q16*100,2) &amp; "%"</f>
+        <v>158.3
+(0.00)
+0.00%</v>
+      </c>
+      <c r="AA16" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" ht="42" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <v>44285</v>
+      </c>
+      <c r="C17" s="6">
+        <v>161.91</v>
+      </c>
+      <c r="D17" s="6">
+        <v>157.07</v>
+      </c>
+      <c r="E17" s="6">
+        <v>158.54</v>
+      </c>
+      <c r="F17" s="6">
+        <v>161.91</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6">
+        <f t="shared" si="8"/>
+        <v>4.8400000000000034</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="8"/>
+        <v>3.3700000000000045</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0814286623798329E-2</v>
+      </c>
+      <c r="Q17" s="15">
+        <f t="shared" si="9"/>
+        <v>2.1455402050041414E-2</v>
+      </c>
+      <c r="R17" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="28">
+        <v>44285</v>
+      </c>
+      <c r="X17" s="29">
+        <f t="shared" si="10"/>
+        <v>161.91</v>
+      </c>
+      <c r="Y17" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>157.07
+(4.84)
+3.08%</v>
+      </c>
+      <c r="Z17" s="30" t="str">
+        <f t="shared" si="12"/>
+        <v>158.54
+(3.37)
+2.15%</v>
+      </c>
+      <c r="AA17" s="30" t="str">
+        <f t="shared" ref="AA17:AA20" si="13">F17 &amp; CHAR(10) &amp; "(" &amp; FIXED(L17, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(R17*100,2) &amp; "%"</f>
+        <v>161.91
+(0.00)
+0.00%</v>
+      </c>
+      <c r="AB17" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" ht="42" x14ac:dyDescent="0.2">
+      <c r="B18" s="8">
+        <v>44301</v>
+      </c>
+      <c r="C18" s="9">
+        <v>173.75</v>
+      </c>
+      <c r="D18" s="9">
+        <v>157.33000000000001</v>
+      </c>
+      <c r="E18" s="9">
+        <v>158.96</v>
+      </c>
+      <c r="F18" s="9">
+        <v>163.61000000000001</v>
+      </c>
+      <c r="G18" s="9">
+        <v>173.75</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6">
+        <f t="shared" si="8"/>
+        <v>16.419999999999987</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="8"/>
+        <v>14.789999999999992</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="8"/>
+        <v>10.139999999999986</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1043666179368206</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="9"/>
+        <v>9.4006228945528444E-2</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="9"/>
+        <v>6.4450518019449468E-2</v>
+      </c>
+      <c r="S18" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="15"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="31">
+        <v>44301</v>
+      </c>
+      <c r="X18" s="32">
+        <f t="shared" si="10"/>
+        <v>173.75</v>
+      </c>
+      <c r="Y18" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>157.33
+(16.42)
+10.44%</v>
+      </c>
+      <c r="Z18" s="30" t="str">
+        <f t="shared" si="12"/>
+        <v>158.96
+(14.79)
+9.40%</v>
+      </c>
+      <c r="AA18" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v>163.61
+(10.14)
+6.45%</v>
+      </c>
+      <c r="AB18" s="30" t="str">
+        <f t="shared" ref="AB18:AB20" si="14">G18 &amp; CHAR(10) &amp; "(" &amp; FIXED(M18, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(S18*100,2) &amp; "%"</f>
+        <v>173.75
+(0.00)
+0.00%</v>
+      </c>
+      <c r="AC18" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" ht="42" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
+        <v>44316</v>
+      </c>
+      <c r="C19" s="6">
+        <v>211.25</v>
+      </c>
+      <c r="D19" s="6">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="E19" s="6">
+        <v>159.55000000000001</v>
+      </c>
+      <c r="F19" s="6">
+        <v>166.71</v>
+      </c>
+      <c r="G19" s="6">
+        <v>189.07</v>
+      </c>
+      <c r="H19" s="6">
+        <v>211.25</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6">
+        <f t="shared" si="8"/>
+        <v>53.550000000000011</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="8"/>
+        <v>51.699999999999989</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="8"/>
+        <v>44.539999999999992</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="8"/>
+        <v>22.180000000000007</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="15">
+        <f t="shared" si="9"/>
+        <v>0.33956880152187707</v>
+      </c>
+      <c r="Q19" s="15">
+        <f t="shared" si="9"/>
+        <v>0.32783766645529483</v>
+      </c>
+      <c r="R19" s="15">
+        <f t="shared" si="9"/>
+        <v>0.28243500317057701</v>
+      </c>
+      <c r="S19" s="15">
+        <f t="shared" si="9"/>
+        <v>0.14064679771718458</v>
+      </c>
+      <c r="T19" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="28">
+        <v>44316</v>
+      </c>
+      <c r="X19" s="29">
+        <f t="shared" si="10"/>
+        <v>211.25</v>
+      </c>
+      <c r="Y19" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>157.7
+(53.55)
+33.96%</v>
+      </c>
+      <c r="Z19" s="30" t="str">
+        <f t="shared" si="12"/>
+        <v>159.55
+(51.70)
+32.78%</v>
+      </c>
+      <c r="AA19" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v>166.71
+(44.54)
+28.24%</v>
+      </c>
+      <c r="AB19" s="30" t="str">
+        <f t="shared" si="14"/>
+        <v>189.07
+(22.18)
+14.06%</v>
+      </c>
+      <c r="AC19" s="30" t="str">
+        <f t="shared" ref="AC19:AC20" si="15">H19 &amp; CHAR(10) &amp; "(" &amp; FIXED(N19, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(T19*100,2) &amp; "%"</f>
+        <v>211.25
+(0.00)
+0.00%</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" ht="42" x14ac:dyDescent="0.2">
+      <c r="B20" s="8">
+        <v>44331</v>
+      </c>
+      <c r="C20" s="9">
+        <v>269.73</v>
+      </c>
+      <c r="D20" s="9">
+        <v>158.36000000000001</v>
+      </c>
+      <c r="E20" s="9">
+        <v>160.71</v>
+      </c>
+      <c r="F20" s="9">
+        <v>172.99</v>
+      </c>
+      <c r="G20" s="9">
+        <v>226.62</v>
+      </c>
+      <c r="H20" s="9">
+        <v>299.45</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6">
+        <f t="shared" si="8"/>
+        <v>111.37</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="8"/>
+        <v>109.02000000000001</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="8"/>
+        <v>96.740000000000009</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="8"/>
+        <v>43.110000000000014</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="8"/>
+        <v>-29.71999999999997</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="15">
+        <f t="shared" si="9"/>
+        <v>0.70327102803738317</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="9"/>
+        <v>0.68843142207628194</v>
+      </c>
+      <c r="R20" s="15">
+        <f t="shared" si="9"/>
+        <v>0.61088658752210157</v>
+      </c>
+      <c r="S20" s="15">
+        <f t="shared" si="9"/>
+        <v>0.2722278353119475</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" si="9"/>
+        <v>-0.18767365496337438</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="37">
+        <v>44331</v>
+      </c>
+      <c r="X20" s="38">
+        <f t="shared" si="10"/>
+        <v>269.73</v>
+      </c>
+      <c r="Y20" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>158.36
+(111.37)
+70.33%</v>
+      </c>
+      <c r="Z20" s="30" t="str">
+        <f t="shared" si="12"/>
+        <v>160.71
+(109.02)
+68.84%</v>
+      </c>
+      <c r="AA20" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v>172.99
+(96.74)
+61.09%</v>
+      </c>
+      <c r="AB20" s="30" t="str">
+        <f t="shared" si="14"/>
+        <v>226.62
+(43.11)
+27.22%</v>
+      </c>
+      <c r="AC20" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>299.45
+(-29.72)
+-18.77%</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B21" s="247" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="247"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="247"/>
+      <c r="G21" s="247"/>
+      <c r="H21" s="247"/>
+      <c r="W21" s="247" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21" s="247"/>
+      <c r="Y21" s="247"/>
+      <c r="Z21" s="247"/>
+      <c r="AA21" s="247"/>
+      <c r="AB21" s="247"/>
+      <c r="AC21" s="247"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="247"/>
+      <c r="F22" s="247"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="247"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="247" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="247"/>
+      <c r="AA22" s="247"/>
+      <c r="AB22" s="247"/>
+      <c r="AC22" s="247"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" ht="42" x14ac:dyDescent="0.2">
+      <c r="B24" s="5">
+        <v>44256</v>
+      </c>
+      <c r="C24" s="6">
+        <v>156.69</v>
+      </c>
+      <c r="D24" s="6">
+        <v>156.69</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <f>$C24-D24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="15">
+        <f>J24/$D24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="W24" s="28">
+        <v>44256</v>
+      </c>
+      <c r="X24" s="29">
+        <f>C24</f>
+        <v>156.69</v>
+      </c>
+      <c r="Y24" s="30" t="str">
+        <f>D24 &amp; CHAR(10) &amp; "(" &amp; FIXED(J24, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(P24*100,2) &amp; "%"</f>
+        <v>156.69
+(0.00)
+0.00%</v>
+      </c>
+      <c r="Z24" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" ht="42" x14ac:dyDescent="0.2">
+      <c r="B25" s="8">
+        <v>44270</v>
+      </c>
+      <c r="C25" s="9">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="D25" s="9">
+        <v>156.96</v>
+      </c>
+      <c r="E25" s="9">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" ref="J25:N29" si="16">$C25-D25</f>
+        <v>1.3400000000000034</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="15">
+        <f t="shared" ref="P25:T29" si="17">J25/$D25</f>
+        <v>8.5372069317023666E-3</v>
+      </c>
+      <c r="Q25" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="W25" s="31">
+        <v>44270</v>
+      </c>
+      <c r="X25" s="32">
+        <f t="shared" ref="X25:X29" si="18">C25</f>
+        <v>158.30000000000001</v>
+      </c>
+      <c r="Y25" s="30" t="str">
+        <f t="shared" ref="Y25:Y29" si="19">D25 &amp; CHAR(10) &amp; "(" &amp; FIXED(J25, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(P25*100,2) &amp; "%"</f>
+        <v>156.96
+(1.34)
+0.85%</v>
+      </c>
+      <c r="Z25" s="30" t="str">
+        <f t="shared" ref="Z25:Z29" si="20">E25 &amp; CHAR(10) &amp; "(" &amp; FIXED(K25, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(Q25*100,2) &amp; "%"</f>
+        <v>158.3
+(0.00)
+0.00%</v>
+      </c>
+      <c r="AA25" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" ht="42" x14ac:dyDescent="0.2">
+      <c r="B26" s="5">
+        <v>44285</v>
+      </c>
+      <c r="C26" s="6">
+        <v>161.91</v>
+      </c>
+      <c r="D26" s="6">
+        <v>157.27000000000001</v>
+      </c>
+      <c r="E26" s="6">
+        <v>158.81</v>
+      </c>
+      <c r="F26" s="6">
+        <v>161.91</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="16"/>
+        <v>4.6399999999999864</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="16"/>
+        <v>3.0999999999999943</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="15">
+        <f t="shared" si="17"/>
+        <v>2.9503401793094589E-2</v>
+      </c>
+      <c r="Q26" s="15">
+        <f t="shared" si="17"/>
+        <v>1.9711324473834769E-2</v>
+      </c>
+      <c r="R26" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="W26" s="28">
+        <v>44285</v>
+      </c>
+      <c r="X26" s="29">
+        <f t="shared" si="18"/>
+        <v>161.91</v>
+      </c>
+      <c r="Y26" s="30" t="str">
+        <f t="shared" si="19"/>
+        <v>157.27
+(4.64)
+2.95%</v>
+      </c>
+      <c r="Z26" s="30" t="str">
+        <f t="shared" si="20"/>
+        <v>158.81
+(3.10)
+1.97%</v>
+      </c>
+      <c r="AA26" s="30" t="str">
+        <f t="shared" ref="AA26:AA29" si="21">F26 &amp; CHAR(10) &amp; "(" &amp; FIXED(L26, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(R26*100,2) &amp; "%"</f>
+        <v>161.91
+(0.00)
+0.00%</v>
+      </c>
+      <c r="AB26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" ht="42" x14ac:dyDescent="0.2">
+      <c r="B27" s="8">
+        <v>44301</v>
+      </c>
+      <c r="C27" s="9">
+        <v>173.75</v>
+      </c>
+      <c r="D27" s="9">
+        <v>157.5</v>
+      </c>
+      <c r="E27" s="9">
+        <v>159.16999999999999</v>
+      </c>
+      <c r="F27" s="9">
+        <v>163.37</v>
+      </c>
+      <c r="G27" s="9">
+        <v>173.75</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="16"/>
+        <v>16.25</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="16"/>
+        <v>14.580000000000013</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="16"/>
+        <v>10.379999999999995</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="15">
+        <f t="shared" si="17"/>
+        <v>0.10317460317460317</v>
+      </c>
+      <c r="Q27" s="15">
+        <f t="shared" si="17"/>
+        <v>9.2571428571428652E-2</v>
+      </c>
+      <c r="R27" s="15">
+        <f t="shared" si="17"/>
+        <v>6.5904761904761883E-2</v>
+      </c>
+      <c r="S27" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="15"/>
+      <c r="W27" s="31">
+        <v>44301</v>
+      </c>
+      <c r="X27" s="32">
+        <f t="shared" si="18"/>
+        <v>173.75</v>
+      </c>
+      <c r="Y27" s="30" t="str">
+        <f t="shared" si="19"/>
+        <v>157.5
+(16.25)
+10.32%</v>
+      </c>
+      <c r="Z27" s="30" t="str">
+        <f t="shared" si="20"/>
+        <v>159.17
+(14.58)
+9.26%</v>
+      </c>
+      <c r="AA27" s="30" t="str">
+        <f t="shared" si="21"/>
+        <v>163.37
+(10.38)
+6.59%</v>
+      </c>
+      <c r="AB27" s="30" t="str">
+        <f t="shared" ref="AB27:AB29" si="22">G27 &amp; CHAR(10) &amp; "(" &amp; FIXED(M27, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(S27*100,2) &amp; "%"</f>
+        <v>173.75
+(0.00)
+0.00%</v>
+      </c>
+      <c r="AC27" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" ht="42" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
+        <v>44316</v>
+      </c>
+      <c r="C28" s="6">
+        <v>211.25</v>
+      </c>
+      <c r="D28" s="6">
+        <v>157.56</v>
+      </c>
+      <c r="E28" s="6">
+        <v>159.27000000000001</v>
+      </c>
+      <c r="F28" s="6">
+        <v>163.91</v>
+      </c>
+      <c r="G28" s="6">
+        <v>176.35</v>
+      </c>
+      <c r="H28" s="6">
+        <v>211.25</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="16"/>
+        <v>53.69</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="16"/>
+        <v>51.97999999999999</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="16"/>
+        <v>47.34</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="16"/>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="15">
+        <f t="shared" si="17"/>
+        <v>0.34075907590759075</v>
+      </c>
+      <c r="Q28" s="15">
+        <f t="shared" si="17"/>
+        <v>0.32990606752982982</v>
+      </c>
+      <c r="R28" s="15">
+        <f t="shared" si="17"/>
+        <v>0.30045696877380046</v>
+      </c>
+      <c r="S28" s="15">
+        <f t="shared" si="17"/>
+        <v>0.22150291952272153</v>
+      </c>
+      <c r="T28" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="28">
+        <v>44316</v>
+      </c>
+      <c r="X28" s="29">
+        <f t="shared" si="18"/>
+        <v>211.25</v>
+      </c>
+      <c r="Y28" s="30" t="str">
+        <f t="shared" si="19"/>
+        <v>157.56
+(53.69)
+34.08%</v>
+      </c>
+      <c r="Z28" s="30" t="str">
+        <f t="shared" si="20"/>
+        <v>159.27
+(51.98)
+32.99%</v>
+      </c>
+      <c r="AA28" s="30" t="str">
+        <f t="shared" si="21"/>
+        <v>163.91
+(47.34)
+30.05%</v>
+      </c>
+      <c r="AB28" s="30" t="str">
+        <f t="shared" si="22"/>
+        <v>176.35
+(34.90)
+22.15%</v>
+      </c>
+      <c r="AC28" s="30" t="str">
+        <f t="shared" ref="AC28:AC29" si="23">H28 &amp; CHAR(10) &amp; "(" &amp; FIXED(N28, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(T28*100,2) &amp; "%"</f>
+        <v>211.25
+(0.00)
+0.00%</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>44331</v>
+      </c>
+      <c r="C29" s="9">
+        <v>269.73</v>
+      </c>
+      <c r="D29" s="9">
+        <v>157.63</v>
+      </c>
+      <c r="E29" s="9">
+        <v>159.4</v>
+      </c>
+      <c r="F29" s="9">
+        <v>164.61</v>
+      </c>
+      <c r="G29" s="9">
+        <v>180.57</v>
+      </c>
+      <c r="H29" s="9">
+        <v>221.16</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="16"/>
+        <v>112.10000000000002</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="16"/>
+        <v>110.33000000000001</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="16"/>
+        <v>105.12</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="16"/>
+        <v>89.160000000000025</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="16"/>
+        <v>48.570000000000022</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="15">
+        <f t="shared" si="17"/>
+        <v>0.71115904332931568</v>
+      </c>
+      <c r="Q29" s="15">
+        <f t="shared" si="17"/>
+        <v>0.69993021632937902</v>
+      </c>
+      <c r="R29" s="15">
+        <f t="shared" si="17"/>
+        <v>0.66687813233521542</v>
+      </c>
+      <c r="S29" s="15">
+        <f t="shared" si="17"/>
+        <v>0.56562837023409263</v>
+      </c>
+      <c r="T29" s="15">
+        <f t="shared" si="17"/>
+        <v>0.30812662564232712</v>
+      </c>
+      <c r="W29" s="35">
+        <v>44331</v>
+      </c>
+      <c r="X29" s="36">
+        <f t="shared" si="18"/>
+        <v>269.73</v>
+      </c>
+      <c r="Y29" s="30" t="str">
+        <f t="shared" si="19"/>
+        <v>157.63
+(112.10)
+71.12%</v>
+      </c>
+      <c r="Z29" s="30" t="str">
+        <f t="shared" si="20"/>
+        <v>159.4
+(110.33)
+69.99%</v>
+      </c>
+      <c r="AA29" s="30" t="str">
+        <f t="shared" si="21"/>
+        <v>164.61
+(105.12)
+66.69%</v>
+      </c>
+      <c r="AB29" s="30" t="str">
+        <f t="shared" si="22"/>
+        <v>180.57
+(89.16)
+56.56%</v>
+      </c>
+      <c r="AC29" s="30" t="str">
+        <f t="shared" si="23"/>
+        <v>221.16
+(48.57)
+30.81%</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="W12:AC12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="W21:AC21"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AF4:AR4"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="AF12:AR12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2386155-6066-6546-919C-02C2CE578DE7}">
   <dimension ref="C1:L18"/>
   <sheetViews>
@@ -8857,7 +11689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AEE3FC-E657-E742-B477-48436277DFBE}">
   <dimension ref="A2:W23"/>
   <sheetViews>
@@ -9391,7 +12223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E766214-98C0-4A4F-A333-9D265D9A818E}">
   <dimension ref="B5:C44"/>
   <sheetViews>
@@ -9631,7 +12463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DF5461-E19E-644C-9379-AB0909192BB2}">
   <dimension ref="C2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -10226,10 +13058,3054 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C416DE0-A80D-2846-8A3A-08027D95899E}">
+  <dimension ref="C3:AD43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:AD43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="103"/>
+    <col min="3" max="3" width="26.5" style="103" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="295" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="295" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="356" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="356" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" style="295" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="295" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="356" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="356" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" style="356" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="293" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="294" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="295" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.83203125" style="103"/>
+    <col min="18" max="18" width="26.5" style="103" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.1640625" style="103" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="103" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" style="103" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" style="103" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.1640625" style="103" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5" style="103" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" style="103" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" style="103" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.83203125" style="103" customWidth="1"/>
+    <col min="28" max="28" width="12.5" style="103" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" style="103" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.83203125" style="103" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="103"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C3" s="287" t="s">
+        <v>568</v>
+      </c>
+      <c r="D3" s="287"/>
+      <c r="E3" s="287"/>
+      <c r="F3" s="287"/>
+      <c r="G3" s="287"/>
+      <c r="H3" s="287"/>
+      <c r="I3" s="287"/>
+      <c r="J3" s="287"/>
+      <c r="K3" s="287"/>
+      <c r="L3" s="287"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="287"/>
+      <c r="O3" s="287"/>
+      <c r="R3" s="287" t="s">
+        <v>569</v>
+      </c>
+      <c r="S3" s="287"/>
+      <c r="T3" s="287"/>
+      <c r="U3" s="287"/>
+      <c r="V3" s="287"/>
+      <c r="W3" s="287"/>
+      <c r="X3" s="287"/>
+      <c r="Y3" s="287"/>
+      <c r="Z3" s="287"/>
+      <c r="AA3" s="287"/>
+      <c r="AB3" s="287"/>
+      <c r="AC3" s="287"/>
+      <c r="AD3" s="287"/>
+    </row>
+    <row r="4" spans="3:30" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="288" t="s">
+        <v>570</v>
+      </c>
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288"/>
+      <c r="H4" s="289" t="s">
+        <v>571</v>
+      </c>
+      <c r="I4" s="290"/>
+      <c r="J4" s="290"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="291"/>
+      <c r="M4" s="292" t="s">
+        <v>562</v>
+      </c>
+      <c r="N4" s="292"/>
+      <c r="O4" s="292"/>
+      <c r="S4" s="288" t="s">
+        <v>570</v>
+      </c>
+      <c r="T4" s="288"/>
+      <c r="U4" s="288"/>
+      <c r="V4" s="288"/>
+      <c r="W4" s="289" t="s">
+        <v>571</v>
+      </c>
+      <c r="X4" s="290"/>
+      <c r="Y4" s="290"/>
+      <c r="Z4" s="290"/>
+      <c r="AA4" s="291"/>
+      <c r="AB4" s="292" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC4" s="292"/>
+      <c r="AD4" s="292"/>
+    </row>
+    <row r="5" spans="3:30" ht="24" x14ac:dyDescent="0.15">
+      <c r="C5" s="104" t="s">
+        <v>513</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>514</v>
+      </c>
+      <c r="E5" s="357" t="s">
+        <v>572</v>
+      </c>
+      <c r="F5" s="358" t="s">
+        <v>573</v>
+      </c>
+      <c r="G5" s="296" t="s">
+        <v>515</v>
+      </c>
+      <c r="H5" s="297" t="s">
+        <v>514</v>
+      </c>
+      <c r="I5" s="357" t="s">
+        <v>572</v>
+      </c>
+      <c r="J5" s="358" t="s">
+        <v>573</v>
+      </c>
+      <c r="K5" s="296" t="s">
+        <v>515</v>
+      </c>
+      <c r="L5" s="296"/>
+      <c r="M5" s="298" t="s">
+        <v>555</v>
+      </c>
+      <c r="N5" s="299" t="s">
+        <v>556</v>
+      </c>
+      <c r="O5" s="105" t="s">
+        <v>557</v>
+      </c>
+      <c r="R5" s="104" t="s">
+        <v>513</v>
+      </c>
+      <c r="S5" s="105" t="s">
+        <v>514</v>
+      </c>
+      <c r="T5" s="357" t="s">
+        <v>572</v>
+      </c>
+      <c r="U5" s="358" t="s">
+        <v>574</v>
+      </c>
+      <c r="V5" s="296" t="s">
+        <v>564</v>
+      </c>
+      <c r="W5" s="297" t="s">
+        <v>514</v>
+      </c>
+      <c r="X5" s="357" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y5" s="358" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z5" s="296" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA5" s="296"/>
+      <c r="AB5" s="298" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC5" s="299" t="s">
+        <v>566</v>
+      </c>
+      <c r="AD5" s="105" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="300" t="s">
+        <v>516</v>
+      </c>
+      <c r="D6" s="301">
+        <v>1</v>
+      </c>
+      <c r="E6" s="302">
+        <v>43995</v>
+      </c>
+      <c r="F6" s="303">
+        <v>198</v>
+      </c>
+      <c r="G6" s="303">
+        <v>9526</v>
+      </c>
+      <c r="H6" s="304">
+        <v>1</v>
+      </c>
+      <c r="I6" s="305">
+        <v>44303</v>
+      </c>
+      <c r="J6" s="306">
+        <v>362</v>
+      </c>
+      <c r="K6" s="306">
+        <v>10573</v>
+      </c>
+      <c r="L6" s="306"/>
+      <c r="M6" s="307">
+        <v>0.52604607000000003</v>
+      </c>
+      <c r="N6" s="308">
+        <v>1.62522495</v>
+      </c>
+      <c r="O6" s="309" t="s">
+        <v>558</v>
+      </c>
+      <c r="R6" s="300" t="s">
+        <v>523</v>
+      </c>
+      <c r="S6" s="301">
+        <v>1</v>
+      </c>
+      <c r="T6" s="302">
+        <v>44019</v>
+      </c>
+      <c r="U6" s="303">
+        <v>1</v>
+      </c>
+      <c r="V6" s="303">
+        <v>2</v>
+      </c>
+      <c r="W6" s="304">
+        <v>1</v>
+      </c>
+      <c r="X6" s="305">
+        <v>44301</v>
+      </c>
+      <c r="Y6" s="306">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="306">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="306"/>
+      <c r="AB6" s="307">
+        <v>0.5</v>
+      </c>
+      <c r="AC6" s="308">
+        <v>1.46428571428571</v>
+      </c>
+      <c r="AD6" s="309" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C7" s="311" t="s">
+        <v>517</v>
+      </c>
+      <c r="D7" s="312">
+        <v>2</v>
+      </c>
+      <c r="E7" s="313">
+        <v>44039</v>
+      </c>
+      <c r="F7" s="314">
+        <v>6993</v>
+      </c>
+      <c r="G7" s="314">
+        <v>803952</v>
+      </c>
+      <c r="H7" s="315">
+        <v>32</v>
+      </c>
+      <c r="I7" s="316">
+        <v>44337</v>
+      </c>
+      <c r="J7" s="317">
+        <v>36184</v>
+      </c>
+      <c r="K7" s="317">
+        <v>1714947</v>
+      </c>
+      <c r="L7" s="317"/>
+      <c r="M7" s="318">
+        <v>0.68083198</v>
+      </c>
+      <c r="N7" s="319">
+        <v>3.1235352299999999</v>
+      </c>
+      <c r="O7" s="320" t="s">
+        <v>559</v>
+      </c>
+      <c r="R7" s="311" t="s">
+        <v>551</v>
+      </c>
+      <c r="S7" s="312">
+        <v>2</v>
+      </c>
+      <c r="T7" s="313">
+        <v>44033</v>
+      </c>
+      <c r="U7" s="314">
+        <v>34</v>
+      </c>
+      <c r="V7" s="314">
+        <v>2955</v>
+      </c>
+      <c r="W7" s="315">
+        <v>4</v>
+      </c>
+      <c r="X7" s="316">
+        <v>44315</v>
+      </c>
+      <c r="Y7" s="317">
+        <v>180</v>
+      </c>
+      <c r="Z7" s="317">
+        <v>5433</v>
+      </c>
+      <c r="AA7" s="317"/>
+      <c r="AB7" s="318">
+        <v>0.64771101573676604</v>
+      </c>
+      <c r="AC7" s="319">
+        <v>2.7852834163155902</v>
+      </c>
+      <c r="AD7" s="320" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="300" t="s">
+        <v>518</v>
+      </c>
+      <c r="D8" s="301">
+        <v>3</v>
+      </c>
+      <c r="E8" s="302">
+        <v>44054</v>
+      </c>
+      <c r="F8" s="303">
+        <v>4071</v>
+      </c>
+      <c r="G8" s="303">
+        <v>255594</v>
+      </c>
+      <c r="H8" s="304">
+        <v>9</v>
+      </c>
+      <c r="I8" s="305">
+        <v>44316</v>
+      </c>
+      <c r="J8" s="306">
+        <v>15853</v>
+      </c>
+      <c r="K8" s="306">
+        <v>463145</v>
+      </c>
+      <c r="L8" s="306"/>
+      <c r="M8" s="307">
+        <v>0.64438550999999999</v>
+      </c>
+      <c r="N8" s="308">
+        <v>2.6533354</v>
+      </c>
+      <c r="O8" s="309" t="s">
+        <v>560</v>
+      </c>
+      <c r="R8" s="300" t="s">
+        <v>517</v>
+      </c>
+      <c r="S8" s="301">
+        <v>3</v>
+      </c>
+      <c r="T8" s="302">
+        <v>44034</v>
+      </c>
+      <c r="U8" s="303">
+        <v>518</v>
+      </c>
+      <c r="V8" s="303">
+        <v>11997</v>
+      </c>
+      <c r="W8" s="304">
+        <v>36</v>
+      </c>
+      <c r="X8" s="305">
+        <v>44346</v>
+      </c>
+      <c r="Y8" s="306">
+        <v>493</v>
+      </c>
+      <c r="Z8" s="306">
+        <v>11819</v>
+      </c>
+      <c r="AA8" s="306"/>
+      <c r="AB8" s="307">
+        <v>0.49626301645952298</v>
+      </c>
+      <c r="AC8" s="308">
+        <v>2.6333074405255998</v>
+      </c>
+      <c r="AD8" s="309" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C9" s="311" t="s">
+        <v>519</v>
+      </c>
+      <c r="D9" s="312">
+        <v>4</v>
+      </c>
+      <c r="E9" s="313">
+        <v>44055</v>
+      </c>
+      <c r="F9" s="314">
+        <v>4593</v>
+      </c>
+      <c r="G9" s="314">
+        <v>213492</v>
+      </c>
+      <c r="H9" s="315">
+        <v>29</v>
+      </c>
+      <c r="I9" s="316">
+        <v>44336</v>
+      </c>
+      <c r="J9" s="317">
+        <v>6573</v>
+      </c>
+      <c r="K9" s="317">
+        <v>348910</v>
+      </c>
+      <c r="L9" s="317"/>
+      <c r="M9" s="318">
+        <v>0.62039253000000005</v>
+      </c>
+      <c r="N9" s="319">
+        <v>2.3919395099999998</v>
+      </c>
+      <c r="O9" s="320" t="s">
+        <v>560</v>
+      </c>
+      <c r="R9" s="311" t="s">
+        <v>525</v>
+      </c>
+      <c r="S9" s="312">
+        <v>4</v>
+      </c>
+      <c r="T9" s="313">
+        <v>44043</v>
+      </c>
+      <c r="U9" s="314">
+        <v>14</v>
+      </c>
+      <c r="V9" s="314">
+        <v>1436</v>
+      </c>
+      <c r="W9" s="315">
+        <v>10</v>
+      </c>
+      <c r="X9" s="316">
+        <v>44323</v>
+      </c>
+      <c r="Y9" s="317">
+        <v>87</v>
+      </c>
+      <c r="Z9" s="317">
+        <v>1667</v>
+      </c>
+      <c r="AA9" s="317"/>
+      <c r="AB9" s="318">
+        <v>0.53722204318401501</v>
+      </c>
+      <c r="AC9" s="319">
+        <v>2.2249007936507899</v>
+      </c>
+      <c r="AD9" s="320" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="300" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="301">
+        <v>5</v>
+      </c>
+      <c r="E10" s="302">
+        <v>44057</v>
+      </c>
+      <c r="F10" s="303">
+        <v>149</v>
+      </c>
+      <c r="G10" s="303">
+        <v>4967</v>
+      </c>
+      <c r="H10" s="304">
+        <v>11</v>
+      </c>
+      <c r="I10" s="305">
+        <v>44317</v>
+      </c>
+      <c r="J10" s="306">
+        <v>97</v>
+      </c>
+      <c r="K10" s="306">
+        <v>2528</v>
+      </c>
+      <c r="L10" s="306"/>
+      <c r="M10" s="307">
+        <v>0.33729153000000001</v>
+      </c>
+      <c r="N10" s="308" t="s">
+        <v>521</v>
+      </c>
+      <c r="O10" s="301" t="s">
+        <v>521</v>
+      </c>
+      <c r="R10" s="300" t="s">
+        <v>524</v>
+      </c>
+      <c r="S10" s="301">
+        <v>5</v>
+      </c>
+      <c r="T10" s="302">
+        <v>44051</v>
+      </c>
+      <c r="U10" s="303">
+        <v>97</v>
+      </c>
+      <c r="V10" s="303">
+        <v>7080</v>
+      </c>
+      <c r="W10" s="304">
+        <v>26</v>
+      </c>
+      <c r="X10" s="305">
+        <v>44338</v>
+      </c>
+      <c r="Y10" s="306">
+        <v>118</v>
+      </c>
+      <c r="Z10" s="306">
+        <v>3768</v>
+      </c>
+      <c r="AA10" s="306"/>
+      <c r="AB10" s="307">
+        <v>0.34734513274336198</v>
+      </c>
+      <c r="AC10" s="308">
+        <v>1.2850233993625699</v>
+      </c>
+      <c r="AD10" s="321" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C11" s="311" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" s="312">
+        <v>6</v>
+      </c>
+      <c r="E11" s="313">
+        <v>44057</v>
+      </c>
+      <c r="F11" s="314">
+        <v>149</v>
+      </c>
+      <c r="G11" s="314">
+        <v>6067</v>
+      </c>
+      <c r="H11" s="315">
+        <v>34</v>
+      </c>
+      <c r="I11" s="316">
+        <v>44344</v>
+      </c>
+      <c r="J11" s="317">
+        <v>420</v>
+      </c>
+      <c r="K11" s="317">
+        <v>20432</v>
+      </c>
+      <c r="L11" s="317"/>
+      <c r="M11" s="318">
+        <v>0.77104795999999998</v>
+      </c>
+      <c r="N11" s="319">
+        <v>4.9427202599999998</v>
+      </c>
+      <c r="O11" s="320" t="s">
+        <v>561</v>
+      </c>
+      <c r="R11" s="311" t="s">
+        <v>526</v>
+      </c>
+      <c r="S11" s="312">
+        <v>6</v>
+      </c>
+      <c r="T11" s="313">
+        <v>44052</v>
+      </c>
+      <c r="U11" s="314">
+        <v>17</v>
+      </c>
+      <c r="V11" s="314">
+        <v>1074</v>
+      </c>
+      <c r="W11" s="315">
+        <v>6</v>
+      </c>
+      <c r="X11" s="316">
+        <v>44317</v>
+      </c>
+      <c r="Y11" s="317">
+        <v>169</v>
+      </c>
+      <c r="Z11" s="317">
+        <v>3909</v>
+      </c>
+      <c r="AA11" s="317"/>
+      <c r="AB11" s="318">
+        <v>0.78446718844069796</v>
+      </c>
+      <c r="AC11" s="319">
+        <v>5.5162942271880802</v>
+      </c>
+      <c r="AD11" s="320" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="12" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="300" t="s">
+        <v>523</v>
+      </c>
+      <c r="D12" s="301">
+        <v>7</v>
+      </c>
+      <c r="E12" s="302">
+        <v>44058</v>
+      </c>
+      <c r="F12" s="303">
+        <v>64</v>
+      </c>
+      <c r="G12" s="303">
+        <v>3349</v>
+      </c>
+      <c r="H12" s="304">
+        <v>4</v>
+      </c>
+      <c r="I12" s="305">
+        <v>44308</v>
+      </c>
+      <c r="J12" s="306">
+        <v>359</v>
+      </c>
+      <c r="K12" s="306">
+        <v>7134</v>
+      </c>
+      <c r="L12" s="306"/>
+      <c r="M12" s="307">
+        <v>0.68053037999999999</v>
+      </c>
+      <c r="N12" s="308">
+        <v>3.1762593799999999</v>
+      </c>
+      <c r="O12" s="309" t="s">
+        <v>559</v>
+      </c>
+      <c r="R12" s="300" t="s">
+        <v>520</v>
+      </c>
+      <c r="S12" s="301">
+        <v>7</v>
+      </c>
+      <c r="T12" s="302">
+        <v>44059</v>
+      </c>
+      <c r="U12" s="303">
+        <v>4</v>
+      </c>
+      <c r="V12" s="303">
+        <v>62</v>
+      </c>
+      <c r="W12" s="304">
+        <v>33</v>
+      </c>
+      <c r="X12" s="305">
+        <v>44344</v>
+      </c>
+      <c r="Y12" s="306">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="306">
+        <v>53</v>
+      </c>
+      <c r="AA12" s="306"/>
+      <c r="AB12" s="307">
+        <v>0.46086956521739098</v>
+      </c>
+      <c r="AC12" s="308" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD12" s="309" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C13" s="311" t="s">
+        <v>524</v>
+      </c>
+      <c r="D13" s="312">
+        <v>8</v>
+      </c>
+      <c r="E13" s="313">
+        <v>44069</v>
+      </c>
+      <c r="F13" s="314">
+        <v>10830</v>
+      </c>
+      <c r="G13" s="314">
+        <v>883178</v>
+      </c>
+      <c r="H13" s="315">
+        <v>27</v>
+      </c>
+      <c r="I13" s="316">
+        <v>44332</v>
+      </c>
+      <c r="J13" s="317">
+        <v>24171</v>
+      </c>
+      <c r="K13" s="317">
+        <v>1077361</v>
+      </c>
+      <c r="L13" s="317"/>
+      <c r="M13" s="318">
+        <v>0.54952285999999995</v>
+      </c>
+      <c r="N13" s="319">
+        <v>1.7862359800000001</v>
+      </c>
+      <c r="O13" s="320" t="s">
+        <v>558</v>
+      </c>
+      <c r="R13" s="311" t="s">
+        <v>518</v>
+      </c>
+      <c r="S13" s="312">
+        <v>8</v>
+      </c>
+      <c r="T13" s="313">
+        <v>44059</v>
+      </c>
+      <c r="U13" s="314">
+        <v>22</v>
+      </c>
+      <c r="V13" s="314">
+        <v>1488</v>
+      </c>
+      <c r="W13" s="315">
+        <v>20</v>
+      </c>
+      <c r="X13" s="316">
+        <v>44334</v>
+      </c>
+      <c r="Y13" s="317">
+        <v>111</v>
+      </c>
+      <c r="Z13" s="317">
+        <v>3639</v>
+      </c>
+      <c r="AA13" s="317"/>
+      <c r="AB13" s="318">
+        <v>0.70977179637214705</v>
+      </c>
+      <c r="AC13" s="319">
+        <v>7.9842415811186802</v>
+      </c>
+      <c r="AD13" s="320" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="300" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" s="301">
+        <v>9</v>
+      </c>
+      <c r="E14" s="302">
+        <v>44069</v>
+      </c>
+      <c r="F14" s="303">
+        <v>3018</v>
+      </c>
+      <c r="G14" s="303">
+        <v>291434</v>
+      </c>
+      <c r="H14" s="304">
+        <v>18</v>
+      </c>
+      <c r="I14" s="305">
+        <v>44323</v>
+      </c>
+      <c r="J14" s="306">
+        <v>11451</v>
+      </c>
+      <c r="K14" s="306">
+        <v>348523</v>
+      </c>
+      <c r="L14" s="306"/>
+      <c r="M14" s="307">
+        <v>0.54460377999999998</v>
+      </c>
+      <c r="N14" s="308">
+        <v>1.74806555</v>
+      </c>
+      <c r="O14" s="309" t="s">
+        <v>558</v>
+      </c>
+      <c r="R14" s="300" t="s">
+        <v>536</v>
+      </c>
+      <c r="S14" s="301">
+        <v>9</v>
+      </c>
+      <c r="T14" s="302">
+        <v>44076</v>
+      </c>
+      <c r="U14" s="303">
+        <v>106</v>
+      </c>
+      <c r="V14" s="303">
+        <v>5630</v>
+      </c>
+      <c r="W14" s="304">
+        <v>23</v>
+      </c>
+      <c r="X14" s="305">
+        <v>44334</v>
+      </c>
+      <c r="Y14" s="306">
+        <v>231</v>
+      </c>
+      <c r="Z14" s="306">
+        <v>8856</v>
+      </c>
+      <c r="AA14" s="306"/>
+      <c r="AB14" s="307">
+        <v>0.61134888858207903</v>
+      </c>
+      <c r="AC14" s="308">
+        <v>2.7561648527285199</v>
+      </c>
+      <c r="AD14" s="309" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C15" s="311" t="s">
+        <v>526</v>
+      </c>
+      <c r="D15" s="312">
+        <v>10</v>
+      </c>
+      <c r="E15" s="313">
+        <v>44074</v>
+      </c>
+      <c r="F15" s="314">
+        <v>3221</v>
+      </c>
+      <c r="G15" s="314">
+        <v>117602</v>
+      </c>
+      <c r="H15" s="315">
+        <v>8</v>
+      </c>
+      <c r="I15" s="316">
+        <v>44314</v>
+      </c>
+      <c r="J15" s="317">
+        <v>8075</v>
+      </c>
+      <c r="K15" s="317">
+        <v>227889</v>
+      </c>
+      <c r="L15" s="317"/>
+      <c r="M15" s="318">
+        <v>0.65960907999999996</v>
+      </c>
+      <c r="N15" s="319">
+        <v>2.8369002999999999</v>
+      </c>
+      <c r="O15" s="320" t="s">
+        <v>560</v>
+      </c>
+      <c r="R15" s="311" t="s">
+        <v>538</v>
+      </c>
+      <c r="S15" s="312">
+        <v>10</v>
+      </c>
+      <c r="T15" s="313">
+        <v>44078</v>
+      </c>
+      <c r="U15" s="314">
+        <v>20</v>
+      </c>
+      <c r="V15" s="314">
+        <v>653</v>
+      </c>
+      <c r="W15" s="315">
+        <v>29</v>
+      </c>
+      <c r="X15" s="316">
+        <v>44339</v>
+      </c>
+      <c r="Y15" s="317">
+        <v>34</v>
+      </c>
+      <c r="Z15" s="317">
+        <v>880</v>
+      </c>
+      <c r="AA15" s="317"/>
+      <c r="AB15" s="318">
+        <v>0.57403783431180599</v>
+      </c>
+      <c r="AC15" s="319" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD15" s="320" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="16" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="300" t="s">
+        <v>527</v>
+      </c>
+      <c r="D16" s="301">
+        <v>11</v>
+      </c>
+      <c r="E16" s="302">
+        <v>44079</v>
+      </c>
+      <c r="F16" s="303">
+        <v>691</v>
+      </c>
+      <c r="G16" s="303">
+        <v>32387</v>
+      </c>
+      <c r="H16" s="304">
+        <v>28</v>
+      </c>
+      <c r="I16" s="305">
+        <v>44335</v>
+      </c>
+      <c r="J16" s="306">
+        <v>879</v>
+      </c>
+      <c r="K16" s="306">
+        <v>45008</v>
+      </c>
+      <c r="L16" s="306"/>
+      <c r="M16" s="307">
+        <v>0.58153626999999997</v>
+      </c>
+      <c r="N16" s="308">
+        <v>2.0349081899999999</v>
+      </c>
+      <c r="O16" s="309" t="s">
+        <v>560</v>
+      </c>
+      <c r="R16" s="300" t="s">
+        <v>553</v>
+      </c>
+      <c r="S16" s="301">
+        <v>11</v>
+      </c>
+      <c r="T16" s="302">
+        <v>44083</v>
+      </c>
+      <c r="U16" s="303">
+        <v>70</v>
+      </c>
+      <c r="V16" s="303">
+        <v>3765</v>
+      </c>
+      <c r="W16" s="304">
+        <v>2</v>
+      </c>
+      <c r="X16" s="305">
+        <v>44314</v>
+      </c>
+      <c r="Y16" s="306">
+        <v>279</v>
+      </c>
+      <c r="Z16" s="306">
+        <v>9277</v>
+      </c>
+      <c r="AA16" s="306"/>
+      <c r="AB16" s="307">
+        <v>0.71131728262536398</v>
+      </c>
+      <c r="AC16" s="308">
+        <v>3.79314171883893</v>
+      </c>
+      <c r="AD16" s="309" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C17" s="311" t="s">
+        <v>528</v>
+      </c>
+      <c r="D17" s="312">
+        <v>12</v>
+      </c>
+      <c r="E17" s="313">
+        <v>44084</v>
+      </c>
+      <c r="F17" s="314">
+        <v>141</v>
+      </c>
+      <c r="G17" s="314">
+        <v>4288</v>
+      </c>
+      <c r="H17" s="315">
+        <v>37</v>
+      </c>
+      <c r="I17" s="316">
+        <v>44403</v>
+      </c>
+      <c r="J17" s="317">
+        <v>1369</v>
+      </c>
+      <c r="K17" s="317">
+        <v>33672</v>
+      </c>
+      <c r="L17" s="317"/>
+      <c r="M17" s="318">
+        <v>0.88703898999999997</v>
+      </c>
+      <c r="N17" s="319">
+        <v>11.4984675</v>
+      </c>
+      <c r="O17" s="312" t="s">
+        <v>542</v>
+      </c>
+      <c r="R17" s="311" t="s">
+        <v>522</v>
+      </c>
+      <c r="S17" s="312">
+        <v>12</v>
+      </c>
+      <c r="T17" s="313">
+        <v>44085</v>
+      </c>
+      <c r="U17" s="314">
+        <v>4</v>
+      </c>
+      <c r="V17" s="314">
+        <v>135</v>
+      </c>
+      <c r="W17" s="315">
+        <v>14</v>
+      </c>
+      <c r="X17" s="316">
+        <v>44329</v>
+      </c>
+      <c r="Y17" s="317">
+        <v>9</v>
+      </c>
+      <c r="Z17" s="317">
+        <v>118</v>
+      </c>
+      <c r="AA17" s="317"/>
+      <c r="AB17" s="318">
+        <v>0.466403162055336</v>
+      </c>
+      <c r="AC17" s="319">
+        <v>2.2669312169312201</v>
+      </c>
+      <c r="AD17" s="322" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="300" t="s">
+        <v>529</v>
+      </c>
+      <c r="D18" s="301">
+        <v>13</v>
+      </c>
+      <c r="E18" s="302">
+        <v>44085</v>
+      </c>
+      <c r="F18" s="303">
+        <v>24886</v>
+      </c>
+      <c r="G18" s="303">
+        <v>1964959</v>
+      </c>
+      <c r="H18" s="304">
+        <v>2</v>
+      </c>
+      <c r="I18" s="305">
+        <v>44304</v>
+      </c>
+      <c r="J18" s="306">
+        <v>68631</v>
+      </c>
+      <c r="K18" s="306">
+        <v>4243529</v>
+      </c>
+      <c r="L18" s="306"/>
+      <c r="M18" s="307">
+        <v>0.68350442</v>
+      </c>
+      <c r="N18" s="308">
+        <v>3.1718204000000001</v>
+      </c>
+      <c r="O18" s="309" t="s">
+        <v>559</v>
+      </c>
+      <c r="R18" s="300" t="s">
+        <v>519</v>
+      </c>
+      <c r="S18" s="301">
+        <v>13</v>
+      </c>
+      <c r="T18" s="302">
+        <v>44086</v>
+      </c>
+      <c r="U18" s="303">
+        <v>23</v>
+      </c>
+      <c r="V18" s="303">
+        <v>1085</v>
+      </c>
+      <c r="W18" s="304">
+        <v>16</v>
+      </c>
+      <c r="X18" s="305">
+        <v>44333</v>
+      </c>
+      <c r="Y18" s="306">
+        <v>92</v>
+      </c>
+      <c r="Z18" s="306">
+        <v>2278</v>
+      </c>
+      <c r="AA18" s="306"/>
+      <c r="AB18" s="307">
+        <v>0.67737139458816498</v>
+      </c>
+      <c r="AC18" s="308">
+        <v>5.6630808950086102</v>
+      </c>
+      <c r="AD18" s="309" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C19" s="311" t="s">
+        <v>530</v>
+      </c>
+      <c r="D19" s="312">
+        <v>14</v>
+      </c>
+      <c r="E19" s="313">
+        <v>44085</v>
+      </c>
+      <c r="F19" s="314">
+        <v>310</v>
+      </c>
+      <c r="G19" s="314">
+        <v>11990</v>
+      </c>
+      <c r="H19" s="315">
+        <v>25</v>
+      </c>
+      <c r="I19" s="316">
+        <v>44329</v>
+      </c>
+      <c r="J19" s="317">
+        <v>366</v>
+      </c>
+      <c r="K19" s="317">
+        <v>15689</v>
+      </c>
+      <c r="L19" s="317"/>
+      <c r="M19" s="318">
+        <v>0.56681961000000003</v>
+      </c>
+      <c r="N19" s="319">
+        <v>1.91013375</v>
+      </c>
+      <c r="O19" s="320" t="s">
+        <v>558</v>
+      </c>
+      <c r="R19" s="311" t="s">
+        <v>527</v>
+      </c>
+      <c r="S19" s="312">
+        <v>14</v>
+      </c>
+      <c r="T19" s="313">
+        <v>44087</v>
+      </c>
+      <c r="U19" s="314">
+        <v>12</v>
+      </c>
+      <c r="V19" s="314">
+        <v>387</v>
+      </c>
+      <c r="W19" s="315">
+        <v>35</v>
+      </c>
+      <c r="X19" s="316">
+        <v>44345</v>
+      </c>
+      <c r="Y19" s="317">
+        <v>13</v>
+      </c>
+      <c r="Z19" s="317">
+        <v>122</v>
+      </c>
+      <c r="AA19" s="317"/>
+      <c r="AB19" s="318">
+        <v>0.239685658153241</v>
+      </c>
+      <c r="AC19" s="319">
+        <v>1.37726098191214</v>
+      </c>
+      <c r="AD19" s="320" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="20" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="300" t="s">
+        <v>531</v>
+      </c>
+      <c r="D20" s="301">
+        <v>15</v>
+      </c>
+      <c r="E20" s="302">
+        <v>44085</v>
+      </c>
+      <c r="F20" s="303">
+        <v>7016</v>
+      </c>
+      <c r="G20" s="303">
+        <v>589473</v>
+      </c>
+      <c r="H20" s="304">
+        <v>6</v>
+      </c>
+      <c r="I20" s="305">
+        <v>44310</v>
+      </c>
+      <c r="J20" s="306">
+        <v>37944</v>
+      </c>
+      <c r="K20" s="306">
+        <v>1106352</v>
+      </c>
+      <c r="L20" s="306"/>
+      <c r="M20" s="307">
+        <v>0.65239751000000001</v>
+      </c>
+      <c r="N20" s="308">
+        <v>2.74824365</v>
+      </c>
+      <c r="O20" s="309" t="s">
+        <v>560</v>
+      </c>
+      <c r="R20" s="300" t="s">
+        <v>532</v>
+      </c>
+      <c r="S20" s="301">
+        <v>15</v>
+      </c>
+      <c r="T20" s="302">
+        <v>44088</v>
+      </c>
+      <c r="U20" s="303">
+        <v>14</v>
+      </c>
+      <c r="V20" s="303">
+        <v>778</v>
+      </c>
+      <c r="W20" s="304">
+        <v>12</v>
+      </c>
+      <c r="X20" s="305">
+        <v>44327</v>
+      </c>
+      <c r="Y20" s="306">
+        <v>75</v>
+      </c>
+      <c r="Z20" s="306">
+        <v>1871</v>
+      </c>
+      <c r="AA20" s="306"/>
+      <c r="AB20" s="307">
+        <v>0.70630426576066396</v>
+      </c>
+      <c r="AC20" s="308">
+        <v>4.4587311788468602</v>
+      </c>
+      <c r="AD20" s="309" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C21" s="311" t="s">
+        <v>532</v>
+      </c>
+      <c r="D21" s="312">
+        <v>16</v>
+      </c>
+      <c r="E21" s="313">
+        <v>44086</v>
+      </c>
+      <c r="F21" s="314">
+        <v>740</v>
+      </c>
+      <c r="G21" s="314">
+        <v>53730</v>
+      </c>
+      <c r="H21" s="315">
+        <v>16</v>
+      </c>
+      <c r="I21" s="316">
+        <v>44323</v>
+      </c>
+      <c r="J21" s="317">
+        <v>4195</v>
+      </c>
+      <c r="K21" s="317">
+        <v>116953</v>
+      </c>
+      <c r="L21" s="317"/>
+      <c r="M21" s="318">
+        <v>0.68520590999999997</v>
+      </c>
+      <c r="N21" s="319">
+        <v>3.1872809800000002</v>
+      </c>
+      <c r="O21" s="320" t="s">
+        <v>559</v>
+      </c>
+      <c r="R21" s="323" t="s">
+        <v>535</v>
+      </c>
+      <c r="S21" s="324">
+        <v>16</v>
+      </c>
+      <c r="T21" s="325">
+        <v>44089</v>
+      </c>
+      <c r="U21" s="326">
+        <v>1281</v>
+      </c>
+      <c r="V21" s="326">
+        <v>144194</v>
+      </c>
+      <c r="W21" s="327">
+        <v>19</v>
+      </c>
+      <c r="X21" s="328">
+        <v>44334</v>
+      </c>
+      <c r="Y21" s="329">
+        <v>4529</v>
+      </c>
+      <c r="Z21" s="329">
+        <v>176233</v>
+      </c>
+      <c r="AA21" s="329"/>
+      <c r="AB21" s="330">
+        <v>0.54999422645407503</v>
+      </c>
+      <c r="AC21" s="331">
+        <v>2.6804339046061898</v>
+      </c>
+      <c r="AD21" s="332" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="300" t="s">
+        <v>533</v>
+      </c>
+      <c r="D22" s="301">
+        <v>17</v>
+      </c>
+      <c r="E22" s="302">
+        <v>44086</v>
+      </c>
+      <c r="F22" s="303">
+        <v>1698</v>
+      </c>
+      <c r="G22" s="303">
+        <v>120538</v>
+      </c>
+      <c r="H22" s="304">
+        <v>17</v>
+      </c>
+      <c r="I22" s="305">
+        <v>44323</v>
+      </c>
+      <c r="J22" s="306">
+        <v>5443</v>
+      </c>
+      <c r="K22" s="306">
+        <v>196194</v>
+      </c>
+      <c r="L22" s="306"/>
+      <c r="M22" s="307">
+        <v>0.61943219999999999</v>
+      </c>
+      <c r="N22" s="308" t="s">
+        <v>521</v>
+      </c>
+      <c r="O22" s="301" t="s">
+        <v>521</v>
+      </c>
+      <c r="R22" s="300" t="s">
+        <v>529</v>
+      </c>
+      <c r="S22" s="301">
+        <v>17</v>
+      </c>
+      <c r="T22" s="302">
+        <v>44089</v>
+      </c>
+      <c r="U22" s="303">
+        <v>515</v>
+      </c>
+      <c r="V22" s="303">
+        <v>46268</v>
+      </c>
+      <c r="W22" s="304">
+        <v>28</v>
+      </c>
+      <c r="X22" s="305">
+        <v>44339</v>
+      </c>
+      <c r="Y22" s="306">
+        <v>1320</v>
+      </c>
+      <c r="Z22" s="306">
+        <v>43855</v>
+      </c>
+      <c r="AA22" s="306"/>
+      <c r="AB22" s="307">
+        <v>0.48661274036594399</v>
+      </c>
+      <c r="AC22" s="308">
+        <v>2.4920320929175501</v>
+      </c>
+      <c r="AD22" s="321" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C23" s="311" t="s">
+        <v>534</v>
+      </c>
+      <c r="D23" s="312">
+        <v>18</v>
+      </c>
+      <c r="E23" s="313">
+        <v>44087</v>
+      </c>
+      <c r="F23" s="314">
+        <v>449</v>
+      </c>
+      <c r="G23" s="314">
+        <v>20875</v>
+      </c>
+      <c r="H23" s="315">
+        <v>22</v>
+      </c>
+      <c r="I23" s="316">
+        <v>44325</v>
+      </c>
+      <c r="J23" s="317">
+        <v>895</v>
+      </c>
+      <c r="K23" s="317">
+        <v>40733</v>
+      </c>
+      <c r="L23" s="317"/>
+      <c r="M23" s="318">
+        <v>0.66116412999999996</v>
+      </c>
+      <c r="N23" s="319">
+        <v>2.8572335299999998</v>
+      </c>
+      <c r="O23" s="320" t="s">
+        <v>560</v>
+      </c>
+      <c r="R23" s="311" t="s">
+        <v>531</v>
+      </c>
+      <c r="S23" s="312">
+        <v>18</v>
+      </c>
+      <c r="T23" s="313">
+        <v>44089</v>
+      </c>
+      <c r="U23" s="314">
+        <v>113</v>
+      </c>
+      <c r="V23" s="314">
+        <v>8316</v>
+      </c>
+      <c r="W23" s="315">
+        <v>11</v>
+      </c>
+      <c r="X23" s="316">
+        <v>44323</v>
+      </c>
+      <c r="Y23" s="317">
+        <v>372</v>
+      </c>
+      <c r="Z23" s="317">
+        <v>11798</v>
+      </c>
+      <c r="AA23" s="317"/>
+      <c r="AB23" s="318">
+        <v>0.58655662722481805</v>
+      </c>
+      <c r="AC23" s="319">
+        <v>2.46981812883541</v>
+      </c>
+      <c r="AD23" s="320" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="333" t="s">
+        <v>535</v>
+      </c>
+      <c r="D24" s="334">
+        <v>19</v>
+      </c>
+      <c r="E24" s="335">
+        <v>44090</v>
+      </c>
+      <c r="F24" s="336">
+        <v>97860</v>
+      </c>
+      <c r="G24" s="336">
+        <v>10595100</v>
+      </c>
+      <c r="H24" s="337">
+        <v>15</v>
+      </c>
+      <c r="I24" s="338">
+        <v>44322</v>
+      </c>
+      <c r="J24" s="339">
+        <v>414280</v>
+      </c>
+      <c r="K24" s="339">
+        <v>20749826</v>
+      </c>
+      <c r="L24" s="339"/>
+      <c r="M24" s="340">
+        <v>0.66198356999999997</v>
+      </c>
+      <c r="N24" s="341">
+        <v>2.86770806</v>
+      </c>
+      <c r="O24" s="342" t="s">
+        <v>560</v>
+      </c>
+      <c r="R24" s="300" t="s">
+        <v>543</v>
+      </c>
+      <c r="S24" s="301">
+        <v>19</v>
+      </c>
+      <c r="T24" s="302">
+        <v>44092</v>
+      </c>
+      <c r="U24" s="303">
+        <v>179</v>
+      </c>
+      <c r="V24" s="303">
+        <v>12184</v>
+      </c>
+      <c r="W24" s="304">
+        <v>27</v>
+      </c>
+      <c r="X24" s="305">
+        <v>44339</v>
+      </c>
+      <c r="Y24" s="306">
+        <v>624</v>
+      </c>
+      <c r="Z24" s="306">
+        <v>16827</v>
+      </c>
+      <c r="AA24" s="306"/>
+      <c r="AB24" s="307">
+        <v>0.58002137120402597</v>
+      </c>
+      <c r="AC24" s="308">
+        <v>2.9197996529975798</v>
+      </c>
+      <c r="AD24" s="309" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C25" s="311" t="s">
+        <v>536</v>
+      </c>
+      <c r="D25" s="312">
+        <v>20</v>
+      </c>
+      <c r="E25" s="313">
+        <v>44091</v>
+      </c>
+      <c r="F25" s="314">
+        <v>2848</v>
+      </c>
+      <c r="G25" s="314">
+        <v>173078</v>
+      </c>
+      <c r="H25" s="315">
+        <v>21</v>
+      </c>
+      <c r="I25" s="316">
+        <v>44324</v>
+      </c>
+      <c r="J25" s="317">
+        <v>9042</v>
+      </c>
+      <c r="K25" s="317">
+        <v>423040</v>
+      </c>
+      <c r="L25" s="317"/>
+      <c r="M25" s="318">
+        <v>0.70965814999999999</v>
+      </c>
+      <c r="N25" s="319">
+        <v>3.57903043</v>
+      </c>
+      <c r="O25" s="320" t="s">
+        <v>559</v>
+      </c>
+      <c r="R25" s="311" t="s">
+        <v>533</v>
+      </c>
+      <c r="S25" s="312">
+        <v>20</v>
+      </c>
+      <c r="T25" s="313">
+        <v>44095</v>
+      </c>
+      <c r="U25" s="314">
+        <v>23</v>
+      </c>
+      <c r="V25" s="314">
+        <v>1895</v>
+      </c>
+      <c r="W25" s="315">
+        <v>17</v>
+      </c>
+      <c r="X25" s="316">
+        <v>44333</v>
+      </c>
+      <c r="Y25" s="317">
+        <v>73</v>
+      </c>
+      <c r="Z25" s="317">
+        <v>1958</v>
+      </c>
+      <c r="AA25" s="317"/>
+      <c r="AB25" s="318">
+        <v>0.50817544770308798</v>
+      </c>
+      <c r="AC25" s="319" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD25" s="320" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="300" t="s">
+        <v>537</v>
+      </c>
+      <c r="D26" s="301">
+        <v>21</v>
+      </c>
+      <c r="E26" s="302">
+        <v>44093</v>
+      </c>
+      <c r="F26" s="303">
+        <v>2078</v>
+      </c>
+      <c r="G26" s="303">
+        <v>95042</v>
+      </c>
+      <c r="H26" s="304">
+        <v>19</v>
+      </c>
+      <c r="I26" s="305">
+        <v>44323</v>
+      </c>
+      <c r="J26" s="306">
+        <v>9642</v>
+      </c>
+      <c r="K26" s="306">
+        <v>245747</v>
+      </c>
+      <c r="L26" s="306"/>
+      <c r="M26" s="307">
+        <v>0.72111188999999998</v>
+      </c>
+      <c r="N26" s="308">
+        <v>3.7803937099999998</v>
+      </c>
+      <c r="O26" s="309" t="s">
+        <v>559</v>
+      </c>
+      <c r="R26" s="300" t="s">
+        <v>534</v>
+      </c>
+      <c r="S26" s="301">
+        <v>21</v>
+      </c>
+      <c r="T26" s="302">
+        <v>44097</v>
+      </c>
+      <c r="U26" s="303">
+        <v>10</v>
+      </c>
+      <c r="V26" s="303">
+        <v>340</v>
+      </c>
+      <c r="W26" s="304">
+        <v>8</v>
+      </c>
+      <c r="X26" s="305">
+        <v>44321</v>
+      </c>
+      <c r="Y26" s="306">
+        <v>14</v>
+      </c>
+      <c r="Z26" s="306">
+        <v>408</v>
+      </c>
+      <c r="AA26" s="306"/>
+      <c r="AB26" s="307">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="AC26" s="308">
+        <v>2.0069327731092401</v>
+      </c>
+      <c r="AD26" s="309" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C27" s="311" t="s">
+        <v>538</v>
+      </c>
+      <c r="D27" s="312">
+        <v>22</v>
+      </c>
+      <c r="E27" s="313">
+        <v>44098</v>
+      </c>
+      <c r="F27" s="314">
+        <v>668</v>
+      </c>
+      <c r="G27" s="314">
+        <v>39279</v>
+      </c>
+      <c r="H27" s="315">
+        <v>23</v>
+      </c>
+      <c r="I27" s="316">
+        <v>44327</v>
+      </c>
+      <c r="J27" s="317">
+        <v>2049</v>
+      </c>
+      <c r="K27" s="317">
+        <v>81475</v>
+      </c>
+      <c r="L27" s="317"/>
+      <c r="M27" s="318">
+        <v>0.67471884999999998</v>
+      </c>
+      <c r="N27" s="319" t="s">
+        <v>521</v>
+      </c>
+      <c r="O27" s="312" t="s">
+        <v>521</v>
+      </c>
+      <c r="R27" s="311" t="s">
+        <v>545</v>
+      </c>
+      <c r="S27" s="312">
+        <v>22</v>
+      </c>
+      <c r="T27" s="313">
+        <v>44098</v>
+      </c>
+      <c r="U27" s="314">
+        <v>45</v>
+      </c>
+      <c r="V27" s="314">
+        <v>3378</v>
+      </c>
+      <c r="W27" s="315">
+        <v>3</v>
+      </c>
+      <c r="X27" s="316">
+        <v>44314</v>
+      </c>
+      <c r="Y27" s="317">
+        <v>105</v>
+      </c>
+      <c r="Z27" s="317">
+        <v>4238</v>
+      </c>
+      <c r="AA27" s="317"/>
+      <c r="AB27" s="318">
+        <v>0.55646008403361302</v>
+      </c>
+      <c r="AC27" s="319">
+        <v>2.88795683513889</v>
+      </c>
+      <c r="AD27" s="322" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="300" t="s">
+        <v>539</v>
+      </c>
+      <c r="D28" s="301">
+        <v>23</v>
+      </c>
+      <c r="E28" s="302">
+        <v>44100</v>
+      </c>
+      <c r="F28" s="303">
+        <v>4356</v>
+      </c>
+      <c r="G28" s="303">
+        <v>332603</v>
+      </c>
+      <c r="H28" s="304">
+        <v>33</v>
+      </c>
+      <c r="I28" s="305">
+        <v>44339</v>
+      </c>
+      <c r="J28" s="306">
+        <v>12852</v>
+      </c>
+      <c r="K28" s="306">
+        <v>641167</v>
+      </c>
+      <c r="L28" s="306"/>
+      <c r="M28" s="307">
+        <v>0.65843781999999995</v>
+      </c>
+      <c r="N28" s="308">
+        <v>2.8227396599999999</v>
+      </c>
+      <c r="O28" s="309" t="s">
+        <v>560</v>
+      </c>
+      <c r="R28" s="300" t="s">
+        <v>541</v>
+      </c>
+      <c r="S28" s="301">
+        <v>23</v>
+      </c>
+      <c r="T28" s="302">
+        <v>44109</v>
+      </c>
+      <c r="U28" s="303">
+        <v>5</v>
+      </c>
+      <c r="V28" s="303">
+        <v>147</v>
+      </c>
+      <c r="W28" s="304">
+        <v>30</v>
+      </c>
+      <c r="X28" s="305">
+        <v>44340</v>
+      </c>
+      <c r="Y28" s="306">
+        <v>26</v>
+      </c>
+      <c r="Z28" s="306">
+        <v>430</v>
+      </c>
+      <c r="AA28" s="306"/>
+      <c r="AB28" s="307">
+        <v>0.74523396880415904</v>
+      </c>
+      <c r="AC28" s="308">
+        <v>9.3335762876579196</v>
+      </c>
+      <c r="AD28" s="309" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C29" s="311" t="s">
+        <v>540</v>
+      </c>
+      <c r="D29" s="312">
+        <v>24</v>
+      </c>
+      <c r="E29" s="313">
+        <v>44102</v>
+      </c>
+      <c r="F29" s="314">
+        <v>328</v>
+      </c>
+      <c r="G29" s="314">
+        <v>16749</v>
+      </c>
+      <c r="H29" s="315">
+        <v>35</v>
+      </c>
+      <c r="I29" s="316">
+        <v>44389</v>
+      </c>
+      <c r="J29" s="317">
+        <v>566</v>
+      </c>
+      <c r="K29" s="317">
+        <v>31291</v>
+      </c>
+      <c r="L29" s="317"/>
+      <c r="M29" s="318">
+        <v>0.65135304000000005</v>
+      </c>
+      <c r="N29" s="319" t="s">
+        <v>521</v>
+      </c>
+      <c r="O29" s="312" t="s">
+        <v>521</v>
+      </c>
+      <c r="R29" s="311" t="s">
+        <v>539</v>
+      </c>
+      <c r="S29" s="312">
+        <v>24</v>
+      </c>
+      <c r="T29" s="313">
+        <v>44111</v>
+      </c>
+      <c r="U29" s="314">
+        <v>18</v>
+      </c>
+      <c r="V29" s="314">
+        <v>1950</v>
+      </c>
+      <c r="W29" s="315">
+        <v>32</v>
+      </c>
+      <c r="X29" s="316">
+        <v>44342</v>
+      </c>
+      <c r="Y29" s="317">
+        <v>35</v>
+      </c>
+      <c r="Z29" s="317">
+        <v>844</v>
+      </c>
+      <c r="AA29" s="317"/>
+      <c r="AB29" s="318">
+        <v>0.30207587687902598</v>
+      </c>
+      <c r="AC29" s="319">
+        <v>2.99765567765568</v>
+      </c>
+      <c r="AD29" s="322" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="300" t="s">
+        <v>541</v>
+      </c>
+      <c r="D30" s="301">
+        <v>25</v>
+      </c>
+      <c r="E30" s="302">
+        <v>44107</v>
+      </c>
+      <c r="F30" s="303">
+        <v>423</v>
+      </c>
+      <c r="G30" s="303">
+        <v>13846</v>
+      </c>
+      <c r="H30" s="304">
+        <v>30</v>
+      </c>
+      <c r="I30" s="305">
+        <v>44336</v>
+      </c>
+      <c r="J30" s="306">
+        <v>1183</v>
+      </c>
+      <c r="K30" s="306">
+        <v>51063</v>
+      </c>
+      <c r="L30" s="306"/>
+      <c r="M30" s="307">
+        <v>0.78668598000000001</v>
+      </c>
+      <c r="N30" s="308">
+        <v>5.3819061000000001</v>
+      </c>
+      <c r="O30" s="301" t="s">
+        <v>542</v>
+      </c>
+      <c r="R30" s="300" t="s">
+        <v>540</v>
+      </c>
+      <c r="S30" s="301">
+        <v>25</v>
+      </c>
+      <c r="T30" s="302">
+        <v>44117</v>
+      </c>
+      <c r="U30" s="303">
+        <v>4</v>
+      </c>
+      <c r="V30" s="303">
+        <v>56</v>
+      </c>
+      <c r="W30" s="304">
+        <v>15</v>
+      </c>
+      <c r="X30" s="305">
+        <v>44330</v>
+      </c>
+      <c r="Y30" s="306">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="306">
+        <v>59</v>
+      </c>
+      <c r="AA30" s="306"/>
+      <c r="AB30" s="307">
+        <v>0.51304347826086905</v>
+      </c>
+      <c r="AC30" s="308" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD30" s="301" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C31" s="311" t="s">
+        <v>543</v>
+      </c>
+      <c r="D31" s="312">
+        <v>26</v>
+      </c>
+      <c r="E31" s="313">
+        <v>44111</v>
+      </c>
+      <c r="F31" s="314">
+        <v>10947</v>
+      </c>
+      <c r="G31" s="314">
+        <v>938340</v>
+      </c>
+      <c r="H31" s="315">
+        <v>14</v>
+      </c>
+      <c r="I31" s="316">
+        <v>44321</v>
+      </c>
+      <c r="J31" s="317">
+        <v>50112</v>
+      </c>
+      <c r="K31" s="317">
+        <v>1960268</v>
+      </c>
+      <c r="L31" s="317"/>
+      <c r="M31" s="318">
+        <v>0.67627910000000002</v>
+      </c>
+      <c r="N31" s="319">
+        <v>3.0590110500000001</v>
+      </c>
+      <c r="O31" s="320" t="s">
+        <v>559</v>
+      </c>
+      <c r="R31" s="311" t="s">
+        <v>547</v>
+      </c>
+      <c r="S31" s="312">
+        <v>26</v>
+      </c>
+      <c r="T31" s="313">
+        <v>44118</v>
+      </c>
+      <c r="U31" s="314">
+        <v>64</v>
+      </c>
+      <c r="V31" s="314">
+        <v>9769</v>
+      </c>
+      <c r="W31" s="315">
+        <v>25</v>
+      </c>
+      <c r="X31" s="316">
+        <v>44336</v>
+      </c>
+      <c r="Y31" s="317">
+        <v>162</v>
+      </c>
+      <c r="Z31" s="317">
+        <v>5311</v>
+      </c>
+      <c r="AA31" s="317"/>
+      <c r="AB31" s="318">
+        <v>0.35218832891246599</v>
+      </c>
+      <c r="AC31" s="319">
+        <v>1.1838268593049199</v>
+      </c>
+      <c r="AD31" s="320" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="300" t="s">
+        <v>544</v>
+      </c>
+      <c r="D32" s="301">
+        <v>27</v>
+      </c>
+      <c r="E32" s="302">
+        <v>44114</v>
+      </c>
+      <c r="F32" s="303">
+        <v>11755</v>
+      </c>
+      <c r="G32" s="303">
+        <v>997201</v>
+      </c>
+      <c r="H32" s="304">
+        <v>24</v>
+      </c>
+      <c r="I32" s="305">
+        <v>44328</v>
+      </c>
+      <c r="J32" s="306">
+        <v>43529</v>
+      </c>
+      <c r="K32" s="306">
+        <v>2391237</v>
+      </c>
+      <c r="L32" s="306"/>
+      <c r="M32" s="307">
+        <v>0.70570480999999996</v>
+      </c>
+      <c r="N32" s="308">
+        <v>3.5112822600000002</v>
+      </c>
+      <c r="O32" s="309" t="s">
+        <v>559</v>
+      </c>
+      <c r="R32" s="300" t="s">
+        <v>530</v>
+      </c>
+      <c r="S32" s="301">
+        <v>27</v>
+      </c>
+      <c r="T32" s="302">
+        <v>44121</v>
+      </c>
+      <c r="U32" s="303">
+        <v>4</v>
+      </c>
+      <c r="V32" s="303">
+        <v>82</v>
+      </c>
+      <c r="W32" s="304">
+        <v>31</v>
+      </c>
+      <c r="X32" s="305">
+        <v>44341</v>
+      </c>
+      <c r="Y32" s="306">
+        <v>18</v>
+      </c>
+      <c r="Z32" s="306">
+        <v>275</v>
+      </c>
+      <c r="AA32" s="306"/>
+      <c r="AB32" s="307">
+        <v>0.77030812324929898</v>
+      </c>
+      <c r="AC32" s="308">
+        <v>7.9537337662337704</v>
+      </c>
+      <c r="AD32" s="309" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="33" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C33" s="311" t="s">
+        <v>545</v>
+      </c>
+      <c r="D33" s="312">
+        <v>28</v>
+      </c>
+      <c r="E33" s="313">
+        <v>44118</v>
+      </c>
+      <c r="F33" s="314">
+        <v>5515</v>
+      </c>
+      <c r="G33" s="314">
+        <v>246980</v>
+      </c>
+      <c r="H33" s="315">
+        <v>7</v>
+      </c>
+      <c r="I33" s="316">
+        <v>44311</v>
+      </c>
+      <c r="J33" s="317">
+        <v>13601</v>
+      </c>
+      <c r="K33" s="317">
+        <v>534405</v>
+      </c>
+      <c r="L33" s="317"/>
+      <c r="M33" s="318">
+        <v>0.68392021999999997</v>
+      </c>
+      <c r="N33" s="319">
+        <v>3.1683602199999998</v>
+      </c>
+      <c r="O33" s="320" t="s">
+        <v>559</v>
+      </c>
+      <c r="R33" s="311" t="s">
+        <v>537</v>
+      </c>
+      <c r="S33" s="312">
+        <v>28</v>
+      </c>
+      <c r="T33" s="313">
+        <v>44121</v>
+      </c>
+      <c r="U33" s="314">
+        <v>95</v>
+      </c>
+      <c r="V33" s="314">
+        <v>1658</v>
+      </c>
+      <c r="W33" s="315">
+        <v>18</v>
+      </c>
+      <c r="X33" s="316">
+        <v>44333</v>
+      </c>
+      <c r="Y33" s="317">
+        <v>223</v>
+      </c>
+      <c r="Z33" s="317">
+        <v>4772</v>
+      </c>
+      <c r="AA33" s="317"/>
+      <c r="AB33" s="318">
+        <v>0.74214618973561397</v>
+      </c>
+      <c r="AC33" s="319">
+        <v>5.0151123740635501</v>
+      </c>
+      <c r="AD33" s="320" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="34" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="300" t="s">
+        <v>546</v>
+      </c>
+      <c r="D34" s="301">
+        <v>29</v>
+      </c>
+      <c r="E34" s="302">
+        <v>44121</v>
+      </c>
+      <c r="F34" s="303">
+        <v>426</v>
+      </c>
+      <c r="G34" s="303">
+        <v>28796</v>
+      </c>
+      <c r="H34" s="304">
+        <v>36</v>
+      </c>
+      <c r="I34" s="305">
+        <v>44398</v>
+      </c>
+      <c r="J34" s="306">
+        <v>1327</v>
+      </c>
+      <c r="K34" s="306">
+        <v>69312</v>
+      </c>
+      <c r="L34" s="306"/>
+      <c r="M34" s="307">
+        <v>0.70648672999999995</v>
+      </c>
+      <c r="N34" s="308">
+        <v>3.5244957499999998</v>
+      </c>
+      <c r="O34" s="309" t="s">
+        <v>559</v>
+      </c>
+      <c r="R34" s="300" t="s">
+        <v>528</v>
+      </c>
+      <c r="S34" s="301">
+        <v>29</v>
+      </c>
+      <c r="T34" s="302">
+        <v>44132</v>
+      </c>
+      <c r="U34" s="303">
+        <v>1</v>
+      </c>
+      <c r="V34" s="303">
+        <v>9</v>
+      </c>
+      <c r="W34" s="304">
+        <v>37</v>
+      </c>
+      <c r="X34" s="305">
+        <v>44347</v>
+      </c>
+      <c r="Y34" s="306">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="306">
+        <v>31</v>
+      </c>
+      <c r="AA34" s="306"/>
+      <c r="AB34" s="307">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="AC34" s="308">
+        <v>22.615079365079399</v>
+      </c>
+      <c r="AD34" s="309" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="35" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C35" s="311" t="s">
+        <v>547</v>
+      </c>
+      <c r="D35" s="312">
+        <v>30</v>
+      </c>
+      <c r="E35" s="313">
+        <v>44126</v>
+      </c>
+      <c r="F35" s="314">
+        <v>4157</v>
+      </c>
+      <c r="G35" s="314">
+        <v>562161</v>
+      </c>
+      <c r="H35" s="315">
+        <v>26</v>
+      </c>
+      <c r="I35" s="316">
+        <v>44330</v>
+      </c>
+      <c r="J35" s="317">
+        <v>20846</v>
+      </c>
+      <c r="K35" s="317">
+        <v>955614</v>
+      </c>
+      <c r="L35" s="317"/>
+      <c r="M35" s="318">
+        <v>0.62961506</v>
+      </c>
+      <c r="N35" s="319">
+        <v>2.4891302099999999</v>
+      </c>
+      <c r="O35" s="320" t="s">
+        <v>560</v>
+      </c>
+      <c r="R35" s="311" t="s">
+        <v>548</v>
+      </c>
+      <c r="S35" s="312">
+        <v>30</v>
+      </c>
+      <c r="T35" s="313">
+        <v>44153</v>
+      </c>
+      <c r="U35" s="314">
+        <v>131</v>
+      </c>
+      <c r="V35" s="314">
+        <v>9238</v>
+      </c>
+      <c r="W35" s="315">
+        <v>7</v>
+      </c>
+      <c r="X35" s="316">
+        <v>44319</v>
+      </c>
+      <c r="Y35" s="317">
+        <v>448</v>
+      </c>
+      <c r="Z35" s="317">
+        <v>13348</v>
+      </c>
+      <c r="AA35" s="317"/>
+      <c r="AB35" s="318">
+        <v>0.59098556627999599</v>
+      </c>
+      <c r="AC35" s="319" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD35" s="320" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="36" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="300" t="s">
+        <v>548</v>
+      </c>
+      <c r="D36" s="301">
+        <v>31</v>
+      </c>
+      <c r="E36" s="302">
+        <v>44146</v>
+      </c>
+      <c r="F36" s="303">
+        <v>8593</v>
+      </c>
+      <c r="G36" s="303">
+        <v>599972</v>
+      </c>
+      <c r="H36" s="304">
+        <v>3</v>
+      </c>
+      <c r="I36" s="305">
+        <v>44306</v>
+      </c>
+      <c r="J36" s="306">
+        <v>28395</v>
+      </c>
+      <c r="K36" s="306">
+        <v>799469</v>
+      </c>
+      <c r="L36" s="306"/>
+      <c r="M36" s="307">
+        <v>0.57127739</v>
+      </c>
+      <c r="N36" s="308" t="s">
+        <v>521</v>
+      </c>
+      <c r="O36" s="301" t="s">
+        <v>521</v>
+      </c>
+      <c r="R36" s="300" t="s">
+        <v>552</v>
+      </c>
+      <c r="S36" s="301">
+        <v>31</v>
+      </c>
+      <c r="T36" s="302">
+        <v>44158</v>
+      </c>
+      <c r="U36" s="303">
+        <v>22</v>
+      </c>
+      <c r="V36" s="303">
+        <v>972</v>
+      </c>
+      <c r="W36" s="304">
+        <v>21</v>
+      </c>
+      <c r="X36" s="305">
+        <v>44334</v>
+      </c>
+      <c r="Y36" s="306">
+        <v>78</v>
+      </c>
+      <c r="Z36" s="306">
+        <v>2148</v>
+      </c>
+      <c r="AA36" s="306"/>
+      <c r="AB36" s="307">
+        <v>0.68846153846153801</v>
+      </c>
+      <c r="AC36" s="308">
+        <v>3.8053350970017599</v>
+      </c>
+      <c r="AD36" s="321" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="37" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C37" s="311" t="s">
+        <v>549</v>
+      </c>
+      <c r="D37" s="312">
+        <v>32</v>
+      </c>
+      <c r="E37" s="313">
+        <v>44155</v>
+      </c>
+      <c r="F37" s="314">
+        <v>3104</v>
+      </c>
+      <c r="G37" s="314">
+        <v>262635</v>
+      </c>
+      <c r="H37" s="315">
+        <v>13</v>
+      </c>
+      <c r="I37" s="316">
+        <v>44320</v>
+      </c>
+      <c r="J37" s="317">
+        <v>15786</v>
+      </c>
+      <c r="K37" s="317">
+        <v>500944</v>
+      </c>
+      <c r="L37" s="317"/>
+      <c r="M37" s="318">
+        <v>0.65604737999999996</v>
+      </c>
+      <c r="N37" s="319">
+        <v>2.7929451200000002</v>
+      </c>
+      <c r="O37" s="320" t="s">
+        <v>560</v>
+      </c>
+      <c r="R37" s="311" t="s">
+        <v>549</v>
+      </c>
+      <c r="S37" s="312">
+        <v>32</v>
+      </c>
+      <c r="T37" s="313">
+        <v>44160</v>
+      </c>
+      <c r="U37" s="314">
+        <v>42</v>
+      </c>
+      <c r="V37" s="314">
+        <v>2951</v>
+      </c>
+      <c r="W37" s="315">
+        <v>9</v>
+      </c>
+      <c r="X37" s="316">
+        <v>44321</v>
+      </c>
+      <c r="Y37" s="317">
+        <v>181</v>
+      </c>
+      <c r="Z37" s="317">
+        <v>5264</v>
+      </c>
+      <c r="AA37" s="317"/>
+      <c r="AB37" s="318">
+        <v>0.64077906269020002</v>
+      </c>
+      <c r="AC37" s="319">
+        <v>3.25309146898908</v>
+      </c>
+      <c r="AD37" s="320" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="38" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="300" t="s">
+        <v>550</v>
+      </c>
+      <c r="D38" s="301">
+        <v>33</v>
+      </c>
+      <c r="E38" s="302">
+        <v>44159</v>
+      </c>
+      <c r="F38" s="303">
+        <v>3314</v>
+      </c>
+      <c r="G38" s="303">
+        <v>306752</v>
+      </c>
+      <c r="H38" s="304">
+        <v>12</v>
+      </c>
+      <c r="I38" s="305">
+        <v>44318</v>
+      </c>
+      <c r="J38" s="306">
+        <v>18298</v>
+      </c>
+      <c r="K38" s="306">
+        <v>634847</v>
+      </c>
+      <c r="L38" s="306"/>
+      <c r="M38" s="307">
+        <v>0.67422225000000002</v>
+      </c>
+      <c r="N38" s="308">
+        <v>3.0304525899999999</v>
+      </c>
+      <c r="O38" s="309" t="s">
+        <v>559</v>
+      </c>
+      <c r="R38" s="300" t="s">
+        <v>516</v>
+      </c>
+      <c r="S38" s="301">
+        <v>33</v>
+      </c>
+      <c r="T38" s="302">
+        <v>44161</v>
+      </c>
+      <c r="U38" s="303">
+        <v>5</v>
+      </c>
+      <c r="V38" s="303">
+        <v>129</v>
+      </c>
+      <c r="W38" s="304">
+        <v>22</v>
+      </c>
+      <c r="X38" s="305">
+        <v>44334</v>
+      </c>
+      <c r="Y38" s="306">
+        <v>5</v>
+      </c>
+      <c r="Z38" s="306">
+        <v>59</v>
+      </c>
+      <c r="AA38" s="306"/>
+      <c r="AB38" s="307">
+        <v>0.31382978723404198</v>
+      </c>
+      <c r="AC38" s="308">
+        <v>0.87403100775193798</v>
+      </c>
+      <c r="AD38" s="309" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C39" s="311" t="s">
+        <v>551</v>
+      </c>
+      <c r="D39" s="312">
+        <v>34</v>
+      </c>
+      <c r="E39" s="313">
+        <v>44162</v>
+      </c>
+      <c r="F39" s="314">
+        <v>1607</v>
+      </c>
+      <c r="G39" s="314">
+        <v>242434</v>
+      </c>
+      <c r="H39" s="315">
+        <v>10</v>
+      </c>
+      <c r="I39" s="316">
+        <v>44316</v>
+      </c>
+      <c r="J39" s="317">
+        <v>14605</v>
+      </c>
+      <c r="K39" s="317">
+        <v>559880</v>
+      </c>
+      <c r="L39" s="317"/>
+      <c r="M39" s="318">
+        <v>0.69783152000000004</v>
+      </c>
+      <c r="N39" s="319">
+        <v>3.3816251199999998</v>
+      </c>
+      <c r="O39" s="320" t="s">
+        <v>559</v>
+      </c>
+      <c r="R39" s="311" t="s">
+        <v>546</v>
+      </c>
+      <c r="S39" s="312">
+        <v>34</v>
+      </c>
+      <c r="T39" s="313">
+        <v>44164</v>
+      </c>
+      <c r="U39" s="314">
+        <v>10</v>
+      </c>
+      <c r="V39" s="314">
+        <v>373</v>
+      </c>
+      <c r="W39" s="315">
+        <v>24</v>
+      </c>
+      <c r="X39" s="316">
+        <v>44335</v>
+      </c>
+      <c r="Y39" s="317">
+        <v>23</v>
+      </c>
+      <c r="Z39" s="317">
+        <v>434</v>
+      </c>
+      <c r="AA39" s="317"/>
+      <c r="AB39" s="318">
+        <v>0.53779429987608396</v>
+      </c>
+      <c r="AC39" s="319">
+        <v>4.6441018766755997</v>
+      </c>
+      <c r="AD39" s="320" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="40" spans="3:30" s="310" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="300" t="s">
+        <v>552</v>
+      </c>
+      <c r="D40" s="301">
+        <v>35</v>
+      </c>
+      <c r="E40" s="302">
+        <v>44164</v>
+      </c>
+      <c r="F40" s="303">
+        <v>1026</v>
+      </c>
+      <c r="G40" s="303">
+        <v>57715</v>
+      </c>
+      <c r="H40" s="304">
+        <v>20</v>
+      </c>
+      <c r="I40" s="305">
+        <v>44324</v>
+      </c>
+      <c r="J40" s="306">
+        <v>5424</v>
+      </c>
+      <c r="K40" s="306">
+        <v>147826</v>
+      </c>
+      <c r="L40" s="306"/>
+      <c r="M40" s="307">
+        <v>0.71920443999999994</v>
+      </c>
+      <c r="N40" s="308">
+        <v>3.7504894700000002</v>
+      </c>
+      <c r="O40" s="309" t="s">
+        <v>559</v>
+      </c>
+      <c r="R40" s="300" t="s">
+        <v>550</v>
+      </c>
+      <c r="S40" s="301">
+        <v>35</v>
+      </c>
+      <c r="T40" s="302">
+        <v>44165</v>
+      </c>
+      <c r="U40" s="303">
+        <v>20</v>
+      </c>
+      <c r="V40" s="303">
+        <v>2502</v>
+      </c>
+      <c r="W40" s="304">
+        <v>13</v>
+      </c>
+      <c r="X40" s="305">
+        <v>44327</v>
+      </c>
+      <c r="Y40" s="306">
+        <v>169</v>
+      </c>
+      <c r="Z40" s="306">
+        <v>5604</v>
+      </c>
+      <c r="AA40" s="306"/>
+      <c r="AB40" s="307">
+        <v>0.69133974833456702</v>
+      </c>
+      <c r="AC40" s="308">
+        <v>3.6026447645618598</v>
+      </c>
+      <c r="AD40" s="309" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="41" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C41" s="311" t="s">
+        <v>553</v>
+      </c>
+      <c r="D41" s="312">
+        <v>36</v>
+      </c>
+      <c r="E41" s="313">
+        <v>44224</v>
+      </c>
+      <c r="F41" s="314">
+        <v>6451</v>
+      </c>
+      <c r="G41" s="314">
+        <v>307485</v>
+      </c>
+      <c r="H41" s="315">
+        <v>5</v>
+      </c>
+      <c r="I41" s="316">
+        <v>44309</v>
+      </c>
+      <c r="J41" s="317">
+        <v>17397</v>
+      </c>
+      <c r="K41" s="317">
+        <v>693078</v>
+      </c>
+      <c r="L41" s="317"/>
+      <c r="M41" s="318">
+        <v>0.69268801999999996</v>
+      </c>
+      <c r="N41" s="319">
+        <v>3.3005324300000001</v>
+      </c>
+      <c r="O41" s="320" t="s">
+        <v>559</v>
+      </c>
+      <c r="R41" s="343" t="s">
+        <v>544</v>
+      </c>
+      <c r="S41" s="344">
+        <v>36</v>
+      </c>
+      <c r="T41" s="316">
+        <v>44174</v>
+      </c>
+      <c r="U41" s="317">
+        <v>35</v>
+      </c>
+      <c r="V41" s="317">
+        <v>3951</v>
+      </c>
+      <c r="W41" s="315">
+        <v>34</v>
+      </c>
+      <c r="X41" s="316">
+        <v>44345</v>
+      </c>
+      <c r="Y41" s="317">
+        <v>198</v>
+      </c>
+      <c r="Z41" s="317">
+        <v>4845</v>
+      </c>
+      <c r="AA41" s="317"/>
+      <c r="AB41" s="345">
+        <v>0.55081855388813095</v>
+      </c>
+      <c r="AC41" s="346">
+        <v>4.7475322703113099</v>
+      </c>
+      <c r="AD41" s="347" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="42" spans="3:30" s="310" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="348" t="s">
+        <v>554</v>
+      </c>
+      <c r="D42" s="349">
+        <v>37</v>
+      </c>
+      <c r="E42" s="350">
+        <v>44240</v>
+      </c>
+      <c r="F42" s="351">
+        <v>36</v>
+      </c>
+      <c r="G42" s="351">
+        <v>224</v>
+      </c>
+      <c r="H42" s="352">
+        <v>31</v>
+      </c>
+      <c r="I42" s="350">
+        <v>44337</v>
+      </c>
+      <c r="J42" s="351">
+        <v>345</v>
+      </c>
+      <c r="K42" s="351">
+        <v>9965</v>
+      </c>
+      <c r="L42" s="351"/>
+      <c r="M42" s="353">
+        <v>0.97801550999999998</v>
+      </c>
+      <c r="N42" s="354" t="s">
+        <v>521</v>
+      </c>
+      <c r="O42" s="349" t="s">
+        <v>521</v>
+      </c>
+      <c r="R42" s="348" t="s">
+        <v>554</v>
+      </c>
+      <c r="S42" s="349" t="s">
+        <v>0</v>
+      </c>
+      <c r="T42" s="350" t="s">
+        <v>0</v>
+      </c>
+      <c r="U42" s="351" t="s">
+        <v>0</v>
+      </c>
+      <c r="V42" s="351" t="s">
+        <v>0</v>
+      </c>
+      <c r="W42" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="X42" s="350">
+        <v>44315</v>
+      </c>
+      <c r="Y42" s="351">
+        <v>3</v>
+      </c>
+      <c r="Z42" s="351">
+        <v>50</v>
+      </c>
+      <c r="AA42" s="351"/>
+      <c r="AB42" s="353">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="354" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="349" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:30" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="355"/>
+      <c r="D43" s="355"/>
+      <c r="E43" s="355"/>
+      <c r="F43" s="355"/>
+      <c r="G43" s="355"/>
+      <c r="H43" s="355"/>
+      <c r="I43" s="355"/>
+      <c r="J43" s="355"/>
+      <c r="K43" s="355"/>
+      <c r="L43" s="355"/>
+      <c r="M43" s="355"/>
+      <c r="N43" s="355"/>
+      <c r="O43" s="355"/>
+      <c r="R43" s="355"/>
+      <c r="S43" s="355"/>
+      <c r="T43" s="355"/>
+      <c r="U43" s="355"/>
+      <c r="V43" s="355"/>
+      <c r="W43" s="355"/>
+      <c r="X43" s="355"/>
+      <c r="Y43" s="355"/>
+      <c r="Z43" s="355"/>
+      <c r="AA43" s="355"/>
+      <c r="AB43" s="355"/>
+      <c r="AC43" s="355"/>
+      <c r="AD43" s="355"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="C43:O43"/>
+    <mergeCell ref="R43:AD43"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="R3:AD3"/>
+    <mergeCell ref="S4:V4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE0B18C-2B6D-234C-8DD9-D474DD11A9E4}">
   <dimension ref="C3:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -10555,7 +16431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A44DAF-124D-E04C-B679-9F496DC26D17}">
   <dimension ref="B2:X23"/>
   <sheetViews>
@@ -11433,7 +17309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A2CE13-7C85-4040-9BDC-B7A9637061D9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11445,7 +17321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132CC17D-808A-A242-A7E7-D48FD9CA2C7C}">
   <dimension ref="C9:M35"/>
   <sheetViews>
@@ -12072,7 +17948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35799790-9C79-A24F-9130-C8A6E2D84A8C}">
   <dimension ref="C5:R53"/>
   <sheetViews>
@@ -13195,7 +19071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFBF40F-8159-BA4F-9F96-01C6023E8BBE}">
   <dimension ref="C3:AO21"/>
   <sheetViews>
@@ -14624,2225 +20500,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275DD0A-FAB0-344A-B479-7C91A0D59C48}">
-  <dimension ref="B3:AR30"/>
-  <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="29" max="29" width="10.83203125" customWidth="1"/>
-    <col min="32" max="32" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B3" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="248"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="248"/>
-      <c r="AB3" s="248"/>
-      <c r="AC3" s="248"/>
-    </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B4" s="249" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
-      <c r="G4" s="250"/>
-      <c r="H4" s="250"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="249" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="250"/>
-      <c r="Y4" s="250"/>
-      <c r="Z4" s="250"/>
-      <c r="AA4" s="250"/>
-      <c r="AB4" s="250"/>
-      <c r="AC4" s="250"/>
-      <c r="AF4" s="248" t="s">
-        <v>288</v>
-      </c>
-      <c r="AG4" s="248"/>
-      <c r="AH4" s="248"/>
-      <c r="AI4" s="248"/>
-      <c r="AJ4" s="248"/>
-      <c r="AK4" s="248"/>
-      <c r="AL4" s="248"/>
-      <c r="AM4" s="248"/>
-      <c r="AN4" s="248"/>
-      <c r="AO4" s="248"/>
-      <c r="AP4" s="248"/>
-      <c r="AQ4" s="248"/>
-      <c r="AR4" s="248"/>
-    </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="247" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="247" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="247"/>
-      <c r="AA5" s="247"/>
-      <c r="AB5" s="247"/>
-      <c r="AC5" s="247"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="261" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH5" s="249"/>
-      <c r="AI5" s="249"/>
-      <c r="AJ5" s="249"/>
-      <c r="AK5" s="261" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL5" s="249"/>
-      <c r="AM5" s="249"/>
-      <c r="AN5" s="249"/>
-      <c r="AO5" s="261" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP5" s="249"/>
-      <c r="AQ5" s="249"/>
-      <c r="AR5" s="249"/>
-    </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO6" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:44" ht="56" x14ac:dyDescent="0.2">
-      <c r="B7" s="19">
-        <v>44270</v>
-      </c>
-      <c r="C7" s="20">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="D7" s="20">
-        <v>156.93</v>
-      </c>
-      <c r="E7" s="20">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13">
-        <f t="shared" ref="J7:N11" si="0">$C7-D7</f>
-        <v>1.3700000000000045</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="15">
-        <f t="shared" ref="P7:T11" si="1">J7/$D7</f>
-        <v>8.7300070094947085E-3</v>
-      </c>
-      <c r="Q7" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="31">
-        <v>44270</v>
-      </c>
-      <c r="X7" s="32">
-        <f t="shared" ref="X7:X11" si="2">C7</f>
-        <v>158.30000000000001</v>
-      </c>
-      <c r="Y7" s="30" t="str">
-        <f t="shared" ref="Y7:Y11" si="3">D7 &amp; CHAR(10) &amp; "(" &amp; FIXED(J7, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(P7*100,2) &amp; "%"</f>
-        <v>156.93
-(1.37)
-0.87%</v>
-      </c>
-      <c r="Z7" s="30" t="str">
-        <f t="shared" ref="Z7:Z11" si="4">E7 &amp; CHAR(10) &amp; "(" &amp; FIXED(K7, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(Q7*100,2) &amp; "%"</f>
-        <v>158.3
-(0.00)
-0.00%</v>
-      </c>
-      <c r="AA7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="28">
-        <v>44270</v>
-      </c>
-      <c r="AG7" s="57" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="57" t="s">
-        <v>259</v>
-      </c>
-      <c r="AL7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="AP7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:44" ht="56" x14ac:dyDescent="0.2">
-      <c r="B8" s="22">
-        <v>44285</v>
-      </c>
-      <c r="C8" s="23">
-        <v>161.91</v>
-      </c>
-      <c r="D8" s="23">
-        <v>157.07</v>
-      </c>
-      <c r="E8" s="23">
-        <v>158.61000000000001</v>
-      </c>
-      <c r="F8" s="23">
-        <v>161.91</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="13">
-        <f t="shared" si="0"/>
-        <v>4.8400000000000034</v>
-      </c>
-      <c r="K8" s="13">
-        <f t="shared" si="0"/>
-        <v>3.2999999999999829</v>
-      </c>
-      <c r="L8" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="15">
-        <f t="shared" si="1"/>
-        <v>3.0814286623798329E-2</v>
-      </c>
-      <c r="Q8" s="15">
-        <f t="shared" si="1"/>
-        <v>2.1009740879862373E-2</v>
-      </c>
-      <c r="R8" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="28">
-        <v>44285</v>
-      </c>
-      <c r="X8" s="29">
-        <f t="shared" si="2"/>
-        <v>161.91</v>
-      </c>
-      <c r="Y8" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>157.07
-(4.84)
-3.08%</v>
-      </c>
-      <c r="Z8" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>158.61
-(3.30)
-2.10%</v>
-      </c>
-      <c r="AA8" s="30" t="str">
-        <f t="shared" ref="AA8:AA11" si="5">F8 &amp; CHAR(10) &amp; "(" &amp; FIXED(L8, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(R8*100,2) &amp; "%"</f>
-        <v>161.91
-(0.00)
-0.00%</v>
-      </c>
-      <c r="AB8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="40">
-        <v>44285</v>
-      </c>
-      <c r="AG8" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH8" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="AI8" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL8" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="AM8" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="AP8" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="AQ8" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:44" ht="56" x14ac:dyDescent="0.2">
-      <c r="B9" s="19">
-        <v>44301</v>
-      </c>
-      <c r="C9" s="20">
-        <v>173.75</v>
-      </c>
-      <c r="D9" s="20">
-        <v>157.15</v>
-      </c>
-      <c r="E9" s="20">
-        <v>158.84</v>
-      </c>
-      <c r="F9" s="20">
-        <v>163.44999999999999</v>
-      </c>
-      <c r="G9" s="20">
-        <v>173.75</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="13">
-        <f t="shared" si="0"/>
-        <v>16.599999999999994</v>
-      </c>
-      <c r="K9" s="13">
-        <f t="shared" si="0"/>
-        <v>14.909999999999997</v>
-      </c>
-      <c r="L9" s="13">
-        <f t="shared" si="0"/>
-        <v>10.300000000000011</v>
-      </c>
-      <c r="M9" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="15">
-        <f t="shared" si="1"/>
-        <v>0.10563156220171806</v>
-      </c>
-      <c r="Q9" s="15">
-        <f t="shared" si="1"/>
-        <v>9.4877505567928705E-2</v>
-      </c>
-      <c r="R9" s="15">
-        <f t="shared" si="1"/>
-        <v>6.5542475342029977E-2</v>
-      </c>
-      <c r="S9" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="15"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="31">
-        <v>44301</v>
-      </c>
-      <c r="X9" s="32">
-        <f t="shared" si="2"/>
-        <v>173.75</v>
-      </c>
-      <c r="Y9" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>157.15
-(16.60)
-10.56%</v>
-      </c>
-      <c r="Z9" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>158.84
-(14.91)
-9.49%</v>
-      </c>
-      <c r="AA9" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>163.45
-(10.30)
-6.55%</v>
-      </c>
-      <c r="AB9" s="30" t="str">
-        <f t="shared" ref="AB9:AB11" si="6">G9 &amp; CHAR(10) &amp; "(" &amp; FIXED(M9, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(S9*100,2) &amp; "%"</f>
-        <v>173.75
-(0.00)
-0.00%</v>
-      </c>
-      <c r="AC9" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="28">
-        <v>44301</v>
-      </c>
-      <c r="AG9" s="138" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH9" s="139" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI9" s="139" t="s">
-        <v>250</v>
-      </c>
-      <c r="AJ9" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL9" s="139" t="s">
-        <v>263</v>
-      </c>
-      <c r="AM9" s="139" t="s">
-        <v>264</v>
-      </c>
-      <c r="AN9" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="AP9" s="139" t="s">
-        <v>277</v>
-      </c>
-      <c r="AQ9" s="139" t="s">
-        <v>278</v>
-      </c>
-      <c r="AR9" s="54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:44" ht="56" x14ac:dyDescent="0.2">
-      <c r="B10" s="22">
-        <v>44316</v>
-      </c>
-      <c r="C10" s="23">
-        <v>211.25</v>
-      </c>
-      <c r="D10" s="23">
-        <v>157.16</v>
-      </c>
-      <c r="E10" s="23">
-        <v>159.01</v>
-      </c>
-      <c r="F10" s="23">
-        <v>164.95</v>
-      </c>
-      <c r="G10" s="23">
-        <v>184</v>
-      </c>
-      <c r="H10" s="24">
-        <v>211.25</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13">
-        <f t="shared" si="0"/>
-        <v>54.09</v>
-      </c>
-      <c r="K10" s="13">
-        <f t="shared" si="0"/>
-        <v>52.240000000000009</v>
-      </c>
-      <c r="L10" s="13">
-        <f t="shared" si="0"/>
-        <v>46.300000000000011</v>
-      </c>
-      <c r="M10" s="13">
-        <f t="shared" si="0"/>
-        <v>27.25</v>
-      </c>
-      <c r="N10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="15">
-        <f t="shared" si="1"/>
-        <v>0.34417154492237212</v>
-      </c>
-      <c r="Q10" s="15">
-        <f t="shared" si="1"/>
-        <v>0.33240010180707563</v>
-      </c>
-      <c r="R10" s="15">
-        <f t="shared" si="1"/>
-        <v>0.29460422499363714</v>
-      </c>
-      <c r="S10" s="15">
-        <f t="shared" si="1"/>
-        <v>0.17339017561720541</v>
-      </c>
-      <c r="T10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="28">
-        <v>44316</v>
-      </c>
-      <c r="X10" s="29">
-        <f t="shared" si="2"/>
-        <v>211.25</v>
-      </c>
-      <c r="Y10" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>157.16
-(54.09)
-34.42%</v>
-      </c>
-      <c r="Z10" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>159.01
-(52.24)
-33.24%</v>
-      </c>
-      <c r="AA10" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>164.95
-(46.30)
-29.46%</v>
-      </c>
-      <c r="AB10" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v>184
-(27.25)
-17.34%</v>
-      </c>
-      <c r="AC10" s="30" t="str">
-        <f t="shared" ref="AC10:AC11" si="7">H10 &amp; CHAR(10) &amp; "(" &amp; FIXED(N10, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(T10*100,2) &amp; "%"</f>
-        <v>211.25
-(0.00)
-0.00%</v>
-      </c>
-      <c r="AF10" s="40">
-        <v>44316</v>
-      </c>
-      <c r="AG10" s="100" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH10" s="101" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI10" s="101" t="s">
-        <v>253</v>
-      </c>
-      <c r="AJ10" s="101" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK10" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="AL10" s="101" t="s">
-        <v>266</v>
-      </c>
-      <c r="AM10" s="101" t="s">
-        <v>267</v>
-      </c>
-      <c r="AN10" s="101" t="s">
-        <v>268</v>
-      </c>
-      <c r="AO10" s="100" t="s">
-        <v>279</v>
-      </c>
-      <c r="AP10" s="101" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ10" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="AR10" s="101" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="2:44" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25">
-        <v>44331</v>
-      </c>
-      <c r="C11" s="26">
-        <v>269.73</v>
-      </c>
-      <c r="D11" s="26">
-        <v>157.13999999999999</v>
-      </c>
-      <c r="E11" s="26">
-        <v>159.12</v>
-      </c>
-      <c r="F11" s="26">
-        <v>166.8</v>
-      </c>
-      <c r="G11" s="26">
-        <v>199.3</v>
-      </c>
-      <c r="H11" s="27">
-        <v>261.3</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13">
-        <f t="shared" si="0"/>
-        <v>112.59000000000003</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" si="0"/>
-        <v>110.61000000000001</v>
-      </c>
-      <c r="L11" s="13">
-        <f t="shared" si="0"/>
-        <v>102.93</v>
-      </c>
-      <c r="M11" s="13">
-        <f t="shared" si="0"/>
-        <v>70.430000000000007</v>
-      </c>
-      <c r="N11" s="13">
-        <f t="shared" si="0"/>
-        <v>8.4300000000000068</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="15">
-        <f t="shared" si="1"/>
-        <v>0.71649484536082497</v>
-      </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="1"/>
-        <v>0.70389461626575045</v>
-      </c>
-      <c r="R11" s="15">
-        <f t="shared" si="1"/>
-        <v>0.6550210003818252</v>
-      </c>
-      <c r="S11" s="15">
-        <f t="shared" si="1"/>
-        <v>0.44819905816469396</v>
-      </c>
-      <c r="T11" s="15">
-        <f t="shared" si="1"/>
-        <v>5.3646429935089779E-2</v>
-      </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="31">
-        <v>44331</v>
-      </c>
-      <c r="X11" s="32">
-        <f t="shared" si="2"/>
-        <v>269.73</v>
-      </c>
-      <c r="Y11" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>157.14
-(112.59)
-71.65%</v>
-      </c>
-      <c r="Z11" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>159.12
-(110.61)
-70.39%</v>
-      </c>
-      <c r="AA11" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>166.8
-(102.93)
-65.50%</v>
-      </c>
-      <c r="AB11" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v>199.3
-(70.43)
-44.82%</v>
-      </c>
-      <c r="AC11" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>261.3
-(8.43)
-5.36%</v>
-      </c>
-      <c r="AF11" s="76">
-        <v>44331</v>
-      </c>
-      <c r="AG11" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH11" s="87" t="s">
-        <v>256</v>
-      </c>
-      <c r="AI11" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="AJ11" s="87" t="s">
-        <v>258</v>
-      </c>
-      <c r="AK11" s="88" t="s">
-        <v>269</v>
-      </c>
-      <c r="AL11" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="AM11" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="AN11" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="AO11" s="88" t="s">
-        <v>283</v>
-      </c>
-      <c r="AP11" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="AQ11" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="AR11" s="87" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="2:44" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="247" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="247"/>
-      <c r="D12" s="247"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="247" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="247"/>
-      <c r="Y12" s="247"/>
-      <c r="Z12" s="247"/>
-      <c r="AA12" s="247"/>
-      <c r="AB12" s="247"/>
-      <c r="AC12" s="247"/>
-      <c r="AF12" s="264" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG12" s="264"/>
-      <c r="AH12" s="264"/>
-      <c r="AI12" s="264"/>
-      <c r="AJ12" s="264"/>
-      <c r="AK12" s="264"/>
-      <c r="AL12" s="264"/>
-      <c r="AM12" s="264"/>
-      <c r="AN12" s="264"/>
-      <c r="AO12" s="264"/>
-      <c r="AP12" s="264"/>
-      <c r="AQ12" s="264"/>
-      <c r="AR12" s="264"/>
-    </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="247" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="247" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z13" s="247"/>
-      <c r="AA13" s="247"/>
-      <c r="AB13" s="247"/>
-      <c r="AC13" s="247"/>
-    </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:44" ht="42" x14ac:dyDescent="0.2">
-      <c r="B15" s="5">
-        <v>44256</v>
-      </c>
-      <c r="C15" s="6">
-        <v>156.69</v>
-      </c>
-      <c r="D15" s="6">
-        <v>156.69</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="6">
-        <f>$C15-D15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="15">
-        <f>J15/$D15</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="28">
-        <v>44256</v>
-      </c>
-      <c r="X15" s="29">
-        <f>C15</f>
-        <v>156.69</v>
-      </c>
-      <c r="Y15" s="30" t="str">
-        <f>D15 &amp; CHAR(10) &amp; "(" &amp; FIXED(J15, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(P15*100,2) &amp; "%"</f>
-        <v>156.69
-(0.00)
-0.00%</v>
-      </c>
-      <c r="Z15" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:44" ht="42" x14ac:dyDescent="0.2">
-      <c r="B16" s="8">
-        <v>44270</v>
-      </c>
-      <c r="C16" s="9">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="D16" s="9">
-        <v>156.88999999999999</v>
-      </c>
-      <c r="E16" s="9">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="6">
-        <f t="shared" ref="J16:N20" si="8">$C16-D16</f>
-        <v>1.410000000000025</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="15">
-        <f t="shared" ref="P16:T20" si="9">J16/$D16</f>
-        <v>8.9871884760024546E-3</v>
-      </c>
-      <c r="Q16" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="31">
-        <v>44270</v>
-      </c>
-      <c r="X16" s="32">
-        <f t="shared" ref="X16:X20" si="10">C16</f>
-        <v>158.30000000000001</v>
-      </c>
-      <c r="Y16" s="30" t="str">
-        <f t="shared" ref="Y16:Y20" si="11">D16 &amp; CHAR(10) &amp; "(" &amp; FIXED(J16, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(P16*100,2) &amp; "%"</f>
-        <v>156.89
-(1.41)
-0.90%</v>
-      </c>
-      <c r="Z16" s="30" t="str">
-        <f t="shared" ref="Z16:Z20" si="12">E16 &amp; CHAR(10) &amp; "(" &amp; FIXED(K16, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(Q16*100,2) &amp; "%"</f>
-        <v>158.3
-(0.00)
-0.00%</v>
-      </c>
-      <c r="AA16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29" ht="42" x14ac:dyDescent="0.2">
-      <c r="B17" s="5">
-        <v>44285</v>
-      </c>
-      <c r="C17" s="6">
-        <v>161.91</v>
-      </c>
-      <c r="D17" s="6">
-        <v>156.99</v>
-      </c>
-      <c r="E17" s="6">
-        <v>158.51</v>
-      </c>
-      <c r="F17" s="6">
-        <v>161.91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="6">
-        <f t="shared" si="8"/>
-        <v>4.9199999999999875</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="8"/>
-        <v>3.4000000000000057</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="15">
-        <f t="shared" si="9"/>
-        <v>3.1339575769157191E-2</v>
-      </c>
-      <c r="Q17" s="15">
-        <f t="shared" si="9"/>
-        <v>2.1657430409580264E-2</v>
-      </c>
-      <c r="R17" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="28">
-        <v>44285</v>
-      </c>
-      <c r="X17" s="29">
-        <f t="shared" si="10"/>
-        <v>161.91</v>
-      </c>
-      <c r="Y17" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>156.99
-(4.92)
-3.13%</v>
-      </c>
-      <c r="Z17" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>158.51
-(3.40)
-2.17%</v>
-      </c>
-      <c r="AA17" s="30" t="str">
-        <f t="shared" ref="AA17:AA20" si="13">F17 &amp; CHAR(10) &amp; "(" &amp; FIXED(L17, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(R17*100,2) &amp; "%"</f>
-        <v>161.91
-(0.00)
-0.00%</v>
-      </c>
-      <c r="AB17" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29" ht="42" x14ac:dyDescent="0.2">
-      <c r="B18" s="8">
-        <v>44301</v>
-      </c>
-      <c r="C18" s="9">
-        <v>173.75</v>
-      </c>
-      <c r="D18" s="9">
-        <v>157.06</v>
-      </c>
-      <c r="E18" s="9">
-        <v>158.74</v>
-      </c>
-      <c r="F18" s="9">
-        <v>163.36000000000001</v>
-      </c>
-      <c r="G18" s="9">
-        <v>173.75</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="6">
-        <f t="shared" si="8"/>
-        <v>16.689999999999998</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="8"/>
-        <v>15.009999999999991</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="8"/>
-        <v>10.389999999999986</v>
-      </c>
-      <c r="M18" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="15">
-        <f t="shared" si="9"/>
-        <v>0.10626512160957594</v>
-      </c>
-      <c r="Q18" s="15">
-        <f t="shared" si="9"/>
-        <v>9.5568572520055975E-2</v>
-      </c>
-      <c r="R18" s="15">
-        <f t="shared" si="9"/>
-        <v>6.6153062523876136E-2</v>
-      </c>
-      <c r="S18" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="15"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="31">
-        <v>44301</v>
-      </c>
-      <c r="X18" s="32">
-        <f t="shared" si="10"/>
-        <v>173.75</v>
-      </c>
-      <c r="Y18" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>157.06
-(16.69)
-10.63%</v>
-      </c>
-      <c r="Z18" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>158.74
-(15.01)
-9.56%</v>
-      </c>
-      <c r="AA18" s="30" t="str">
-        <f t="shared" si="13"/>
-        <v>163.36
-(10.39)
-6.62%</v>
-      </c>
-      <c r="AB18" s="30" t="str">
-        <f t="shared" ref="AB18:AB20" si="14">G18 &amp; CHAR(10) &amp; "(" &amp; FIXED(M18, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(S18*100,2) &amp; "%"</f>
-        <v>173.75
-(0.00)
-0.00%</v>
-      </c>
-      <c r="AC18" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29" ht="42" x14ac:dyDescent="0.2">
-      <c r="B19" s="5">
-        <v>44316</v>
-      </c>
-      <c r="C19" s="6">
-        <v>211.25</v>
-      </c>
-      <c r="D19" s="6">
-        <v>157.07</v>
-      </c>
-      <c r="E19" s="6">
-        <v>158.94</v>
-      </c>
-      <c r="F19" s="6">
-        <v>165.2</v>
-      </c>
-      <c r="G19" s="6">
-        <v>186.47</v>
-      </c>
-      <c r="H19" s="6">
-        <v>211.25</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="6">
-        <f t="shared" si="8"/>
-        <v>54.180000000000007</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="8"/>
-        <v>52.31</v>
-      </c>
-      <c r="L19" s="6">
-        <f t="shared" si="8"/>
-        <v>46.050000000000011</v>
-      </c>
-      <c r="M19" s="6">
-        <f t="shared" si="8"/>
-        <v>24.78</v>
-      </c>
-      <c r="N19" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="15">
-        <f t="shared" si="9"/>
-        <v>0.34494174571846953</v>
-      </c>
-      <c r="Q19" s="15">
-        <f t="shared" si="9"/>
-        <v>0.33303622588654741</v>
-      </c>
-      <c r="R19" s="15">
-        <f t="shared" si="9"/>
-        <v>0.29318138409626288</v>
-      </c>
-      <c r="S19" s="15">
-        <f t="shared" si="9"/>
-        <v>0.15776405424333101</v>
-      </c>
-      <c r="T19" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="28">
-        <v>44316</v>
-      </c>
-      <c r="X19" s="29">
-        <f t="shared" si="10"/>
-        <v>211.25</v>
-      </c>
-      <c r="Y19" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>157.07
-(54.18)
-34.49%</v>
-      </c>
-      <c r="Z19" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>158.94
-(52.31)
-33.30%</v>
-      </c>
-      <c r="AA19" s="30" t="str">
-        <f t="shared" si="13"/>
-        <v>165.2
-(46.05)
-29.32%</v>
-      </c>
-      <c r="AB19" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>186.47
-(24.78)
-15.78%</v>
-      </c>
-      <c r="AC19" s="30" t="str">
-        <f t="shared" ref="AC19:AC20" si="15">H19 &amp; CHAR(10) &amp; "(" &amp; FIXED(N19, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(T19*100,2) &amp; "%"</f>
-        <v>211.25
-(0.00)
-0.00%</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29" ht="42" x14ac:dyDescent="0.2">
-      <c r="B20" s="8">
-        <v>44331</v>
-      </c>
-      <c r="C20" s="9">
-        <v>269.73</v>
-      </c>
-      <c r="D20" s="9">
-        <v>157.03</v>
-      </c>
-      <c r="E20" s="9">
-        <v>159.1</v>
-      </c>
-      <c r="F20" s="9">
-        <v>167.9</v>
-      </c>
-      <c r="G20" s="9">
-        <v>208.84</v>
-      </c>
-      <c r="H20" s="9">
-        <v>284.52</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="6">
-        <f t="shared" si="8"/>
-        <v>112.70000000000002</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="8"/>
-        <v>110.63000000000002</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="8"/>
-        <v>101.83000000000001</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" si="8"/>
-        <v>60.890000000000015</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="8"/>
-        <v>-14.789999999999964</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="15">
-        <f t="shared" si="9"/>
-        <v>0.71769725530153483</v>
-      </c>
-      <c r="Q20" s="15">
-        <f t="shared" si="9"/>
-        <v>0.70451506081640469</v>
-      </c>
-      <c r="R20" s="15">
-        <f t="shared" si="9"/>
-        <v>0.6484748137298606</v>
-      </c>
-      <c r="S20" s="15">
-        <f t="shared" si="9"/>
-        <v>0.38776030057950717</v>
-      </c>
-      <c r="T20" s="15">
-        <f t="shared" si="9"/>
-        <v>-9.4185824364770826E-2</v>
-      </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="37">
-        <v>44331</v>
-      </c>
-      <c r="X20" s="38">
-        <f t="shared" si="10"/>
-        <v>269.73</v>
-      </c>
-      <c r="Y20" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>157.03
-(112.70)
-71.77%</v>
-      </c>
-      <c r="Z20" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>159.1
-(110.63)
-70.45%</v>
-      </c>
-      <c r="AA20" s="30" t="str">
-        <f t="shared" si="13"/>
-        <v>167.9
-(101.83)
-64.85%</v>
-      </c>
-      <c r="AB20" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>208.84
-(60.89)
-38.78%</v>
-      </c>
-      <c r="AC20" s="30" t="str">
-        <f t="shared" si="15"/>
-        <v>284.52
-(-14.79)
--9.42%</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="247" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="247"/>
-      <c r="D21" s="247"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="247"/>
-      <c r="H21" s="247"/>
-      <c r="W21" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="X21" s="247"/>
-      <c r="Y21" s="247"/>
-      <c r="Z21" s="247"/>
-      <c r="AA21" s="247"/>
-      <c r="AB21" s="247"/>
-      <c r="AC21" s="247"/>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="247" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="247"/>
-      <c r="F22" s="247"/>
-      <c r="G22" s="247"/>
-      <c r="H22" s="247"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="247" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z22" s="247"/>
-      <c r="AA22" s="247"/>
-      <c r="AB22" s="247"/>
-      <c r="AC22" s="247"/>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" ht="42" x14ac:dyDescent="0.2">
-      <c r="B24" s="5">
-        <v>44256</v>
-      </c>
-      <c r="C24" s="6">
-        <v>156.69</v>
-      </c>
-      <c r="D24" s="6">
-        <v>156.69</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
-        <f>$C24-D24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="15">
-        <f>J24/$D24</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="W24" s="28">
-        <v>44256</v>
-      </c>
-      <c r="X24" s="29">
-        <f>C24</f>
-        <v>156.69</v>
-      </c>
-      <c r="Y24" s="30" t="str">
-        <f>D24 &amp; CHAR(10) &amp; "(" &amp; FIXED(J24, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(P24*100,2) &amp; "%"</f>
-        <v>156.69
-(0.00)
-0.00%</v>
-      </c>
-      <c r="Z24" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:29" ht="42" x14ac:dyDescent="0.2">
-      <c r="B25" s="8">
-        <v>44270</v>
-      </c>
-      <c r="C25" s="9">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="D25" s="9">
-        <v>156.91999999999999</v>
-      </c>
-      <c r="E25" s="9">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" ref="J25:N29" si="16">$C25-D25</f>
-        <v>1.3800000000000239</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="15">
-        <f t="shared" ref="P25:T29" si="17">J25/$D25</f>
-        <v>8.794290084119449E-3</v>
-      </c>
-      <c r="Q25" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="W25" s="31">
-        <v>44270</v>
-      </c>
-      <c r="X25" s="32">
-        <f t="shared" ref="X25:X29" si="18">C25</f>
-        <v>158.30000000000001</v>
-      </c>
-      <c r="Y25" s="30" t="str">
-        <f t="shared" ref="Y25:Y29" si="19">D25 &amp; CHAR(10) &amp; "(" &amp; FIXED(J25, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(P25*100,2) &amp; "%"</f>
-        <v>156.92
-(1.38)
-0.88%</v>
-      </c>
-      <c r="Z25" s="30" t="str">
-        <f t="shared" ref="Z25:Z29" si="20">E25 &amp; CHAR(10) &amp; "(" &amp; FIXED(K25, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(Q25*100,2) &amp; "%"</f>
-        <v>158.3
-(0.00)
-0.00%</v>
-      </c>
-      <c r="AA25" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29" ht="42" x14ac:dyDescent="0.2">
-      <c r="B26" s="5">
-        <v>44285</v>
-      </c>
-      <c r="C26" s="6">
-        <v>161.91</v>
-      </c>
-      <c r="D26" s="6">
-        <v>157.12</v>
-      </c>
-      <c r="E26" s="6">
-        <v>158.75</v>
-      </c>
-      <c r="F26" s="6">
-        <v>161.91</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" si="16"/>
-        <v>4.789999999999992</v>
-      </c>
-      <c r="K26" s="6">
-        <f t="shared" si="16"/>
-        <v>3.1599999999999966</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="15">
-        <f t="shared" si="17"/>
-        <v>3.0486252545824797E-2</v>
-      </c>
-      <c r="Q26" s="15">
-        <f t="shared" si="17"/>
-        <v>2.0112016293279002E-2</v>
-      </c>
-      <c r="R26" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="W26" s="28">
-        <v>44285</v>
-      </c>
-      <c r="X26" s="29">
-        <f t="shared" si="18"/>
-        <v>161.91</v>
-      </c>
-      <c r="Y26" s="30" t="str">
-        <f t="shared" si="19"/>
-        <v>157.12
-(4.79)
-3.05%</v>
-      </c>
-      <c r="Z26" s="30" t="str">
-        <f t="shared" si="20"/>
-        <v>158.75
-(3.16)
-2.01%</v>
-      </c>
-      <c r="AA26" s="30" t="str">
-        <f t="shared" ref="AA26:AA29" si="21">F26 &amp; CHAR(10) &amp; "(" &amp; FIXED(L26, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(R26*100,2) &amp; "%"</f>
-        <v>161.91
-(0.00)
-0.00%</v>
-      </c>
-      <c r="AB26" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29" ht="42" x14ac:dyDescent="0.2">
-      <c r="B27" s="8">
-        <v>44301</v>
-      </c>
-      <c r="C27" s="9">
-        <v>173.75</v>
-      </c>
-      <c r="D27" s="9">
-        <v>157.19999999999999</v>
-      </c>
-      <c r="E27" s="9">
-        <v>158.94</v>
-      </c>
-      <c r="F27" s="9">
-        <v>163.18</v>
-      </c>
-      <c r="G27" s="9">
-        <v>173.75</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="16"/>
-        <v>16.550000000000011</v>
-      </c>
-      <c r="K27" s="6">
-        <f t="shared" si="16"/>
-        <v>14.810000000000002</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="16"/>
-        <v>10.569999999999993</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="15">
-        <f t="shared" si="17"/>
-        <v>0.10527989821882959</v>
-      </c>
-      <c r="Q27" s="15">
-        <f t="shared" si="17"/>
-        <v>9.4211195928753197E-2</v>
-      </c>
-      <c r="R27" s="15">
-        <f t="shared" si="17"/>
-        <v>6.7239185750636088E-2</v>
-      </c>
-      <c r="S27" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="15"/>
-      <c r="W27" s="31">
-        <v>44301</v>
-      </c>
-      <c r="X27" s="32">
-        <f t="shared" si="18"/>
-        <v>173.75</v>
-      </c>
-      <c r="Y27" s="30" t="str">
-        <f t="shared" si="19"/>
-        <v>157.2
-(16.55)
-10.53%</v>
-      </c>
-      <c r="Z27" s="30" t="str">
-        <f t="shared" si="20"/>
-        <v>158.94
-(14.81)
-9.42%</v>
-      </c>
-      <c r="AA27" s="30" t="str">
-        <f t="shared" si="21"/>
-        <v>163.18
-(10.57)
-6.72%</v>
-      </c>
-      <c r="AB27" s="30" t="str">
-        <f t="shared" ref="AB27:AB29" si="22">G27 &amp; CHAR(10) &amp; "(" &amp; FIXED(M27, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(S27*100,2) &amp; "%"</f>
-        <v>173.75
-(0.00)
-0.00%</v>
-      </c>
-      <c r="AC27" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:29" ht="42" x14ac:dyDescent="0.2">
-      <c r="B28" s="5">
-        <v>44316</v>
-      </c>
-      <c r="C28" s="6">
-        <v>211.25</v>
-      </c>
-      <c r="D28" s="6">
-        <v>157.19999999999999</v>
-      </c>
-      <c r="E28" s="6">
-        <v>158.97999999999999</v>
-      </c>
-      <c r="F28" s="6">
-        <v>163.53</v>
-      </c>
-      <c r="G28" s="6">
-        <v>176.02</v>
-      </c>
-      <c r="H28" s="6">
-        <v>211.25</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="16"/>
-        <v>54.050000000000011</v>
-      </c>
-      <c r="K28" s="6">
-        <f t="shared" si="16"/>
-        <v>52.27000000000001</v>
-      </c>
-      <c r="L28" s="6">
-        <f t="shared" si="16"/>
-        <v>47.72</v>
-      </c>
-      <c r="M28" s="6">
-        <f t="shared" si="16"/>
-        <v>35.22999999999999</v>
-      </c>
-      <c r="N28" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="15">
-        <f t="shared" si="17"/>
-        <v>0.34382951653944033</v>
-      </c>
-      <c r="Q28" s="15">
-        <f t="shared" si="17"/>
-        <v>0.33250636132315531</v>
-      </c>
-      <c r="R28" s="15">
-        <f t="shared" si="17"/>
-        <v>0.30356234096692114</v>
-      </c>
-      <c r="S28" s="15">
-        <f t="shared" si="17"/>
-        <v>0.22410941475826968</v>
-      </c>
-      <c r="T28" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="28">
-        <v>44316</v>
-      </c>
-      <c r="X28" s="29">
-        <f t="shared" si="18"/>
-        <v>211.25</v>
-      </c>
-      <c r="Y28" s="30" t="str">
-        <f t="shared" si="19"/>
-        <v>157.2
-(54.05)
-34.38%</v>
-      </c>
-      <c r="Z28" s="30" t="str">
-        <f t="shared" si="20"/>
-        <v>158.98
-(52.27)
-33.25%</v>
-      </c>
-      <c r="AA28" s="30" t="str">
-        <f t="shared" si="21"/>
-        <v>163.53
-(47.72)
-30.36%</v>
-      </c>
-      <c r="AB28" s="30" t="str">
-        <f t="shared" si="22"/>
-        <v>176.02
-(35.23)
-22.41%</v>
-      </c>
-      <c r="AC28" s="30" t="str">
-        <f t="shared" ref="AC28:AC29" si="23">H28 &amp; CHAR(10) &amp; "(" &amp; FIXED(N28, 2) &amp; ")" &amp; CHAR(10) &amp; FIXED(T28*100,2) &amp; "%"</f>
-        <v>211.25
-(0.00)
-0.00%</v>
-      </c>
-    </row>
-    <row r="29" spans="2:29" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
-        <v>44331</v>
-      </c>
-      <c r="C29" s="9">
-        <v>269.73</v>
-      </c>
-      <c r="D29" s="9">
-        <v>157.19999999999999</v>
-      </c>
-      <c r="E29" s="9">
-        <v>159</v>
-      </c>
-      <c r="F29" s="9">
-        <v>163.83000000000001</v>
-      </c>
-      <c r="G29" s="9">
-        <v>178.5</v>
-      </c>
-      <c r="H29" s="9">
-        <v>219.41</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" si="16"/>
-        <v>112.53000000000003</v>
-      </c>
-      <c r="K29" s="6">
-        <f t="shared" si="16"/>
-        <v>110.73000000000002</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" si="16"/>
-        <v>105.9</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" si="16"/>
-        <v>91.230000000000018</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" si="16"/>
-        <v>50.320000000000022</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="15">
-        <f t="shared" si="17"/>
-        <v>0.71583969465648878</v>
-      </c>
-      <c r="Q29" s="15">
-        <f t="shared" si="17"/>
-        <v>0.70438931297709939</v>
-      </c>
-      <c r="R29" s="15">
-        <f t="shared" si="17"/>
-        <v>0.67366412213740468</v>
-      </c>
-      <c r="S29" s="15">
-        <f t="shared" si="17"/>
-        <v>0.58034351145038188</v>
-      </c>
-      <c r="T29" s="15">
-        <f t="shared" si="17"/>
-        <v>0.3201017811704836</v>
-      </c>
-      <c r="W29" s="35">
-        <v>44331</v>
-      </c>
-      <c r="X29" s="36">
-        <f t="shared" si="18"/>
-        <v>269.73</v>
-      </c>
-      <c r="Y29" s="30" t="str">
-        <f t="shared" si="19"/>
-        <v>157.2
-(112.53)
-71.58%</v>
-      </c>
-      <c r="Z29" s="30" t="str">
-        <f t="shared" si="20"/>
-        <v>159
-(110.73)
-70.44%</v>
-      </c>
-      <c r="AA29" s="30" t="str">
-        <f t="shared" si="21"/>
-        <v>163.83
-(105.90)
-67.37%</v>
-      </c>
-      <c r="AB29" s="30" t="str">
-        <f t="shared" si="22"/>
-        <v>178.5
-(91.23)
-58.03%</v>
-      </c>
-      <c r="AC29" s="30" t="str">
-        <f t="shared" si="23"/>
-        <v>219.41
-(50.32)
-32.01%</v>
-      </c>
-    </row>
-    <row r="30" spans="2:29" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="W12:AC12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="W21:AC21"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AF4:AR4"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="AF12:AR12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>